--- a/03.Tool/Example_FiscalSim.xlsx
+++ b/03.Tool/Example_FiscalSim.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7027" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10333" uniqueCount="1483">
   <si>
     <t>Bracket</t>
   </si>
@@ -15551,25 +15551,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="87">
-        <v>34626.576694199313</v>
+        <v>34626.576666144567</v>
       </c>
       <c r="C2" s="87">
-        <v>34742.247068984019</v>
+        <v>34742.247079590714</v>
       </c>
       <c r="D2" s="87">
-        <v>28461.362606342478</v>
+        <v>28461.362600937126</v>
       </c>
       <c r="E2" s="87">
-        <v>40725.268789028414</v>
+        <v>40725.26874993628</v>
       </c>
       <c r="F2" s="87">
-        <v>34560.054687575735</v>
+        <v>34560.054684728835</v>
       </c>
       <c r="G2" s="87">
-        <v>32072.252118168544</v>
+        <v>32072.25213091361</v>
       </c>
       <c r="H2" s="87">
-        <v>34884.752098017874</v>
+        <v>34884.752130913614</v>
       </c>
       <c r="I2" s="87">
         <v>-4061.5879684336987</v>
@@ -15587,7 +15587,7 @@
         <v>-3360.1577448095431</v>
       </c>
       <c r="N2" s="87">
-        <v>872.35519157940223</v>
+        <v>872.35519099431519</v>
       </c>
       <c r="O2" s="87">
         <v>1312.5</v>
@@ -15638,10 +15638,10 @@
         <v>-3301.1215805508518</v>
       </c>
       <c r="AE2" s="64">
-        <v>-59.036164258691223</v>
+        <v>-59.036164258691215</v>
       </c>
       <c r="AF2" s="64">
-        <v>872.35519157940223</v>
+        <v>872.35519099431519</v>
       </c>
       <c r="AG2" s="64">
         <v>825</v>
@@ -15864,25 +15864,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="64">
-        <v>202.23070414028234</v>
+        <v>202.2307041744391</v>
       </c>
       <c r="C5" s="64">
-        <v>1622.4209087922775</v>
+        <v>1622.4209093790053</v>
       </c>
       <c r="D5" s="64">
-        <v>201.25996113351502</v>
+        <v>201.25996113664488</v>
       </c>
       <c r="E5" s="64">
-        <v>1927.1375067061351</v>
+        <v>1927.137506984383</v>
       </c>
       <c r="F5" s="64">
-        <v>1926.1667640799774</v>
+        <v>1926.1667639465888</v>
       </c>
       <c r="G5" s="64">
-        <v>1753.181366671861</v>
+        <v>1753.1813653725301</v>
       </c>
       <c r="H5" s="64">
-        <v>2046.3024947712013</v>
+        <v>2046.3024927733568</v>
       </c>
       <c r="I5" s="64">
         <v>-0.94601628107910674</v>
@@ -15900,7 +15900,7 @@
         <v>-244.16186146292813</v>
       </c>
       <c r="N5" s="64">
-        <v>71.176462781010798</v>
+        <v>71.176462888869267</v>
       </c>
       <c r="O5" s="64">
         <v>251.73904696832213</v>
@@ -15954,7 +15954,7 @@
         <v>-2.1713410367311874</v>
       </c>
       <c r="AF5" s="64">
-        <v>71.176462781010798</v>
+        <v>71.176462888869267</v>
       </c>
       <c r="AG5" s="64">
         <v>192.84349644442747</v>
@@ -15994,25 +15994,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="64">
-        <v>723.72293336578196</v>
+        <v>723.72293256850935</v>
       </c>
       <c r="C6" s="64">
-        <v>1429.5882757622785</v>
+        <v>1429.5882750326766</v>
       </c>
       <c r="D6" s="64">
-        <v>708.51535089657136</v>
+        <v>708.51535054605063</v>
       </c>
       <c r="E6" s="64">
-        <v>1808.4035991896617</v>
+        <v>1808.403601048328</v>
       </c>
       <c r="F6" s="64">
-        <v>1793.1960187236841</v>
+        <v>1793.1960190258692</v>
       </c>
       <c r="G6" s="64">
-        <v>1667.7427480499211</v>
+        <v>1667.7427495874608</v>
       </c>
       <c r="H6" s="64">
-        <v>1960.0890615482519</v>
+        <v>1960.0890616219558</v>
       </c>
       <c r="I6" s="64">
         <v>-13.509524141361005</v>
@@ -16030,7 +16030,7 @@
         <v>-200.91087256420764</v>
       </c>
       <c r="N6" s="64">
-        <v>75.457603154096631</v>
+        <v>75.457603125799267</v>
       </c>
       <c r="O6" s="64">
         <v>180.71042964292116</v>
@@ -16072,7 +16072,7 @@
         <v>102.35091051285275</v>
       </c>
       <c r="AB6" s="64">
-        <v>202.01969463012031</v>
+        <v>202.01969463012034</v>
       </c>
       <c r="AC6" s="64">
         <v>26.697186804669059</v>
@@ -16084,7 +16084,7 @@
         <v>-2.6471003754914588</v>
       </c>
       <c r="AF6" s="64">
-        <v>75.457603154096631</v>
+        <v>75.457603125799267</v>
       </c>
       <c r="AG6" s="64">
         <v>131.6529267776971</v>
@@ -16124,25 +16124,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="64">
-        <v>1317.0785453541848</v>
+        <v>1317.0785457704399</v>
       </c>
       <c r="C7" s="64">
-        <v>1643.2727825409524</v>
+        <v>1643.2727821589217</v>
       </c>
       <c r="D7" s="64">
-        <v>1241.7188369829628</v>
+        <v>1241.7188372235157</v>
       </c>
       <c r="E7" s="64">
-        <v>1958.1574085376237</v>
+        <v>1958.1574061530102</v>
       </c>
       <c r="F7" s="64">
-        <v>1882.7976980200572</v>
+        <v>1882.7976976060861</v>
       </c>
       <c r="G7" s="64">
-        <v>1760.4003760595197</v>
+        <v>1760.400372659082</v>
       </c>
       <c r="H7" s="64">
-        <v>2016.3859967311907</v>
+        <v>2016.386000056207</v>
       </c>
       <c r="I7" s="64">
         <v>-61.357439456544945</v>
@@ -16160,7 +16160,7 @@
         <v>-207.71731629546278</v>
       </c>
       <c r="N7" s="64">
-        <v>85.319991271547508</v>
+        <v>85.319991348458771</v>
       </c>
       <c r="O7" s="64">
         <v>123.28912608895374</v>
@@ -16202,7 +16202,7 @@
         <v>132.85961948036345</v>
       </c>
       <c r="AB7" s="64">
-        <v>43.772284843047323</v>
+        <v>43.772284843047316</v>
       </c>
       <c r="AC7" s="64">
         <v>20.584079968696734</v>
@@ -16211,10 +16211,10 @@
         <v>-205.31643736506709</v>
       </c>
       <c r="AE7" s="64">
-        <v>-2.4008789303956903</v>
+        <v>-2.4008789303956894</v>
       </c>
       <c r="AF7" s="64">
-        <v>85.319991271547508</v>
+        <v>85.319991348458771</v>
       </c>
       <c r="AG7" s="64">
         <v>79.634306410498709</v>
@@ -16254,25 +16254,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="64">
-        <v>1856.4720415876127</v>
+        <v>1856.4720358119571</v>
       </c>
       <c r="C8" s="64">
-        <v>2015.967979963795</v>
+        <v>2015.9679783924366</v>
       </c>
       <c r="D8" s="64">
-        <v>1678.5539213111717</v>
+        <v>1678.5539212909553</v>
       </c>
       <c r="E8" s="64">
-        <v>2358.5607084851331</v>
+        <v>2358.5607030731285</v>
       </c>
       <c r="F8" s="64">
-        <v>2180.6425908253314</v>
+        <v>2180.6425885521271</v>
       </c>
       <c r="G8" s="64">
-        <v>2043.1964466242337</v>
+        <v>2043.1964508779306</v>
       </c>
       <c r="H8" s="64">
-        <v>2370.0170993854272</v>
+        <v>2370.0171042214029</v>
       </c>
       <c r="I8" s="64">
         <v>-133.52492174612155</v>
@@ -16290,7 +16290,7 @@
         <v>-222.93210943209294</v>
       </c>
       <c r="N8" s="64">
-        <v>85.485971832550931</v>
+        <v>85.485971757896749</v>
       </c>
       <c r="O8" s="64">
         <v>151.76127646965907</v>
@@ -16341,10 +16341,10 @@
         <v>-219.94344432662987</v>
       </c>
       <c r="AE8" s="64">
-        <v>-2.9886651054630589</v>
+        <v>-2.9886651054630584</v>
       </c>
       <c r="AF8" s="64">
-        <v>85.485971832550931</v>
+        <v>85.485971757896749</v>
       </c>
       <c r="AG8" s="64">
         <v>106.63939414586044</v>
@@ -16384,25 +16384,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="64">
-        <v>2356.2046839050663</v>
+        <v>2356.2046889419216</v>
       </c>
       <c r="C9" s="64">
-        <v>2433.3226859596653</v>
+        <v>2433.3226874121256</v>
       </c>
       <c r="D9" s="64">
-        <v>2091.4814283678247</v>
+        <v>2091.4814259435484</v>
       </c>
       <c r="E9" s="64">
-        <v>2842.7704816783898</v>
+        <v>2842.7704808913036</v>
       </c>
       <c r="F9" s="64">
-        <v>2578.0472191367749</v>
+        <v>2578.0472178929299</v>
       </c>
       <c r="G9" s="64">
-        <v>2392.5662020889558</v>
+        <v>2392.5662022571441</v>
       </c>
       <c r="H9" s="64">
-        <v>2667.3594002002546</v>
+        <v>2667.3594001286533</v>
       </c>
       <c r="I9" s="64">
         <v>-192.29657594502629</v>
@@ -16420,7 +16420,7 @@
         <v>-272.44733957120559</v>
       </c>
       <c r="N9" s="64">
-        <v>86.966323997305437</v>
+        <v>86.966323935419823</v>
       </c>
       <c r="O9" s="64">
         <v>104.17281922168424</v>
@@ -16471,10 +16471,10 @@
         <v>-268.27496862542802</v>
       </c>
       <c r="AE9" s="64">
-        <v>-4.1723709457776028</v>
+        <v>-4.1723709457776019</v>
       </c>
       <c r="AF9" s="64">
-        <v>86.966323997305437</v>
+        <v>86.966323935419823</v>
       </c>
       <c r="AG9" s="64">
         <v>58.218166779389271</v>
@@ -16514,25 +16514,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="64">
-        <v>2980.6606639895499</v>
+        <v>2980.6606644910712</v>
       </c>
       <c r="C10" s="64">
-        <v>2960.2102794073899</v>
+        <v>2960.210278352281</v>
       </c>
       <c r="D10" s="64">
-        <v>2589.5680840255172</v>
+        <v>2589.5680829890753</v>
       </c>
       <c r="E10" s="64">
-        <v>3384.5019184087455</v>
+        <v>3384.5019209289094</v>
       </c>
       <c r="F10" s="64">
-        <v>2993.4093403038455</v>
+        <v>2993.409339426913</v>
       </c>
       <c r="G10" s="64">
-        <v>2793.4060956044527</v>
+        <v>2793.4060895746406</v>
       </c>
       <c r="H10" s="64">
-        <v>3071.3763104159866</v>
+        <v>3071.3763074864278</v>
       </c>
       <c r="I10" s="64">
         <v>-272.80787195304993</v>
@@ -16550,7 +16550,7 @@
         <v>-291.91293832265802</v>
       </c>
       <c r="N10" s="64">
-        <v>91.909688539330048</v>
+        <v>91.909688470385944</v>
       </c>
       <c r="O10" s="64">
         <v>106.96250128969831</v>
@@ -16598,13 +16598,13 @@
         <v>11.350661428007504</v>
       </c>
       <c r="AD10" s="64">
-        <v>-287.04599185520027</v>
+        <v>-287.04599185520021</v>
       </c>
       <c r="AE10" s="64">
         <v>-4.8669464674577281</v>
       </c>
       <c r="AF10" s="64">
-        <v>91.909688539330048</v>
+        <v>91.909688470385944</v>
       </c>
       <c r="AG10" s="64">
         <v>62.568713166285619</v>
@@ -16644,25 +16644,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="64">
-        <v>3665.044860056943</v>
+        <v>3665.0448557589307</v>
       </c>
       <c r="C11" s="64">
-        <v>3391.114427634699</v>
+        <v>3391.1144256215907</v>
       </c>
       <c r="D11" s="64">
-        <v>3031.8495685650046</v>
+        <v>3031.8495628637952</v>
       </c>
       <c r="E11" s="64">
-        <v>3983.1629097466994</v>
+        <v>3983.1629037445205</v>
       </c>
       <c r="F11" s="64">
-        <v>3349.9676177805804</v>
+        <v>3349.967610849385</v>
       </c>
       <c r="G11" s="64">
-        <v>3109.7528720227501</v>
+        <v>3109.7528780589014</v>
       </c>
       <c r="H11" s="64">
-        <v>3398.3901421811684</v>
+        <v>3398.3901424560145</v>
       </c>
       <c r="I11" s="64">
         <v>-440.82239638829861</v>
@@ -16680,7 +16680,7 @@
         <v>-332.35618541249272</v>
       </c>
       <c r="N11" s="64">
-        <v>92.141452868662398</v>
+        <v>92.141452622009027</v>
       </c>
       <c r="O11" s="64">
         <v>92.275493819450745</v>
@@ -16734,7 +16734,7 @@
         <v>-5.3965233600036768</v>
       </c>
       <c r="AF11" s="64">
-        <v>92.141452868662398</v>
+        <v>92.141452622009027</v>
       </c>
       <c r="AG11" s="64">
         <v>44.726368536714993</v>
@@ -16774,25 +16774,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="64">
-        <v>4586.3162095128655</v>
+        <v>4586.3162020760983</v>
       </c>
       <c r="C12" s="64">
-        <v>4289.6049430081157</v>
+        <v>4289.6049454431868</v>
       </c>
       <c r="D12" s="64">
-        <v>3772.0476794943415</v>
+        <v>3772.0476774856425</v>
       </c>
       <c r="E12" s="64">
-        <v>4949.6086873391068</v>
+        <v>4949.6086792913784</v>
       </c>
       <c r="F12" s="64">
-        <v>4135.3401592172095</v>
+        <v>4135.3401547009216</v>
       </c>
       <c r="G12" s="64">
-        <v>3844.3237137674346</v>
+        <v>3844.3237084032844</v>
       </c>
       <c r="H12" s="64">
-        <v>4109.0916951937807</v>
+        <v>4109.0916989867374</v>
       </c>
       <c r="I12" s="64">
         <v>-542.10395597667821</v>
@@ -16810,7 +16810,7 @@
         <v>-385.91603740216641</v>
       </c>
       <c r="N12" s="64">
-        <v>94.899591210911808</v>
+        <v>94.899591104528767</v>
       </c>
       <c r="O12" s="64">
         <v>104.42431964175007</v>
@@ -16861,10 +16861,10 @@
         <v>-378.23533143712194</v>
       </c>
       <c r="AE12" s="64">
-        <v>-7.6807059650444671</v>
+        <v>-7.680705965044468</v>
       </c>
       <c r="AF12" s="64">
-        <v>94.899591210911808</v>
+        <v>94.899591104528767</v>
       </c>
       <c r="AG12" s="64">
         <v>57.729741520171679</v>
@@ -16904,25 +16904,25 @@
         <v>9</v>
       </c>
       <c r="B13" s="64">
-        <v>5939.4808502434344</v>
+        <v>5939.4808496909263</v>
       </c>
       <c r="C13" s="64">
-        <v>5355.6341088311647</v>
+        <v>5355.6341196997364</v>
       </c>
       <c r="D13" s="64">
-        <v>4729.5022790534067</v>
+        <v>4729.5022776459455</v>
       </c>
       <c r="E13" s="64">
-        <v>6248.9121016787512</v>
+        <v>6248.9120976163367</v>
       </c>
       <c r="F13" s="64">
-        <v>5038.9335234509126</v>
+        <v>5038.9335255713559</v>
       </c>
       <c r="G13" s="64">
-        <v>4650.8071985896086</v>
+        <v>4650.8072065351416</v>
       </c>
       <c r="H13" s="64">
-        <v>4914.5256520626535</v>
+        <v>4914.5256566934386</v>
       </c>
       <c r="I13" s="64">
         <v>-794.54064959259756</v>
@@ -16940,7 +16940,7 @@
         <v>-483.0663312724879</v>
       </c>
       <c r="N13" s="64">
-        <v>94.940012288013506</v>
+        <v>94.940012236274612</v>
       </c>
       <c r="O13" s="64">
         <v>97.176022350314497</v>
@@ -16994,7 +16994,7 @@
         <v>-9.0183508238887047</v>
       </c>
       <c r="AF13" s="64">
-        <v>94.940012288013506</v>
+        <v>94.940012236274612</v>
       </c>
       <c r="AG13" s="64">
         <v>45.894497192893652</v>
@@ -17034,25 +17034,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="64">
-        <v>10999.365202043589</v>
+        <v>10999.365186860274</v>
       </c>
       <c r="C14" s="64">
-        <v>9601.1106770836814</v>
+        <v>9601.1106780987502</v>
       </c>
       <c r="D14" s="64">
-        <v>8416.8654965121659</v>
+        <v>8416.8655038119523</v>
       </c>
       <c r="E14" s="64">
-        <v>11264.053467258167</v>
+        <v>11264.053450204983</v>
       </c>
       <c r="F14" s="64">
-        <v>8681.5537560373614</v>
+        <v>8681.5537671566617</v>
       </c>
       <c r="G14" s="64">
-        <v>8056.8750986898067</v>
+        <v>8056.8751075874943</v>
       </c>
       <c r="H14" s="64">
-        <v>8331.2142455279609</v>
+        <v>8331.2142664894163</v>
       </c>
       <c r="I14" s="64">
         <v>-1609.6786169529412</v>
@@ -17070,7 +17070,7 @@
         <v>-718.73675307384087</v>
       </c>
       <c r="N14" s="64">
-        <v>94.058093635973151</v>
+        <v>94.058093504672925</v>
       </c>
       <c r="O14" s="64">
         <v>99.988964507246081</v>
@@ -17121,10 +17121,10 @@
         <v>-701.04347182540323</v>
       </c>
       <c r="AE14" s="64">
-        <v>-17.693281248437646</v>
+        <v>-17.693281248437643</v>
       </c>
       <c r="AF14" s="64">
-        <v>94.058093635973151</v>
+        <v>94.058093504672925</v>
       </c>
       <c r="AG14" s="64">
         <v>45.092389026061142</v>
@@ -17347,25 +17347,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="64">
-        <v>785.8827932389388</v>
+        <v>785.88279228153647</v>
       </c>
       <c r="C17" s="64">
-        <v>1145.4956700163302</v>
+        <v>1145.4956702010536</v>
       </c>
       <c r="D17" s="64">
-        <v>742.57774004117573</v>
+        <v>742.57773916614758</v>
       </c>
       <c r="E17" s="64">
-        <v>1535.1743226048523</v>
+        <v>1535.1743196016453</v>
       </c>
       <c r="F17" s="64">
-        <v>1491.8692664036816</v>
+        <v>1491.8692664862563</v>
       </c>
       <c r="G17" s="64">
-        <v>1359.1014180813472</v>
+        <v>1359.101418236402</v>
       </c>
       <c r="H17" s="64">
-        <v>1442.7008084205113</v>
+        <v>1442.7008061606734</v>
       </c>
       <c r="I17" s="64">
         <v>-36.129532067293894</v>
@@ -17383,7 +17383,7 @@
         <v>-205.9201947554358</v>
       </c>
       <c r="N17" s="64">
-        <v>73.152346493314383</v>
+        <v>73.152346505581548</v>
       </c>
       <c r="O17" s="64">
         <v>40.74448150220622</v>
@@ -17434,10 +17434,10 @@
         <v>-204.18623741691835</v>
       </c>
       <c r="AE17" s="64">
-        <v>-1.7339573385174434</v>
+        <v>-1.7339573385174418</v>
       </c>
       <c r="AF17" s="64">
-        <v>73.152346493314383</v>
+        <v>73.152346505581548</v>
       </c>
       <c r="AG17" s="64">
         <v>3.2355782084791529</v>
@@ -17477,25 +17477,25 @@
         <v>2</v>
       </c>
       <c r="B18" s="64">
-        <v>1061.1589190688037</v>
+        <v>1061.1589180825042</v>
       </c>
       <c r="C18" s="64">
-        <v>1416.7366943978814</v>
+        <v>1416.736695130407</v>
       </c>
       <c r="D18" s="64">
-        <v>953.57361374687162</v>
+        <v>953.57361240082196</v>
       </c>
       <c r="E18" s="64">
-        <v>1791.170479909001</v>
+        <v>1791.1704803191756</v>
       </c>
       <c r="F18" s="64">
-        <v>1683.5851765888378</v>
+        <v>1683.5851746374931</v>
       </c>
       <c r="G18" s="64">
-        <v>1555.625205699168</v>
+        <v>1555.625202876229</v>
       </c>
       <c r="H18" s="64">
-        <v>1774.0265391660994</v>
+        <v>1774.0265434992759</v>
       </c>
       <c r="I18" s="64">
         <v>-84.577921811705139</v>
@@ -17513,7 +17513,7 @@
         <v>-206.75069480019278</v>
       </c>
       <c r="N18" s="64">
-        <v>78.790722921019437</v>
+        <v>78.790723038928633</v>
       </c>
       <c r="O18" s="64">
         <v>89.168210284756441</v>
@@ -17567,7 +17567,7 @@
         <v>-2.6272000895829715</v>
       </c>
       <c r="AF18" s="64">
-        <v>78.790722921019437</v>
+        <v>78.790723038928633</v>
       </c>
       <c r="AG18" s="64">
         <v>41.042856764702748</v>
@@ -17607,25 +17607,25 @@
         <v>3</v>
       </c>
       <c r="B19" s="64">
-        <v>1418.6743456117294</v>
+        <v>1418.6743428038731</v>
       </c>
       <c r="C19" s="64">
-        <v>1790.2405966042468</v>
+        <v>1790.2405975339038</v>
       </c>
       <c r="D19" s="64">
-        <v>1260.4932410798003</v>
+        <v>1260.493239579489</v>
       </c>
       <c r="E19" s="64">
-        <v>2126.9812684761773</v>
+        <v>2126.9812656037971</v>
       </c>
       <c r="F19" s="64">
-        <v>1968.8001629736671</v>
+        <v>1968.800162379413</v>
       </c>
       <c r="G19" s="64">
-        <v>1822.0079184833116</v>
+        <v>1822.0079205561058</v>
       </c>
       <c r="H19" s="64">
-        <v>2075.5596414704328</v>
+        <v>2075.5596468646359</v>
       </c>
       <c r="I19" s="64">
         <v>-119.15878297718137</v>
@@ -17643,7 +17643,7 @@
         <v>-228.52015254676397</v>
       </c>
       <c r="N19" s="64">
-        <v>81.727910751951001</v>
+        <v>81.727910723456802</v>
       </c>
       <c r="O19" s="64">
         <v>110.88489658522677</v>
@@ -17685,7 +17685,7 @@
         <v>127.72838769138772</v>
       </c>
       <c r="AB19" s="64">
-        <v>38.55433533045143</v>
+        <v>38.554335330451423</v>
       </c>
       <c r="AC19" s="64">
         <v>21.856548343567617</v>
@@ -17697,7 +17697,7 @@
         <v>-2.1553801294482131</v>
       </c>
       <c r="AF19" s="64">
-        <v>81.727910751951001</v>
+        <v>81.727910723456802</v>
       </c>
       <c r="AG19" s="64">
         <v>60.959213658984623</v>
@@ -17737,25 +17737,25 @@
         <v>4</v>
       </c>
       <c r="B20" s="64">
-        <v>1868.5291673894912</v>
+        <v>1868.5291655563055</v>
       </c>
       <c r="C20" s="64">
-        <v>2124.2456083889483</v>
+        <v>2124.2456078622286</v>
       </c>
       <c r="D20" s="64">
-        <v>1627.2560968178668</v>
+        <v>1627.2560952853516</v>
       </c>
       <c r="E20" s="64">
-        <v>2488.4560390199999</v>
+        <v>2488.4560352352182</v>
       </c>
       <c r="F20" s="64">
-        <v>2247.1829676341467</v>
+        <v>2247.1829649642641</v>
       </c>
       <c r="G20" s="64">
-        <v>2087.6852048045898</v>
+        <v>2087.6852054425831</v>
       </c>
       <c r="H20" s="64">
-        <v>2384.065402920301</v>
+        <v>2384.0653993961287</v>
       </c>
       <c r="I20" s="64">
         <v>-169.50713524076116</v>
@@ -17773,7 +17773,7 @@
         <v>-243.35577789208742</v>
       </c>
       <c r="N20" s="64">
-        <v>83.858018480827695</v>
+        <v>83.85801837040654</v>
       </c>
       <c r="O20" s="64">
         <v>145.25831873021318</v>
@@ -17824,10 +17824,10 @@
         <v>-240.04493054757413</v>
       </c>
       <c r="AE20" s="64">
-        <v>-3.3108473445133031</v>
+        <v>-3.3108473445133026</v>
       </c>
       <c r="AF20" s="64">
-        <v>83.858018480827695</v>
+        <v>83.85801837040654</v>
       </c>
       <c r="AG20" s="64">
         <v>97.718578539667291</v>
@@ -17867,25 +17867,25 @@
         <v>5</v>
       </c>
       <c r="B21" s="64">
-        <v>2353.8894973471606</v>
+        <v>2353.8895001209994</v>
       </c>
       <c r="C21" s="64">
-        <v>2548.0686270314864</v>
+        <v>2548.0686260020198</v>
       </c>
       <c r="D21" s="64">
-        <v>2020.560979288819</v>
+        <v>2020.5609773681233</v>
       </c>
       <c r="E21" s="64">
-        <v>2946.8419918047753</v>
+        <v>2946.8419915074892</v>
       </c>
       <c r="F21" s="64">
-        <v>2613.5134714692908</v>
+        <v>2613.5134687546133</v>
       </c>
       <c r="G21" s="64">
-        <v>2420.0745451103107</v>
+        <v>2420.0745444191157</v>
       </c>
       <c r="H21" s="64">
-        <v>2706.9091919885818</v>
+        <v>2706.9092010124687</v>
       </c>
       <c r="I21" s="64">
         <v>-240.75697755592472</v>
@@ -17903,7 +17903,7 @@
         <v>-282.20922624964362</v>
       </c>
       <c r="N21" s="64">
-        <v>88.770302008542927</v>
+        <v>88.770301914145861</v>
       </c>
       <c r="O21" s="64">
         <v>141.64167331180735</v>
@@ -17957,7 +17957,7 @@
         <v>-3.7461685801280034</v>
       </c>
       <c r="AF21" s="64">
-        <v>88.770302008542927</v>
+        <v>88.770301914145861</v>
       </c>
       <c r="AG21" s="64">
         <v>93.044234793460333</v>
@@ -17997,25 +17997,25 @@
         <v>6</v>
       </c>
       <c r="B22" s="64">
-        <v>2864.4380996295022</v>
+        <v>2864.4380995986967</v>
       </c>
       <c r="C22" s="64">
-        <v>2949.3073683871448</v>
+        <v>2949.3073668089537</v>
       </c>
       <c r="D22" s="64">
-        <v>2426.5007789486731</v>
+        <v>2426.5007793261489</v>
       </c>
       <c r="E22" s="64">
-        <v>3411.7501804694284</v>
+        <v>3411.7501786683506</v>
       </c>
       <c r="F22" s="64">
-        <v>2973.8128608880925</v>
+        <v>2973.8128583958028</v>
       </c>
       <c r="G22" s="64">
-        <v>2771.5449703256736</v>
+        <v>2771.544970422879</v>
       </c>
       <c r="H22" s="64">
-        <v>3115.3034912554485</v>
+        <v>3115.3034914885511</v>
       </c>
       <c r="I22" s="64">
         <v>-297.61816024008613</v>
@@ -18033,7 +18033,7 @@
         <v>-292.33435636543595</v>
       </c>
       <c r="N22" s="64">
-        <v>90.06646843950881</v>
+        <v>90.066468392512121</v>
       </c>
       <c r="O22" s="64">
         <v>161.69712739633152</v>
@@ -18084,10 +18084,10 @@
         <v>-287.51211729822063</v>
       </c>
       <c r="AE22" s="64">
-        <v>-4.8222390672153397</v>
+        <v>-4.8222390672153388</v>
       </c>
       <c r="AF22" s="64">
-        <v>90.06646843950881</v>
+        <v>90.066468392512121</v>
       </c>
       <c r="AG22" s="64">
         <v>111.96546757389082</v>
@@ -18127,25 +18127,25 @@
         <v>7</v>
       </c>
       <c r="B23" s="64">
-        <v>3573.3343063210036</v>
+        <v>3573.334296854558</v>
       </c>
       <c r="C23" s="64">
-        <v>3501.0868955659307</v>
+        <v>3501.0868922451186</v>
       </c>
       <c r="D23" s="64">
-        <v>2971.8896654777568</v>
+        <v>2971.8896625677053</v>
       </c>
       <c r="E23" s="64">
-        <v>4052.289566558381</v>
+        <v>4052.2895630832045</v>
       </c>
       <c r="F23" s="64">
-        <v>3450.844929506789</v>
+        <v>3450.8449287963513</v>
       </c>
       <c r="G23" s="64">
-        <v>3204.353770499943</v>
+        <v>3204.3537638873663</v>
       </c>
       <c r="H23" s="64">
-        <v>3540.1926659415717</v>
+        <v>3540.1926560797569</v>
       </c>
       <c r="I23" s="64">
         <v>-406.25656012065264</v>
@@ -18163,7 +18163,7 @@
         <v>-338.9402569978734</v>
       </c>
       <c r="N23" s="64">
-        <v>92.449092231782004</v>
+        <v>92.449092088888335</v>
       </c>
       <c r="O23" s="64">
         <v>160.86919232441272</v>
@@ -18214,10 +18214,10 @@
         <v>-333.4818149241753</v>
       </c>
       <c r="AE23" s="64">
-        <v>-5.4584420736981105</v>
+        <v>-5.4584420736981114</v>
       </c>
       <c r="AF23" s="64">
-        <v>92.449092231782004</v>
+        <v>92.449092088888335</v>
       </c>
       <c r="AG23" s="64">
         <v>112.13492564944744</v>
@@ -18257,25 +18257,25 @@
         <v>8</v>
       </c>
       <c r="B24" s="64">
-        <v>4462.5614045133761</v>
+        <v>4462.5613984095553</v>
       </c>
       <c r="C24" s="64">
-        <v>4269.6926527559453</v>
+        <v>4269.6926599898561</v>
       </c>
       <c r="D24" s="64">
-        <v>3641.6421684049747</v>
+        <v>3641.6421670842005</v>
       </c>
       <c r="E24" s="64">
-        <v>4955.3946264061215</v>
+        <v>4955.3946213516901</v>
       </c>
       <c r="F24" s="64">
-        <v>4134.4753925682744</v>
+        <v>4134.4753900263349</v>
       </c>
       <c r="G24" s="64">
-        <v>3826.5501767142027</v>
+        <v>3826.5501895663597</v>
       </c>
       <c r="H24" s="64">
-        <v>4139.9814588603585</v>
+        <v>4139.9814592594967</v>
       </c>
       <c r="I24" s="64">
         <v>-547.18664926276813</v>
@@ -18293,7 +18293,7 @@
         <v>-402.76742652978959</v>
       </c>
       <c r="N24" s="64">
-        <v>94.842226106416419</v>
+        <v>94.842226069813663</v>
       </c>
       <c r="O24" s="64">
         <v>151.48494499812023</v>
@@ -18341,13 +18341,13 @@
         <v>11.721667710936069</v>
       </c>
       <c r="AD24" s="64">
-        <v>-394.71928296201395</v>
+        <v>-394.71928296201389</v>
       </c>
       <c r="AE24" s="64">
         <v>-8.0481435677756306</v>
       </c>
       <c r="AF24" s="64">
-        <v>94.842226106416419</v>
+        <v>94.842226069813663</v>
       </c>
       <c r="AG24" s="64">
         <v>100.34264660010086</v>
@@ -18387,25 +18387,25 @@
         <v>9</v>
       </c>
       <c r="B25" s="64">
-        <v>5780.8996130640999</v>
+        <v>5780.8996216303522</v>
       </c>
       <c r="C25" s="64">
-        <v>5370.4217174053547</v>
+        <v>5370.4217173154002</v>
       </c>
       <c r="D25" s="64">
-        <v>4595.7718390208674</v>
+        <v>4595.7718360999415</v>
       </c>
       <c r="E25" s="64">
-        <v>6272.9289643102429</v>
+        <v>6272.9289675207147</v>
       </c>
       <c r="F25" s="64">
-        <v>5087.8011876150349</v>
+        <v>5087.8011819903031</v>
       </c>
       <c r="G25" s="64">
-        <v>4706.3329633294134</v>
+        <v>4706.3329717860752</v>
       </c>
       <c r="H25" s="64">
-        <v>5035.7196735747939</v>
+        <v>5035.7196799018675</v>
       </c>
       <c r="I25" s="64">
         <v>-774.28175819432408</v>
@@ -18423,7 +18423,7 @@
         <v>-477.09338586824231</v>
       </c>
       <c r="N25" s="64">
-        <v>95.625175798835301</v>
+        <v>95.625175664014662</v>
       </c>
       <c r="O25" s="64">
         <v>140.92430495854995</v>
@@ -18477,7 +18477,7 @@
         <v>-8.5999841050685522</v>
       </c>
       <c r="AF25" s="64">
-        <v>95.625175798835301</v>
+        <v>95.625175664014662</v>
       </c>
       <c r="AG25" s="64">
         <v>87.863888395875009</v>
@@ -18517,25 +18517,25 @@
         <v>10</v>
       </c>
       <c r="B26" s="64">
-        <v>10457.208548015204</v>
+        <v>10457.208530806187</v>
       </c>
       <c r="C26" s="64">
-        <v>9626.9512384307491</v>
+        <v>9626.9512465017706</v>
       </c>
       <c r="D26" s="64">
-        <v>8221.0964835156756</v>
+        <v>8221.096492059196</v>
       </c>
       <c r="E26" s="64">
-        <v>11144.281349469435</v>
+        <v>11144.281327044997</v>
       </c>
       <c r="F26" s="64">
-        <v>8908.1692719279199</v>
+        <v>8908.1692882980042</v>
       </c>
       <c r="G26" s="64">
-        <v>8318.9759451205828</v>
+        <v>8318.9759437204939</v>
       </c>
       <c r="H26" s="64">
-        <v>8670.2932244197782</v>
+        <v>8670.2932472507546</v>
       </c>
       <c r="I26" s="64">
         <v>-1386.1144909630011</v>
@@ -18553,7 +18553,7 @@
         <v>-682.26627280407808</v>
       </c>
       <c r="N26" s="64">
-        <v>93.072928347204254</v>
+        <v>93.072928226567015</v>
       </c>
       <c r="O26" s="64">
         <v>169.82684990837561</v>
@@ -18604,10 +18604,10 @@
         <v>-663.73247084133448</v>
       </c>
       <c r="AE26" s="64">
-        <v>-18.533801962743656</v>
+        <v>-18.533801962743652</v>
       </c>
       <c r="AF26" s="64">
-        <v>93.072928347204254</v>
+        <v>93.072928226567015</v>
       </c>
       <c r="AG26" s="64">
         <v>116.69260981539175</v>
@@ -18830,25 +18830,25 @@
         <v>156</v>
       </c>
       <c r="B29" s="64">
-        <v>6616.374903956651</v>
+        <v>6616.374892290698</v>
       </c>
       <c r="C29" s="64">
-        <v>5998.9860260517244</v>
+        <v>5998.9860366922376</v>
       </c>
       <c r="D29" s="64">
-        <v>5323.9161716662848</v>
+        <v>5323.9161641312558</v>
       </c>
       <c r="E29" s="64">
-        <v>7176.9202815275476</v>
+        <v>7176.920266089347</v>
       </c>
       <c r="F29" s="64">
-        <v>5884.4615418625517</v>
+        <v>5884.4615379299048</v>
       </c>
       <c r="G29" s="64">
-        <v>5435.472576094071</v>
+        <v>5435.4725659292371</v>
       </c>
       <c r="H29" s="64">
-        <v>5917.62269425048</v>
+        <v>5917.6226972864761</v>
       </c>
       <c r="I29" s="64">
         <v>-843.93158298412379</v>
@@ -18866,7 +18866,7 @@
         <v>-606.48761172308673</v>
       </c>
       <c r="N29" s="64">
-        <v>157.49863987663292</v>
+        <v>157.49863972241877</v>
       </c>
       <c r="O29" s="64">
         <v>187.20534317880262</v>
@@ -18908,7 +18908,7 @@
         <v>182.98631751387933</v>
       </c>
       <c r="AB29" s="64">
-        <v>63.989502648477774</v>
+        <v>63.989502648477767</v>
       </c>
       <c r="AC29" s="64">
         <v>13.973117183428128</v>
@@ -18920,7 +18920,7 @@
         <v>-10.359468007813129</v>
       </c>
       <c r="AF29" s="64">
-        <v>157.49863987663292</v>
+        <v>157.49863972241877</v>
       </c>
       <c r="AG29" s="64">
         <v>106.55264596375959</v>
@@ -18960,25 +18960,25 @@
         <v>157</v>
       </c>
       <c r="B30" s="64">
-        <v>5822.5747644569074</v>
+        <v>5822.5747553230258</v>
       </c>
       <c r="C30" s="64">
-        <v>5290.7919196305229</v>
+        <v>5290.7919201868817</v>
       </c>
       <c r="D30" s="64">
-        <v>4735.9488867858126</v>
+        <v>4735.9488892999561</v>
       </c>
       <c r="E30" s="64">
-        <v>6532.9256836569657</v>
+        <v>6532.92567134616</v>
       </c>
       <c r="F30" s="64">
-        <v>5446.2998054453828</v>
+        <v>5446.2998053230904</v>
       </c>
       <c r="G30" s="64">
-        <v>5082.9851000943008</v>
+        <v>5082.9851191385014</v>
       </c>
       <c r="H30" s="64">
-        <v>5688.6002882228613</v>
+        <v>5688.6002934191647</v>
       </c>
       <c r="I30" s="64">
         <v>-676.12230615307442</v>
@@ -18996,7 +18996,7 @@
         <v>-540.61897440868847</v>
       </c>
       <c r="N30" s="64">
-        <v>177.30428833018348</v>
+        <v>177.30428822409928</v>
       </c>
       <c r="O30" s="64">
         <v>158.4618644906167</v>
@@ -19050,7 +19050,7 @@
         <v>-9.7456285543548535</v>
       </c>
       <c r="AF30" s="64">
-        <v>177.30428833018348</v>
+        <v>177.30428822409928</v>
       </c>
       <c r="AG30" s="64">
         <v>67.563423381158742</v>
@@ -19090,25 +19090,25 @@
         <v>158</v>
       </c>
       <c r="B31" s="64">
-        <v>1875.09061170162</v>
+        <v>1875.0906106676866</v>
       </c>
       <c r="C31" s="64">
-        <v>1719.8582401796118</v>
+        <v>1719.8582442074289</v>
       </c>
       <c r="D31" s="64">
-        <v>1557.654110155923</v>
+        <v>1557.6541063616364</v>
       </c>
       <c r="E31" s="64">
-        <v>2339.9654405469018</v>
+        <v>2339.9654372874875</v>
       </c>
       <c r="F31" s="64">
-        <v>2022.5289393772946</v>
+        <v>2022.5289329814375</v>
       </c>
       <c r="G31" s="64">
-        <v>1912.1369969253149</v>
+        <v>1912.1370028561194</v>
       </c>
       <c r="H31" s="64">
-        <v>2282.7639494339364</v>
+        <v>2282.763948256134</v>
       </c>
       <c r="I31" s="64">
         <v>-203.18100661167026</v>
@@ -19126,7 +19126,7 @@
         <v>-196.18355600074409</v>
       </c>
       <c r="N31" s="64">
-        <v>85.791625889579564</v>
+        <v>85.791625875426107</v>
       </c>
       <c r="O31" s="64">
         <v>105.63315131788779</v>
@@ -19177,10 +19177,10 @@
         <v>-192.18251908849027</v>
       </c>
       <c r="AE31" s="64">
-        <v>-4.0010369122538103</v>
+        <v>-4.0010369122538094</v>
       </c>
       <c r="AF31" s="64">
-        <v>85.791625889579564</v>
+        <v>85.791625875426107</v>
       </c>
       <c r="AG31" s="64">
         <v>59.920200208036093</v>
@@ -19220,25 +19220,25 @@
         <v>159</v>
       </c>
       <c r="B32" s="64">
-        <v>1881.3798194842711</v>
+        <v>1881.3798185408357</v>
       </c>
       <c r="C32" s="64">
-        <v>1790.2791573250995</v>
+        <v>1790.2791594901207</v>
       </c>
       <c r="D32" s="64">
-        <v>1696.4263634729837</v>
+        <v>1696.4263630949822</v>
       </c>
       <c r="E32" s="64">
-        <v>2114.3975059948834</v>
+        <v>2114.3975034084278</v>
       </c>
       <c r="F32" s="64">
-        <v>1929.4440464540155</v>
+        <v>1929.4440479625739</v>
       </c>
       <c r="G32" s="64">
-        <v>1795.8327847592207</v>
+        <v>1795.832780968512</v>
       </c>
       <c r="H32" s="64">
-        <v>2066.8468826155326</v>
+        <v>2066.8468838879444</v>
       </c>
       <c r="I32" s="64">
         <v>-123.3153279715482</v>
@@ -19256,7 +19256,7 @@
         <v>-192.02013322874794</v>
       </c>
       <c r="N32" s="64">
-        <v>58.40886631402271</v>
+        <v>58.408866234685959</v>
       </c>
       <c r="O32" s="64">
         <v>62.803366650301477</v>
@@ -19307,10 +19307,10 @@
         <v>-188.02505041411555</v>
       </c>
       <c r="AE32" s="64">
-        <v>-3.9950828146323687</v>
+        <v>-3.9950828146323674</v>
       </c>
       <c r="AF32" s="64">
-        <v>58.40886631402271</v>
+        <v>58.408866234685959</v>
       </c>
       <c r="AG32" s="64">
         <v>28.939985557247372</v>
@@ -19350,25 +19350,25 @@
         <v>160</v>
       </c>
       <c r="B33" s="64">
-        <v>16080.808551952789</v>
+        <v>16080.808545516065</v>
       </c>
       <c r="C33" s="64">
-        <v>15241.167270295638</v>
+        <v>15241.167261615186</v>
       </c>
       <c r="D33" s="64">
-        <v>13082.334500062481</v>
+        <v>13082.334503898976</v>
       </c>
       <c r="E33" s="64">
-        <v>17543.946458435832</v>
+        <v>17543.946449944746</v>
       </c>
       <c r="F33" s="64">
-        <v>14545.472406412178</v>
+        <v>14545.472408327654</v>
       </c>
       <c r="G33" s="64">
-        <v>13483.908554966856</v>
+        <v>13483.908558265128</v>
       </c>
       <c r="H33" s="64">
-        <v>14182.228050416894</v>
+        <v>14182.228071090631</v>
       </c>
       <c r="I33" s="64">
         <v>-2012.7068984207851</v>
@@ -19386,7 +19386,7 @@
         <v>-1339.0438919151561</v>
       </c>
       <c r="N33" s="64">
-        <v>277.48004206882399</v>
+        <v>277.48004185263045</v>
       </c>
       <c r="O33" s="64">
         <v>420.46890102695943</v>
@@ -19440,7 +19440,7 @@
         <v>-24.82389791183553</v>
       </c>
       <c r="AF33" s="64">
-        <v>277.48004206882399</v>
+        <v>277.48004185263045</v>
       </c>
       <c r="AG33" s="64">
         <v>280.74314282257848</v>
@@ -19480,25 +19480,25 @@
         <v>161</v>
       </c>
       <c r="B34" s="64">
-        <v>1128.6194855309179</v>
+        <v>1128.6194850650288</v>
       </c>
       <c r="C34" s="64">
-        <v>3019.4571177199032</v>
+        <v>3019.4571189079379</v>
       </c>
       <c r="D34" s="64">
-        <v>1046.4993476431985</v>
+        <v>1046.499347561753</v>
       </c>
       <c r="E34" s="64">
-        <v>3137.0206630844159</v>
+        <v>3137.0206621143689</v>
       </c>
       <c r="F34" s="64">
-        <v>3054.9005246897923</v>
+        <v>3054.9005246110933</v>
       </c>
       <c r="G34" s="64">
-        <v>2801.1596169191862</v>
+        <v>2801.1596179243456</v>
       </c>
       <c r="H34" s="64">
-        <v>3070.537090653233</v>
+        <v>3070.5370930574827</v>
       </c>
       <c r="I34" s="64">
         <v>-60.841143423876936</v>
@@ -19516,7 +19516,7 @@
         <v>-324.01586491330653</v>
       </c>
       <c r="N34" s="64">
-        <v>70.274958200933028</v>
+        <v>70.274958226558937</v>
       </c>
       <c r="O34" s="64">
         <v>269.3774751331373</v>
@@ -19567,10 +19567,10 @@
         <v>-320.27112188978577</v>
       </c>
       <c r="AE34" s="64">
-        <v>-3.744743023520793</v>
+        <v>-3.7447430235207926</v>
       </c>
       <c r="AF34" s="64">
-        <v>70.274958200933028</v>
+        <v>70.274958226558937</v>
       </c>
       <c r="AG34" s="64">
         <v>202.05604600661971</v>
@@ -19610,25 +19610,25 @@
         <v>162</v>
       </c>
       <c r="B35" s="64">
-        <v>1221.7285571161535</v>
+        <v>1221.7285587412262</v>
       </c>
       <c r="C35" s="64">
-        <v>1681.707337781517</v>
+        <v>1681.7073384909181</v>
       </c>
       <c r="D35" s="64">
-        <v>1018.583226555798</v>
+        <v>1018.5832265885637</v>
       </c>
       <c r="E35" s="64">
-        <v>1880.0927557818648</v>
+        <v>1880.0927597457467</v>
       </c>
       <c r="F35" s="64">
-        <v>1676.9474233345204</v>
+        <v>1676.9474275930841</v>
       </c>
       <c r="G35" s="64">
-        <v>1560.7564884095941</v>
+        <v>1560.7564858317667</v>
       </c>
       <c r="H35" s="64">
-        <v>1676.1531424249395</v>
+        <v>1676.1531439157764</v>
       </c>
       <c r="I35" s="64">
         <v>-141.48970286861962</v>
@@ -19646,7 +19646,7 @@
         <v>-161.78771261981308</v>
       </c>
       <c r="N35" s="64">
-        <v>45.596770899226563</v>
+        <v>45.596770858495702</v>
       </c>
       <c r="O35" s="64">
         <v>108.54989820229473</v>
@@ -19700,7 +19700,7 @@
         <v>-2.3663070342807355</v>
       </c>
       <c r="AF35" s="64">
-        <v>45.596770899226563</v>
+        <v>45.596770858495702</v>
       </c>
       <c r="AG35" s="64">
         <v>79.224556060600008</v>
@@ -19923,25 +19923,25 @@
         <v>462</v>
       </c>
       <c r="B38" s="64">
-        <v>8154.8923408131086</v>
+        <v>8154.8923478919342</v>
       </c>
       <c r="C38" s="64">
-        <v>8523.1895021549353</v>
+        <v>8523.1895007088333</v>
       </c>
       <c r="D38" s="64">
-        <v>7040.9206486749054</v>
+        <v>7040.9206541559843</v>
       </c>
       <c r="E38" s="64">
-        <v>9828.7716785968205</v>
+        <v>9828.77168574188</v>
       </c>
       <c r="F38" s="64">
-        <v>8714.799987713046</v>
+        <v>8714.7999920059301</v>
       </c>
       <c r="G38" s="64">
-        <v>8160.9873249369548</v>
+        <v>8160.9873223449486</v>
       </c>
       <c r="H38" s="64">
-        <v>8967.78005743832</v>
+        <v>8967.7800666415988</v>
       </c>
       <c r="I38" s="64">
         <v>-757.07144782985563</v>
@@ -19959,7 +19959,7 @@
         <v>-799.67716690487418</v>
       </c>
       <c r="N38" s="64">
-        <v>245.86449745906538</v>
+        <v>245.864497243893</v>
       </c>
       <c r="O38" s="64">
         <v>411.37160568582084</v>
@@ -20013,7 +20013,7 @@
         <v>-11.103390059191726</v>
       </c>
       <c r="AF38" s="64">
-        <v>245.86449745906538</v>
+        <v>245.864497243893</v>
       </c>
       <c r="AG38" s="64">
         <v>281.19731847140309</v>
@@ -20053,25 +20053,25 @@
         <v>463</v>
       </c>
       <c r="B39" s="64">
-        <v>9220.2820098711618</v>
+        <v>9220.2819862262677</v>
       </c>
       <c r="C39" s="64">
-        <v>9412.5676400058728</v>
+        <v>9412.5676536450155</v>
       </c>
       <c r="D39" s="64">
-        <v>7758.4909356023063</v>
+        <v>7758.4909346986942</v>
       </c>
       <c r="E39" s="64">
-        <v>11017.728527583238</v>
+        <v>11017.728491487765</v>
       </c>
       <c r="F39" s="64">
-        <v>9555.9374379065066</v>
+        <v>9555.9374399601948</v>
       </c>
       <c r="G39" s="64">
-        <v>8851.79139629575</v>
+        <v>8851.7913809462189</v>
       </c>
       <c r="H39" s="64">
-        <v>9669.8019889763473</v>
+        <v>9669.8019883308571</v>
       </c>
       <c r="I39" s="64">
         <v>-990.54063218053261</v>
@@ -20089,7 +20089,7 @@
         <v>-958.13862316099539</v>
       </c>
       <c r="N39" s="64">
-        <v>253.99256428353763</v>
+        <v>253.99256414701932</v>
       </c>
       <c r="O39" s="64">
         <v>368.1173420477536</v>
@@ -20140,10 +20140,10 @@
         <v>-943.90023081128686</v>
       </c>
       <c r="AE39" s="64">
-        <v>-14.238392349708533</v>
+        <v>-14.238392349708528</v>
       </c>
       <c r="AF39" s="64">
-        <v>253.99256428353763</v>
+        <v>253.99256414701932</v>
       </c>
       <c r="AG39" s="64">
         <v>224.81626300331135</v>
@@ -20183,25 +20183,25 @@
         <v>464</v>
       </c>
       <c r="B40" s="64">
-        <v>4886.7085082212625</v>
+        <v>4886.708511057358</v>
       </c>
       <c r="C40" s="64">
-        <v>5197.9184757694256</v>
+        <v>5197.9184756886825</v>
       </c>
       <c r="D40" s="64">
-        <v>4172.760493202305</v>
+        <v>4172.7604902723215</v>
       </c>
       <c r="E40" s="64">
-        <v>6095.9358464544985</v>
+        <v>6095.935848798772</v>
       </c>
       <c r="F40" s="64">
-        <v>5381.9878326531598</v>
+        <v>5381.9878280137355</v>
       </c>
       <c r="G40" s="64">
-        <v>5044.0800681535038</v>
+        <v>5044.0800684175292</v>
       </c>
       <c r="H40" s="64">
-        <v>5551.8174875805889</v>
+        <v>5551.8174918120922</v>
       </c>
       <c r="I40" s="64">
         <v>-498.10486346291373</v>
@@ -20219,7 +20219,7 @@
         <v>-492.84148509649407</v>
       </c>
       <c r="N40" s="64">
-        <v>154.93372549699629</v>
+        <v>154.93372550028735</v>
       </c>
       <c r="O40" s="64">
         <v>260.68947589285619</v>
@@ -20261,7 +20261,7 @@
         <v>210.37473429582408</v>
       </c>
       <c r="AB40" s="64">
-        <v>98.979726705441863</v>
+        <v>98.979726705441877</v>
       </c>
       <c r="AC40" s="64">
         <v>31.290926633885078</v>
@@ -20273,7 +20273,7 @@
         <v>-4.9531516232953283</v>
       </c>
       <c r="AF40" s="64">
-        <v>154.93372549699629</v>
+        <v>154.93372550028735</v>
       </c>
       <c r="AG40" s="64">
         <v>168.82279989205722</v>
@@ -20313,25 +20313,25 @@
         <v>1238</v>
       </c>
       <c r="B41" s="64">
-        <v>12364.693835293776</v>
+        <v>12364.693820969009</v>
       </c>
       <c r="C41" s="64">
-        <v>11608.571451053784</v>
+        <v>11608.571449548177</v>
       </c>
       <c r="D41" s="64">
-        <v>9489.1905288629641</v>
+        <v>9489.1905218101256</v>
       </c>
       <c r="E41" s="64">
-        <v>13782.832736393853</v>
+        <v>13782.832723907863</v>
       </c>
       <c r="F41" s="64">
-        <v>10907.329429303023</v>
+        <v>10907.329424748978</v>
       </c>
       <c r="G41" s="64">
-        <v>10015.393328782335</v>
+        <v>10015.393359204914</v>
       </c>
       <c r="H41" s="64">
-        <v>10695.35256402262</v>
+        <v>10695.352584129065</v>
       </c>
       <c r="I41" s="64">
         <v>-1815.8710249603962</v>
@@ -20349,7 +20349,7 @@
         <v>-1109.5004696471794</v>
       </c>
       <c r="N41" s="64">
-        <v>217.56440433980296</v>
+        <v>217.56440410311552</v>
       </c>
       <c r="O41" s="64">
         <v>272.32157637356943</v>
@@ -20403,7 +20403,7 @@
         <v>-28.741230226495635</v>
       </c>
       <c r="AF41" s="64">
-        <v>217.56440433980296</v>
+        <v>217.56440410311552</v>
       </c>
       <c r="AG41" s="64">
         <v>150.1636186332284</v>
@@ -20626,25 +20626,25 @@
         <v>438</v>
       </c>
       <c r="B44" s="64">
-        <v>11868.474917246762</v>
+        <v>11868.474900756453</v>
       </c>
       <c r="C44" s="64">
-        <v>11206.124567013667</v>
+        <v>11206.124563995469</v>
       </c>
       <c r="D44" s="64">
-        <v>9128.9140840972614</v>
+        <v>9128.9140747464098</v>
       </c>
       <c r="E44" s="64">
-        <v>13276.10615078523</v>
+        <v>13276.106136699938</v>
       </c>
       <c r="F44" s="64">
-        <v>10536.545313134877</v>
+        <v>10536.545310689895</v>
       </c>
       <c r="G44" s="64">
-        <v>9659.2756021673449</v>
+        <v>9659.2756315665101</v>
       </c>
       <c r="H44" s="64">
-        <v>10329.930597429598</v>
+        <v>10329.930612363416</v>
       </c>
       <c r="I44" s="64">
         <v>-1722.9293893729823</v>
@@ -20662,7 +20662,7 @@
         <v>-1086.411174410046</v>
       </c>
       <c r="N44" s="64">
-        <v>209.14149544163971</v>
+        <v>209.14149528665965</v>
       </c>
       <c r="O44" s="64">
         <v>259.40640073403409</v>
@@ -20716,7 +20716,7 @@
         <v>-29.060021896711756</v>
       </c>
       <c r="AF44" s="64">
-        <v>209.14149544163971</v>
+        <v>209.14149528665965</v>
       </c>
       <c r="AG44" s="64">
         <v>141.5644712296654</v>
@@ -20756,25 +20756,25 @@
         <v>439</v>
       </c>
       <c r="B45" s="64">
-        <v>5473.2385594597517</v>
+        <v>5473.2385585318525</v>
       </c>
       <c r="C45" s="64">
-        <v>5556.0128538011886</v>
+        <v>5556.012855009094</v>
       </c>
       <c r="D45" s="64">
-        <v>4423.3089675309984</v>
+        <v>4423.3089600861776</v>
       </c>
       <c r="E45" s="64">
-        <v>6548.7767733269675</v>
+        <v>6548.7767686227407</v>
       </c>
       <c r="F45" s="64">
-        <v>5498.8471805419131</v>
+        <v>5498.8471701770659</v>
       </c>
       <c r="G45" s="64">
-        <v>5071.618906202968</v>
+        <v>5071.6189012243267</v>
       </c>
       <c r="H45" s="64">
-        <v>5602.4905549651412</v>
+        <v>5602.4905712343325</v>
       </c>
       <c r="I45" s="64">
         <v>-707.90045122783397</v>
@@ -20792,7 +20792,7 @@
         <v>-579.24914274689877</v>
       </c>
       <c r="N45" s="64">
-        <v>152.02087404324195</v>
+        <v>152.02087379416031</v>
       </c>
       <c r="O45" s="64">
         <v>234.20935967434758</v>
@@ -20843,10 +20843,10 @@
         <v>-571.63399909453653</v>
       </c>
       <c r="AE45" s="64">
-        <v>-7.6151436523622777</v>
+        <v>-7.6151436523622769</v>
       </c>
       <c r="AF45" s="64">
-        <v>152.02087404324195</v>
+        <v>152.02087379416031</v>
       </c>
       <c r="AG45" s="64">
         <v>148.10644259542411</v>
@@ -20886,25 +20886,25 @@
         <v>440</v>
       </c>
       <c r="B46" s="64">
-        <v>17284.863217492799</v>
+        <v>17284.863206856262</v>
       </c>
       <c r="C46" s="64">
-        <v>17980.109648169164</v>
+        <v>17980.109660586149</v>
       </c>
       <c r="D46" s="64">
-        <v>14909.139554714222</v>
+        <v>14909.139566104535</v>
       </c>
       <c r="E46" s="64">
-        <v>20900.385864916214</v>
+        <v>20900.3858446136</v>
       </c>
       <c r="F46" s="64">
-        <v>18524.662193898945</v>
+        <v>18524.662203861877</v>
       </c>
       <c r="G46" s="64">
-        <v>17341.357609798233</v>
+        <v>17341.357598122773</v>
       </c>
       <c r="H46" s="64">
-        <v>18952.33094562314</v>
+        <v>18952.330947315862</v>
       </c>
       <c r="I46" s="64">
         <v>-1630.7581278328821</v>
@@ -20922,7 +20922,7 @@
         <v>-1694.4974276525979</v>
       </c>
       <c r="N46" s="64">
-        <v>511.19282209452064</v>
+        <v>511.19282191349521</v>
       </c>
       <c r="O46" s="64">
         <v>818.88423959161832</v>
@@ -20973,10 +20973,10 @@
         <v>-1672.1364289429807</v>
       </c>
       <c r="AE46" s="64">
-        <v>-22.360998709617185</v>
+        <v>-22.360998709617181</v>
       </c>
       <c r="AF46" s="64">
-        <v>511.19282209452064</v>
+        <v>511.19282191349521</v>
       </c>
       <c r="AG46" s="64">
         <v>535.32908617491057</v>
@@ -21277,7 +21277,7 @@
         <v>1000000</v>
       </c>
       <c r="E5" s="13">
-        <v>0.17716056995546786</v>
+        <v>0.17716056985615253</v>
       </c>
       <c r="F5" t="s">
         <v>163</v>
@@ -21321,7 +21321,7 @@
         <v>1000000</v>
       </c>
       <c r="E6" s="13">
-        <v>0.12407229694866895</v>
+        <v>0.12407229702605803</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
@@ -21497,7 +21497,7 @@
         <v>1000000</v>
       </c>
       <c r="E10" s="13">
-        <v>0.077555408065401066</v>
+        <v>0.077555407906039403</v>
       </c>
       <c r="F10" t="s">
         <v>164</v>
@@ -21541,7 +21541,7 @@
         <v>1000000</v>
       </c>
       <c r="E11" s="13">
-        <v>0.038805543569967751</v>
+        <v>0.038805543561015322</v>
       </c>
       <c r="F11" t="s">
         <v>164</v>
@@ -21717,7 +21717,7 @@
         <v>1000000</v>
       </c>
       <c r="E15" s="13">
-        <v>0.19011822173618598</v>
+        <v>0.19011822164280867</v>
       </c>
       <c r="F15" t="s">
         <v>165</v>
@@ -21761,7 +21761,7 @@
         <v>1000000</v>
       </c>
       <c r="E16" s="13">
-        <v>0.12926614806340578</v>
+        <v>0.12926614813252724</v>
       </c>
       <c r="F16" t="s">
         <v>165</v>
@@ -21937,7 +21937,7 @@
         <v>1000000</v>
       </c>
       <c r="E20" s="13">
-        <v>0.026361890364144627</v>
+        <v>0.026361890258195336</v>
       </c>
       <c r="F20" t="s">
         <v>166</v>
@@ -21981,7 +21981,7 @@
         <v>1000000</v>
       </c>
       <c r="E21" s="13">
-        <v>0.0046525425146296115</v>
+        <v>0.0046525425759336228</v>
       </c>
       <c r="F21" t="s">
         <v>166</v>
@@ -22157,7 +22157,7 @@
         <v>1000000</v>
       </c>
       <c r="E25" s="13">
-        <v>0.031466143766107547</v>
+        <v>0.031466143453894931</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -22201,7 +22201,7 @@
         <v>1000000</v>
       </c>
       <c r="E26" s="13">
-        <v>0.0056948804505994903</v>
+        <v>0.0056948805543970051</v>
       </c>
       <c r="F26" t="s">
         <v>167</v>
@@ -22377,7 +22377,7 @@
         <v>1000000</v>
       </c>
       <c r="E30" s="13">
-        <v>0.046182869171644117</v>
+        <v>0.046182869466039979</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -22421,7 +22421,7 @@
         <v>1000000</v>
       </c>
       <c r="E31" s="13">
-        <v>0.010590045984474203</v>
+        <v>0.010590046013096519</v>
       </c>
       <c r="F31" t="s">
         <v>168</v>
@@ -22597,7 +22597,7 @@
         <v>1000000</v>
       </c>
       <c r="E35" s="13">
-        <v>0.022553174967749914</v>
+        <v>0.022553174940164917</v>
       </c>
       <c r="F35" t="s">
         <v>169</v>
@@ -22641,7 +22641,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="13">
-        <v>0.0045255200307917692</v>
+        <v>0.0045255200862868612</v>
       </c>
       <c r="F36" t="s">
         <v>169</v>
@@ -24265,67 +24265,67 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>222.64691523122787</v>
+        <v>222.64691519176475</v>
       </c>
       <c r="B3">
-        <v>39.337630168914792</v>
+        <v>39.33763023481945</v>
       </c>
       <c r="C3">
-        <v>1.0010235729217529</v>
+        <v>1.0010235857208631</v>
       </c>
       <c r="D3">
-        <v>273.8001742606163</v>
+        <v>273.8001742207814</v>
       </c>
       <c r="E3">
-        <v>281.99211425065994</v>
+        <v>281.99211408367324</v>
       </c>
       <c r="F3">
-        <v>200.35290495967865</v>
+        <v>200.35290494846654</v>
       </c>
       <c r="G3">
-        <v>216.30692843246459</v>
+        <v>216.30692849346809</v>
       </c>
       <c r="H3">
-        <v>191.42274833488463</v>
+        <v>191.42274824547948</v>
       </c>
       <c r="I3">
-        <v>21.789254470825195</v>
+        <v>21.789254561996167</v>
       </c>
       <c r="J3">
-        <v>1.941918454170227</v>
+        <v>1.9419184629179833</v>
       </c>
       <c r="K3">
-        <v>127.06205954933166</v>
+        <v>127.06205957215185</v>
       </c>
       <c r="L3">
-        <v>42.98450095129013</v>
+        <v>42.984500919368109</v>
       </c>
       <c r="M3">
-        <v>44.946022023200989</v>
+        <v>44.946022082656803</v>
       </c>
       <c r="N3">
-        <v>424.87732813739774</v>
+        <v>424.87732793347396</v>
       </c>
       <c r="O3">
-        <v>341.42592822885513</v>
+        <v>341.20272449479899</v>
       </c>
       <c r="P3">
-        <v>423.74766212558745</v>
+        <v>423.74766191820925</v>
       </c>
       <c r="Q3">
-        <v>69.322490505695342</v>
+        <v>69.322490518232144</v>
       </c>
       <c r="R3">
-        <v>384.11934976005557</v>
+        <v>384.11934960941642</v>
       </c>
       <c r="S3">
-        <v>46.406511035919188</v>
+        <v>46.406511068090026</v>
       </c>
       <c r="T3">
-        <v>94.257799573898311</v>
+        <v>94.257799554629528</v>
       </c>
       <c r="U3">
-        <v>16.978020687103271</v>
+        <v>16.978020724909324</v>
       </c>
     </row>
     <row r="5">
@@ -24442,7 +24442,7 @@
         <v>1000</v>
       </c>
       <c r="O7">
-        <v>842.41474038752642</v>
+        <v>841.81839252430132</v>
       </c>
       <c r="P7">
         <v>998.02895854424685</v>
@@ -26367,7 +26367,7 @@
         <v>378</v>
       </c>
       <c r="D9" s="13">
-        <v>711.87945053617239</v>
+        <v>711.8794516149311</v>
       </c>
       <c r="E9" s="13">
         <v>99983.870481725811</v>
@@ -26607,7 +26607,7 @@
         <v>378</v>
       </c>
       <c r="D21" s="13">
-        <v>711.87945053617239</v>
+        <v>711.8794516149311</v>
       </c>
       <c r="E21" s="13">
         <v>99983.870481725811</v>
@@ -26687,7 +26687,7 @@
         <v>378</v>
       </c>
       <c r="D25" s="13">
-        <v>2022.6332824077292</v>
+        <v>2022.6332827493518</v>
       </c>
       <c r="E25" s="13">
         <v>99983.870481725811</v>
@@ -26707,7 +26707,7 @@
         <v>378</v>
       </c>
       <c r="D26" s="13">
-        <v>16226.826396851777</v>
+        <v>16226.82640272</v>
       </c>
       <c r="E26" s="13">
         <v>99983.870481725811</v>
@@ -26727,7 +26727,7 @@
         <v>378</v>
       </c>
       <c r="D27" s="13">
-        <v>2012.9242863257589</v>
+        <v>2012.9242863570623</v>
       </c>
       <c r="E27" s="13">
         <v>99983.870481725811</v>
@@ -26747,7 +26747,7 @@
         <v>378</v>
       </c>
       <c r="D28" s="13">
-        <v>19274.483948472076</v>
+        <v>19274.483951255002</v>
       </c>
       <c r="E28" s="13">
         <v>99983.870481725811</v>
@@ -26767,7 +26767,7 @@
         <v>378</v>
       </c>
       <c r="D29" s="13">
-        <v>19264.774956196812</v>
+        <v>19264.774954862714</v>
       </c>
       <c r="E29" s="13">
         <v>99983.870481725811</v>
@@ -26787,7 +26787,7 @@
         <v>378</v>
       </c>
       <c r="D30" s="13">
-        <v>17534.641919991409</v>
+        <v>17534.641906996003</v>
       </c>
       <c r="E30" s="13">
         <v>99983.870481725811</v>
@@ -26807,7 +26807,7 @@
         <v>378</v>
       </c>
       <c r="D31" s="13">
-        <v>20466.326067515129</v>
+        <v>20466.326047533457</v>
       </c>
       <c r="E31" s="13">
         <v>99983.870481725811</v>
@@ -27007,7 +27007,7 @@
         <v>378</v>
       </c>
       <c r="D41" s="13">
-        <v>2020.4226071964447</v>
+        <v>2020.4226071964449</v>
       </c>
       <c r="E41" s="13">
         <v>99988.831005234359</v>
@@ -27087,7 +27087,7 @@
         <v>378</v>
       </c>
       <c r="D45" s="13">
-        <v>754.66031951255104</v>
+        <v>754.66031922954585</v>
       </c>
       <c r="E45" s="13">
         <v>99988.831005234359</v>
@@ -27327,7 +27327,7 @@
         <v>378</v>
       </c>
       <c r="D57" s="13">
-        <v>754.66031951255104</v>
+        <v>754.66031922954585</v>
       </c>
       <c r="E57" s="13">
         <v>99988.831005234359</v>
@@ -27407,7 +27407,7 @@
         <v>378</v>
       </c>
       <c r="D61" s="13">
-        <v>7238.0377497152194</v>
+        <v>7238.0377417416039</v>
       </c>
       <c r="E61" s="13">
         <v>99988.831005234359</v>
@@ -27427,7 +27427,7 @@
         <v>378</v>
       </c>
       <c r="D62" s="13">
-        <v>14297.479642375662</v>
+        <v>14297.479635078827</v>
       </c>
       <c r="E62" s="13">
         <v>99988.831005234359</v>
@@ -27447,7 +27447,7 @@
         <v>378</v>
       </c>
       <c r="D63" s="13">
-        <v>7085.9449377849114</v>
+        <v>7085.9449342793123</v>
       </c>
       <c r="E63" s="13">
         <v>99988.831005234359</v>
@@ -27467,7 +27467,7 @@
         <v>378</v>
       </c>
       <c r="D64" s="13">
-        <v>18086.056022547087</v>
+        <v>18086.056041135824</v>
       </c>
       <c r="E64" s="13">
         <v>99988.831005234359</v>
@@ -27487,7 +27487,7 @@
         <v>378</v>
       </c>
       <c r="D65" s="13">
-        <v>17933.963230651345</v>
+        <v>17933.963233673534</v>
       </c>
       <c r="E65" s="13">
         <v>99988.831005234359</v>
@@ -27507,7 +27507,7 @@
         <v>378</v>
       </c>
       <c r="D66" s="13">
-        <v>16679.290389569767</v>
+        <v>16679.290404946882</v>
       </c>
       <c r="E66" s="13">
         <v>99988.831005234359</v>
@@ -27527,7 +27527,7 @@
         <v>378</v>
       </c>
       <c r="D67" s="13">
-        <v>19603.080082470835</v>
+        <v>19603.080083207955</v>
       </c>
       <c r="E67" s="13">
         <v>99988.831005234359</v>
@@ -27727,7 +27727,7 @@
         <v>378</v>
       </c>
       <c r="D77" s="13">
-        <v>437.72893591580146</v>
+        <v>437.72893591580134</v>
       </c>
       <c r="E77" s="13">
         <v>99998.609302509212</v>
@@ -27787,7 +27787,7 @@
         <v>378</v>
       </c>
       <c r="D80" s="13">
-        <v>24.009123198230782</v>
+        <v>24.009123198230771</v>
       </c>
       <c r="E80" s="13">
         <v>99998.609302509212</v>
@@ -27807,7 +27807,7 @@
         <v>378</v>
       </c>
       <c r="D81" s="13">
-        <v>853.21177831026716</v>
+        <v>853.21177907939045</v>
       </c>
       <c r="E81" s="13">
         <v>99998.609302509212</v>
@@ -28047,7 +28047,7 @@
         <v>378</v>
       </c>
       <c r="D93" s="13">
-        <v>853.21177831026716</v>
+        <v>853.21177907939045</v>
       </c>
       <c r="E93" s="13">
         <v>99998.609302509212</v>
@@ -28127,7 +28127,7 @@
         <v>378</v>
       </c>
       <c r="D97" s="13">
-        <v>13170.968621871985</v>
+        <v>13170.968626034593</v>
       </c>
       <c r="E97" s="13">
         <v>99998.609302509212</v>
@@ -28147,7 +28147,7 @@
         <v>378</v>
       </c>
       <c r="D98" s="13">
-        <v>16432.956358121261</v>
+        <v>16432.956354300899</v>
       </c>
       <c r="E98" s="13">
         <v>99998.609302509212</v>
@@ -28167,7 +28167,7 @@
         <v>378</v>
       </c>
       <c r="D99" s="13">
-        <v>12417.36105775828</v>
+        <v>12417.361060163843</v>
       </c>
       <c r="E99" s="13">
         <v>99998.609302509212</v>
@@ -28187,7 +28187,7 @@
         <v>378</v>
       </c>
       <c r="D100" s="13">
-        <v>19581.846409622904</v>
+        <v>19581.84638577644</v>
       </c>
       <c r="E100" s="13">
         <v>99998.609302509212</v>
@@ -28207,7 +28207,7 @@
         <v>378</v>
       </c>
       <c r="D101" s="13">
-        <v>18828.238824045457</v>
+        <v>18828.238819905688</v>
       </c>
       <c r="E101" s="13">
         <v>99998.609302509212</v>
@@ -28227,7 +28227,7 @@
         <v>378</v>
       </c>
       <c r="D102" s="13">
-        <v>17604.248582438504</v>
+        <v>17604.248548433654</v>
       </c>
       <c r="E102" s="13">
         <v>99998.609302509212</v>
@@ -28247,7 +28247,7 @@
         <v>378</v>
       </c>
       <c r="D103" s="13">
-        <v>20164.140389506341</v>
+        <v>20164.140422756969</v>
       </c>
       <c r="E103" s="13">
         <v>99998.609302509212</v>
@@ -28507,7 +28507,7 @@
         <v>378</v>
       </c>
       <c r="D116" s="13">
-        <v>29.888966764581458</v>
+        <v>29.888966764581451</v>
       </c>
       <c r="E116" s="13">
         <v>99992.252291726545</v>
@@ -28527,7 +28527,7 @@
         <v>378</v>
       </c>
       <c r="D117" s="13">
-        <v>854.92595549449504</v>
+        <v>854.92595474789539</v>
       </c>
       <c r="E117" s="13">
         <v>99992.252291726545</v>
@@ -28767,7 +28767,7 @@
         <v>378</v>
       </c>
       <c r="D129" s="13">
-        <v>854.92595549449504</v>
+        <v>854.92595474789539</v>
       </c>
       <c r="E129" s="13">
         <v>99992.252291726545</v>
@@ -28847,7 +28847,7 @@
         <v>378</v>
       </c>
       <c r="D133" s="13">
-        <v>18566.158867702783</v>
+        <v>18566.158809941753</v>
       </c>
       <c r="E133" s="13">
         <v>99992.252291726545</v>
@@ -28867,7 +28867,7 @@
         <v>378</v>
       </c>
       <c r="D134" s="13">
-        <v>20161.24183383954</v>
+        <v>20161.241818124741</v>
       </c>
       <c r="E134" s="13">
         <v>99992.252291726545</v>
@@ -28887,7 +28887,7 @@
         <v>378</v>
       </c>
       <c r="D135" s="13">
-        <v>16786.83980848841</v>
+        <v>16786.83980828623</v>
       </c>
       <c r="E135" s="13">
         <v>99992.252291726545</v>
@@ -28907,7 +28907,7 @@
         <v>378</v>
       </c>
       <c r="D136" s="13">
-        <v>23587.434570471043</v>
+        <v>23587.434516346806</v>
       </c>
       <c r="E136" s="13">
         <v>99992.252291726545</v>
@@ -28927,7 +28927,7 @@
         <v>378</v>
       </c>
       <c r="D137" s="13">
-        <v>21808.115537425088</v>
+        <v>21808.115514691286</v>
       </c>
       <c r="E137" s="13">
         <v>99992.252291726545</v>
@@ -28947,7 +28947,7 @@
         <v>378</v>
       </c>
       <c r="D138" s="13">
-        <v>20433.547597900138</v>
+        <v>20433.547640440403</v>
       </c>
       <c r="E138" s="13">
         <v>99992.252291726545</v>
@@ -28967,7 +28967,7 @@
         <v>378</v>
       </c>
       <c r="D139" s="13">
-        <v>23702.007356239184</v>
+        <v>23702.007404602689</v>
       </c>
       <c r="E139" s="13">
         <v>99992.252291726545</v>
@@ -29227,7 +29227,7 @@
         <v>378</v>
       </c>
       <c r="D152" s="13">
-        <v>41.749080466323967</v>
+        <v>41.74908046632396</v>
       </c>
       <c r="E152" s="13">
         <v>99939.229778800975</v>
@@ -29247,7 +29247,7 @@
         <v>378</v>
       </c>
       <c r="D153" s="13">
-        <v>870.19205761132116</v>
+        <v>870.19205699208874</v>
       </c>
       <c r="E153" s="13">
         <v>99939.229778800975</v>
@@ -29487,7 +29487,7 @@
         <v>378</v>
       </c>
       <c r="D165" s="13">
-        <v>870.19205761132116</v>
+        <v>870.19205699208874</v>
       </c>
       <c r="E165" s="13">
         <v>99939.229778800975</v>
@@ -29567,7 +29567,7 @@
         <v>378</v>
       </c>
       <c r="D169" s="13">
-        <v>23576.374253835431</v>
+        <v>23576.37430423461</v>
       </c>
       <c r="E169" s="13">
         <v>99939.229778800975</v>
@@ -29587,7 +29587,7 @@
         <v>378</v>
       </c>
       <c r="D170" s="13">
-        <v>24348.023207157232</v>
+        <v>24348.023221690666</v>
       </c>
       <c r="E170" s="13">
         <v>99939.229778800975</v>
@@ -29607,7 +29607,7 @@
         <v>378</v>
       </c>
       <c r="D171" s="13">
-        <v>20927.531991160769</v>
+        <v>20927.531966903265</v>
       </c>
       <c r="E171" s="13">
         <v>99939.229778800975</v>
@@ -29627,7 +29627,7 @@
         <v>378</v>
       </c>
       <c r="D172" s="13">
-        <v>28444.990900674282</v>
+        <v>28444.990892798633</v>
       </c>
       <c r="E172" s="13">
         <v>99939.229778800975</v>
@@ -29647,7 +29647,7 @@
         <v>378</v>
       </c>
       <c r="D173" s="13">
-        <v>25796.1485679133</v>
+        <v>25796.148555467287</v>
       </c>
       <c r="E173" s="13">
         <v>99939.229778800975</v>
@@ -29667,7 +29667,7 @@
         <v>378</v>
       </c>
       <c r="D174" s="13">
-        <v>23940.210539790103</v>
+        <v>23940.210541473007</v>
       </c>
       <c r="E174" s="13">
         <v>99939.229778800975</v>
@@ -29687,7 +29687,7 @@
         <v>378</v>
       </c>
       <c r="D175" s="13">
-        <v>26689.813460680209</v>
+        <v>26689.813459963763</v>
       </c>
       <c r="E175" s="13">
         <v>99939.229778800975</v>
@@ -29927,7 +29927,7 @@
         <v>378</v>
       </c>
       <c r="D187" s="13">
-        <v>2870.9901455614163</v>
+        <v>2870.9901455614158</v>
       </c>
       <c r="E187" s="13">
         <v>99981.531562891876</v>
@@ -29967,7 +29967,7 @@
         <v>378</v>
       </c>
       <c r="D189" s="13">
-        <v>919.26665957818068</v>
+        <v>919.26665888861214</v>
       </c>
       <c r="E189" s="13">
         <v>99981.531562891876</v>
@@ -30207,7 +30207,7 @@
         <v>378</v>
       </c>
       <c r="D201" s="13">
-        <v>919.26665957818068</v>
+        <v>919.26665888861214</v>
       </c>
       <c r="E201" s="13">
         <v>99981.531562891876</v>
@@ -30287,7 +30287,7 @@
         <v>378</v>
       </c>
       <c r="D205" s="13">
-        <v>29812.112471137836</v>
+        <v>29812.112476153972</v>
       </c>
       <c r="E205" s="13">
         <v>99981.531562891876</v>
@@ -30307,7 +30307,7 @@
         <v>378</v>
       </c>
       <c r="D206" s="13">
-        <v>29607.570849675511</v>
+        <v>29607.570839122476</v>
       </c>
       <c r="E206" s="13">
         <v>99981.531562891876</v>
@@ -30327,7 +30327,7 @@
         <v>378</v>
       </c>
       <c r="D207" s="13">
-        <v>25900.464251206122</v>
+        <v>25900.464240839785</v>
       </c>
       <c r="E207" s="13">
         <v>99981.531562891876</v>
@@ -30347,7 +30347,7 @@
         <v>378</v>
       </c>
       <c r="D208" s="13">
-        <v>33851.270984779578</v>
+        <v>33851.271009985874</v>
       </c>
       <c r="E208" s="13">
         <v>99981.531562891876</v>
@@ -30367,7 +30367,7 @@
         <v>378</v>
       </c>
       <c r="D209" s="13">
-        <v>29939.622783442624</v>
+        <v>29939.622774671676</v>
       </c>
       <c r="E209" s="13">
         <v>99981.531562891876</v>
@@ -30387,7 +30387,7 @@
         <v>378</v>
       </c>
       <c r="D210" s="13">
-        <v>27939.22089348374</v>
+        <v>27939.220833174481</v>
       </c>
       <c r="E210" s="13">
         <v>99981.531562891876</v>
@@ -30407,7 +30407,7 @@
         <v>378</v>
       </c>
       <c r="D211" s="13">
-        <v>30719.43650397057</v>
+        <v>30719.436474669572</v>
       </c>
       <c r="E211" s="13">
         <v>99981.531562891876</v>
@@ -30687,7 +30687,7 @@
         <v>378</v>
       </c>
       <c r="D225" s="13">
-        <v>920.64636027014433</v>
+        <v>920.64635780566687</v>
       </c>
       <c r="E225" s="13">
         <v>100083.43794638522</v>
@@ -30927,7 +30927,7 @@
         <v>378</v>
       </c>
       <c r="D237" s="13">
-        <v>920.64636027014433</v>
+        <v>920.64635780566687</v>
       </c>
       <c r="E237" s="13">
         <v>100083.43794638522</v>
@@ -31007,7 +31007,7 @@
         <v>378</v>
       </c>
       <c r="D241" s="13">
-        <v>36619.893713286612</v>
+        <v>36619.893670342324</v>
       </c>
       <c r="E241" s="13">
         <v>100083.43794638522</v>
@@ -31027,7 +31027,7 @@
         <v>378</v>
       </c>
       <c r="D242" s="13">
-        <v>33882.873102853657</v>
+        <v>33882.873082739359</v>
       </c>
       <c r="E242" s="13">
         <v>100083.43794638522</v>
@@ -31047,7 +31047,7 @@
         <v>378</v>
       </c>
       <c r="D243" s="13">
-        <v>30293.219645284054</v>
+        <v>30293.219588319491</v>
       </c>
       <c r="E243" s="13">
         <v>100083.43794638522</v>
@@ -31067,7 +31067,7 @@
         <v>378</v>
       </c>
       <c r="D244" s="13">
-        <v>39798.42211136355</v>
+        <v>39798.422051391804</v>
       </c>
       <c r="E244" s="13">
         <v>100083.43794638522</v>
@@ -31087,7 +31087,7 @@
         <v>378</v>
       </c>
       <c r="D245" s="13">
-        <v>33471.74803862314</v>
+        <v>33471.747969368967</v>
       </c>
       <c r="E245" s="13">
         <v>100083.43794638522</v>
@@ -31107,7 +31107,7 @@
         <v>378</v>
       </c>
       <c r="D246" s="13">
-        <v>31071.603212597944</v>
+        <v>31071.603272909135</v>
       </c>
       <c r="E246" s="13">
         <v>100083.43794638522</v>
@@ -31127,7 +31127,7 @@
         <v>378</v>
       </c>
       <c r="D247" s="13">
-        <v>33955.569591860833</v>
+        <v>33955.569594606997</v>
       </c>
       <c r="E247" s="13">
         <v>100083.43794638522</v>
@@ -31407,7 +31407,7 @@
         <v>378</v>
       </c>
       <c r="D261" s="13">
-        <v>949.4914411741936</v>
+        <v>949.49144010980774</v>
       </c>
       <c r="E261" s="13">
         <v>99947.811107758622</v>
@@ -31647,7 +31647,7 @@
         <v>378</v>
       </c>
       <c r="D273" s="13">
-        <v>949.4914411741936</v>
+        <v>949.49144010980774</v>
       </c>
       <c r="E273" s="13">
         <v>99947.811107758622</v>
@@ -31727,7 +31727,7 @@
         <v>378</v>
       </c>
       <c r="D277" s="13">
-        <v>45887.110069555536</v>
+        <v>45887.109995149032</v>
       </c>
       <c r="E277" s="13">
         <v>99947.811107758622</v>
@@ -31747,7 +31747,7 @@
         <v>378</v>
       </c>
       <c r="D278" s="13">
-        <v>42918.448092707935</v>
+        <v>42918.448117071355</v>
       </c>
       <c r="E278" s="13">
         <v>99947.811107758622</v>
@@ -31767,7 +31767,7 @@
         <v>378</v>
       </c>
       <c r="D279" s="13">
-        <v>37740.172973148081</v>
+        <v>37740.172953050598</v>
       </c>
       <c r="E279" s="13">
         <v>99947.811107758622</v>
@@ -31787,7 +31787,7 @@
         <v>378</v>
       </c>
       <c r="D280" s="13">
-        <v>49521.931821024991</v>
+        <v>49521.931740505679</v>
       </c>
       <c r="E280" s="13">
         <v>99947.811107758622</v>
@@ -31807,7 +31807,7 @@
         <v>378</v>
       </c>
       <c r="D281" s="13">
-        <v>41374.994743593707</v>
+        <v>41374.994698407245</v>
       </c>
       <c r="E281" s="13">
         <v>99947.811107758622</v>
@@ -31827,7 +31827,7 @@
         <v>378</v>
       </c>
       <c r="D282" s="13">
-        <v>38463.310713455059</v>
+        <v>38463.310659785544</v>
       </c>
       <c r="E282" s="13">
         <v>99947.811107758622</v>
@@ -31847,7 +31847,7 @@
         <v>378</v>
       </c>
       <c r="D283" s="13">
-        <v>41112.373044003616</v>
+        <v>41112.373081952988</v>
       </c>
       <c r="E283" s="13">
         <v>99947.811107758622</v>
@@ -32127,7 +32127,7 @@
         <v>378</v>
       </c>
       <c r="D297" s="13">
-        <v>951.07368186447604</v>
+        <v>951.07368134617514</v>
       </c>
       <c r="E297" s="13">
         <v>99824.034770780301</v>
@@ -32367,7 +32367,7 @@
         <v>378</v>
       </c>
       <c r="D309" s="13">
-        <v>951.07368186447604</v>
+        <v>951.07368134617514</v>
       </c>
       <c r="E309" s="13">
         <v>99824.034770780301</v>
@@ -32447,7 +32447,7 @@
         <v>378</v>
       </c>
       <c r="D313" s="13">
-        <v>59499.506946216839</v>
+        <v>59499.506940682026</v>
       </c>
       <c r="E313" s="13">
         <v>99824.034770780301</v>
@@ -32467,7 +32467,7 @@
         <v>378</v>
       </c>
       <c r="D314" s="13">
-        <v>53650.74774956725</v>
+        <v>53650.747858444563</v>
       </c>
       <c r="E314" s="13">
         <v>99824.034770780301</v>
@@ -32487,7 +32487,7 @@
         <v>378</v>
       </c>
       <c r="D315" s="13">
-        <v>47378.392287122711</v>
+        <v>47378.392273023288</v>
       </c>
       <c r="E315" s="13">
         <v>99824.034770780301</v>
@@ -32507,7 +32507,7 @@
         <v>378</v>
       </c>
       <c r="D316" s="13">
-        <v>62599.27397272348</v>
+        <v>62599.273932027725</v>
       </c>
       <c r="E316" s="13">
         <v>99824.034770780301</v>
@@ -32527,7 +32527,7 @@
         <v>378</v>
       </c>
       <c r="D317" s="13">
-        <v>50478.159243127178</v>
+        <v>50478.159264368987</v>
       </c>
       <c r="E317" s="13">
         <v>99824.034770780301</v>
@@ -32547,7 +32547,7 @@
         <v>378</v>
       </c>
       <c r="D318" s="13">
-        <v>46590.054281706471</v>
+        <v>46590.054361301867</v>
       </c>
       <c r="E318" s="13">
         <v>99824.034770780301</v>
@@ -32567,7 +32567,7 @@
         <v>378</v>
       </c>
       <c r="D319" s="13">
-        <v>49231.887524357953</v>
+        <v>49231.887570747436</v>
       </c>
       <c r="E319" s="13">
         <v>99824.034770780301</v>
@@ -32827,7 +32827,7 @@
         <v>378</v>
       </c>
       <c r="D332" s="13">
-        <v>176.47329059086482</v>
+        <v>176.47329059086479</v>
       </c>
       <c r="E332" s="13">
         <v>100260.39175218702</v>
@@ -32847,7 +32847,7 @@
         <v>378</v>
       </c>
       <c r="D333" s="13">
-        <v>938.13810211769328</v>
+        <v>938.13810080810106</v>
       </c>
       <c r="E333" s="13">
         <v>100260.39175218702</v>
@@ -33087,7 +33087,7 @@
         <v>378</v>
       </c>
       <c r="D345" s="13">
-        <v>938.13810211769328</v>
+        <v>938.13810080810106</v>
       </c>
       <c r="E345" s="13">
         <v>100260.39175218702</v>
@@ -33167,7 +33167,7 @@
         <v>378</v>
       </c>
       <c r="D349" s="13">
-        <v>109707.98148515768</v>
+        <v>109707.98133371885</v>
       </c>
       <c r="E349" s="13">
         <v>100260.39175218702</v>
@@ -33187,7 +33187,7 @@
         <v>378</v>
       </c>
       <c r="D350" s="13">
-        <v>95761.751069302481</v>
+        <v>95761.751079426816</v>
       </c>
       <c r="E350" s="13">
         <v>100260.39175218702</v>
@@ -33207,7 +33207,7 @@
         <v>378</v>
       </c>
       <c r="D351" s="13">
-        <v>83950.05594348842</v>
+        <v>83950.056016296701</v>
       </c>
       <c r="E351" s="13">
         <v>100260.39175218702</v>
@@ -33227,7 +33227,7 @@
         <v>378</v>
       </c>
       <c r="D352" s="13">
-        <v>112347.98977346366</v>
+        <v>112347.98960337471</v>
       </c>
       <c r="E352" s="13">
         <v>100260.39175218702</v>
@@ -33247,7 +33247,7 @@
         <v>378</v>
       </c>
       <c r="D353" s="13">
-        <v>86590.064175048334</v>
+        <v>86590.064285952569</v>
       </c>
       <c r="E353" s="13">
         <v>100260.39175218702</v>
@@ -33267,7 +33267,7 @@
         <v>378</v>
       </c>
       <c r="D354" s="13">
-        <v>80359.501472963864</v>
+        <v>80359.501561709651</v>
       </c>
       <c r="E354" s="13">
         <v>100260.39175218702</v>
@@ -33287,7 +33287,7 @@
         <v>378</v>
       </c>
       <c r="D355" s="13">
-        <v>83095.767929175578</v>
+        <v>83095.768138245723</v>
       </c>
       <c r="E355" s="13">
         <v>100260.39175218702</v>
@@ -34437,7 +34437,7 @@
         <v>149</v>
       </c>
       <c r="D72" s="13">
-        <v>0.32635525530948556</v>
+        <v>0.32651812854804341</v>
       </c>
     </row>
     <row r="73">
@@ -34941,7 +34941,7 @@
         <v>149</v>
       </c>
       <c r="D108" s="13">
-        <v>0.35396611307761244</v>
+        <v>0.35337871164049528</v>
       </c>
     </row>
     <row r="109">
@@ -38497,7 +38497,7 @@
         <v>149</v>
       </c>
       <c r="D362" s="13">
-        <v>0.46088429444393814</v>
+        <v>0.46183137721612061</v>
       </c>
     </row>
     <row r="363">
@@ -39001,7 +39001,7 @@
         <v>149</v>
       </c>
       <c r="D398" s="13">
-        <v>0.51570211258427379</v>
+        <v>0.51760124616362779</v>
       </c>
     </row>
     <row r="399">

--- a/03.Tool/Example_FiscalSim.xlsx
+++ b/03.Tool/Example_FiscalSim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/dvalderramagonza_worldbank_org/Documents/Example_FiscalSim/03.Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{677CB6D6-9ADB-4CCD-A457-B7E26AE541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9D6E86-AA35-4AD9-9519-9DF7EF5CEE74}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{677CB6D6-9ADB-4CCD-A457-B7E26AE541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08765EC9-5738-4642-815C-B88244E87E3E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="1485">
   <si>
     <t>Bracket</t>
   </si>
@@ -4536,7 +4536,10 @@
     <t>max number of eligible children</t>
   </si>
   <si>
-    <t>VAT_exempt_share</t>
+    <t>VAT_exempt_share_PY</t>
+  </si>
+  <si>
+    <t>VAT_exempt_share_SY</t>
   </si>
 </sst>
 </file>
@@ -24479,9 +24482,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39144,14 +39145,14 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
       <selection pane="topRight" activeCell="J44" sqref="J44"/>
       <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39160,11 +39161,11 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1099</v>
       </c>
@@ -39226,16 +39227,19 @@
         <v>1119</v>
       </c>
       <c r="U1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V1" t="s">
         <v>1101</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39295,18 +39299,21 @@
       </c>
       <c r="T2" s="195"/>
       <c r="U2" s="129">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="129">
         <f>Parameters!$C$43</f>
         <v>0.18</v>
       </c>
-      <c r="V2" s="195">
+      <c r="W2" s="195">
         <f>T2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="129">
+      <c r="X2" s="129">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39366,18 +39373,21 @@
       </c>
       <c r="T3" s="195"/>
       <c r="U3" s="129">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="V3" s="195">
-        <f t="shared" ref="V3:V17" si="0">T3</f>
+      <c r="W3" s="195">
+        <f t="shared" ref="W3:W17" si="0">T3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="129">
+      <c r="X3" s="129">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39437,18 +39447,21 @@
       </c>
       <c r="T4" s="195"/>
       <c r="U4" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V4" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="V4" s="195">
+      <c r="W4" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="129">
+      <c r="X4" s="129">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -39507,17 +39520,18 @@
         <v>0</v>
       </c>
       <c r="T5" s="195"/>
-      <c r="U5" s="129">
+      <c r="U5" s="129"/>
+      <c r="V5" s="129">
         <f>Parameters!$C$44</f>
         <v>0</v>
       </c>
-      <c r="V5" s="195">
+      <c r="W5" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="129"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="129"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -39576,17 +39590,18 @@
         <v>0.25</v>
       </c>
       <c r="T6" s="195"/>
-      <c r="U6" s="129">
+      <c r="U6" s="129"/>
+      <c r="V6" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="V6" s="195">
+      <c r="W6" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="129"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="129"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -39645,17 +39660,18 @@
         <v>0.25</v>
       </c>
       <c r="T7" s="195"/>
-      <c r="U7" s="129">
+      <c r="U7" s="129"/>
+      <c r="V7" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="V7" s="195">
+      <c r="W7" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="129"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="129"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -39714,16 +39730,19 @@
       <c r="T8" s="195">
         <v>1</v>
       </c>
-      <c r="U8" s="129"/>
-      <c r="V8" s="195">
+      <c r="U8" s="129">
+        <v>1</v>
+      </c>
+      <c r="V8" s="129"/>
+      <c r="W8" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W8" s="129">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -39782,17 +39801,18 @@
         <v>0</v>
       </c>
       <c r="T9" s="195"/>
-      <c r="U9" s="129">
+      <c r="U9" s="129"/>
+      <c r="V9" s="129">
         <f>Parameters!$C$44</f>
         <v>0</v>
       </c>
-      <c r="V9" s="195">
+      <c r="W9" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W9" s="129"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="129"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -39851,17 +39871,18 @@
         <v>0.25</v>
       </c>
       <c r="T10" s="195"/>
-      <c r="U10" s="129">
+      <c r="U10" s="129"/>
+      <c r="V10" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="V10" s="195">
+      <c r="W10" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="129"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="129"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -39920,16 +39941,19 @@
       <c r="T11" s="195">
         <v>1</v>
       </c>
-      <c r="U11" s="129"/>
-      <c r="V11" s="195">
+      <c r="U11" s="129">
+        <v>0.4</v>
+      </c>
+      <c r="V11" s="129"/>
+      <c r="W11" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W11" s="129">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -39988,16 +40012,19 @@
       <c r="T12" s="195">
         <v>1</v>
       </c>
-      <c r="U12" s="129"/>
-      <c r="V12" s="195">
+      <c r="U12" s="129">
+        <v>0.4</v>
+      </c>
+      <c r="V12" s="129"/>
+      <c r="W12" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W12" s="129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -40056,16 +40083,19 @@
       <c r="T13" s="195">
         <v>1</v>
       </c>
-      <c r="U13" s="129"/>
-      <c r="V13" s="195">
+      <c r="U13" s="129">
+        <v>0.4</v>
+      </c>
+      <c r="V13" s="129"/>
+      <c r="W13" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W13" s="129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -40124,16 +40154,19 @@
       <c r="T14" s="195">
         <v>1</v>
       </c>
-      <c r="U14" s="129"/>
-      <c r="V14" s="195">
+      <c r="U14" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V14" s="129"/>
+      <c r="W14" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W14" s="129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="129">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -40192,16 +40225,19 @@
       <c r="T15" s="195">
         <v>1</v>
       </c>
-      <c r="U15" s="129"/>
-      <c r="V15" s="195">
+      <c r="U15" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="129"/>
+      <c r="W15" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W15" s="129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="129">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -40260,16 +40296,19 @@
       <c r="T16" s="195">
         <v>1</v>
       </c>
-      <c r="U16" s="129"/>
-      <c r="V16" s="195">
+      <c r="U16" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="129"/>
+      <c r="W16" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W16" s="129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="129">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -40328,13 +40367,16 @@
       <c r="T17" s="195">
         <v>1</v>
       </c>
-      <c r="U17" s="129"/>
-      <c r="V17" s="195">
+      <c r="U17" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V17" s="129"/>
+      <c r="W17" s="195">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W17" s="129">
-        <v>0.5</v>
+      <c r="X17" s="129">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -48274,6 +48316,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3F2126381553441AAB919CB53585984" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f1b497080c7a9ebe3361009889ddd89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac8e30ca-65e9-4041-b86a-4d1b6d416c33" xmlns:ns4="fb6f0dd5-0349-47c8-82f6-4423e71a7ac1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a52065183d7b0fe9b0b93a9043295234" ns3:_="" ns4:_="">
     <xsd:import namespace="ac8e30ca-65e9-4041-b86a-4d1b6d416c33"/>
@@ -48496,15 +48547,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -48512,6 +48554,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{896EEE12-401D-4484-A123-4E3419FF9B2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48530,14 +48580,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688B2FF8-EC2C-43B6-830F-CB3A5682666A}">
   <ds:schemaRefs>

--- a/03.Tool/Example_FiscalSim.xlsx
+++ b/03.Tool/Example_FiscalSim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/dvalderramagonza_worldbank_org/Documents/Example_FiscalSim/03.Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{677CB6D6-9ADB-4CCD-A457-B7E26AE541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08765EC9-5738-4642-815C-B88244E87E3E}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{677CB6D6-9ADB-4CCD-A457-B7E26AE541CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF3EF3E-8E47-4A13-A4C9-A6BA833307C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -4546,11 +4546,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -5209,7 +5210,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5791,6 +5792,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14082,8 +14086,8 @@
   <dimension ref="A2:E67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24482,7 +24486,9 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39147,12 +39153,12 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
       <selection pane="topRight" activeCell="J44" sqref="J44"/>
       <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:U17"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39161,8 +39167,9 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -39297,7 +39304,9 @@
       <c r="S2" s="129">
         <v>0.18</v>
       </c>
-      <c r="T2" s="195"/>
+      <c r="T2" s="195">
+        <v>0</v>
+      </c>
       <c r="U2" s="129">
         <v>0.2</v>
       </c>
@@ -39305,7 +39314,7 @@
         <f>Parameters!$C$43</f>
         <v>0.18</v>
       </c>
-      <c r="W2" s="195">
+      <c r="W2" s="243">
         <f>T2</f>
         <v>0</v>
       </c>
@@ -39371,21 +39380,19 @@
       <c r="S3" s="129">
         <v>0.25</v>
       </c>
-      <c r="T3" s="195"/>
-      <c r="U3" s="129">
-        <v>0.6</v>
-      </c>
+      <c r="T3" s="195">
+        <v>0</v>
+      </c>
+      <c r="U3" s="129"/>
       <c r="V3" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="W3" s="195">
-        <f t="shared" ref="W3:W17" si="0">T3</f>
+      <c r="W3" s="243">
+        <f t="shared" ref="W3:W16" si="0">T3</f>
         <v>0</v>
       </c>
-      <c r="X3" s="129">
-        <v>0.6</v>
-      </c>
+      <c r="X3" s="129"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -39445,21 +39452,19 @@
       <c r="S4" s="129">
         <v>0.25</v>
       </c>
-      <c r="T4" s="195"/>
-      <c r="U4" s="129">
-        <v>0.8</v>
-      </c>
+      <c r="T4" s="195">
+        <v>0</v>
+      </c>
+      <c r="U4" s="129"/>
       <c r="V4" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="W4" s="195">
+      <c r="W4" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="129">
-        <v>0.8</v>
-      </c>
+      <c r="X4" s="129"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -39519,13 +39524,15 @@
       <c r="S5" s="129">
         <v>0</v>
       </c>
-      <c r="T5" s="195"/>
+      <c r="T5" s="195">
+        <v>0</v>
+      </c>
       <c r="U5" s="129"/>
       <c r="V5" s="129">
         <f>Parameters!$C$44</f>
         <v>0</v>
       </c>
-      <c r="W5" s="195">
+      <c r="W5" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39589,13 +39596,15 @@
       <c r="S6" s="129">
         <v>0.25</v>
       </c>
-      <c r="T6" s="195"/>
+      <c r="T6" s="195">
+        <v>0</v>
+      </c>
       <c r="U6" s="129"/>
       <c r="V6" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="W6" s="195">
+      <c r="W6" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39659,13 +39668,15 @@
       <c r="S7" s="129">
         <v>0.25</v>
       </c>
-      <c r="T7" s="195"/>
+      <c r="T7" s="195">
+        <v>0</v>
+      </c>
       <c r="U7" s="129"/>
       <c r="V7" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="W7" s="195">
+      <c r="W7" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39734,7 +39745,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="129"/>
-      <c r="W8" s="195">
+      <c r="W8" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39800,13 +39811,15 @@
       <c r="S9" s="129">
         <v>0</v>
       </c>
-      <c r="T9" s="195"/>
+      <c r="T9" s="195">
+        <v>0</v>
+      </c>
       <c r="U9" s="129"/>
       <c r="V9" s="129">
         <f>Parameters!$C$44</f>
         <v>0</v>
       </c>
-      <c r="W9" s="195">
+      <c r="W9" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39870,13 +39883,15 @@
       <c r="S10" s="129">
         <v>0.25</v>
       </c>
-      <c r="T10" s="195"/>
+      <c r="T10" s="195">
+        <v>0</v>
+      </c>
       <c r="U10" s="129"/>
       <c r="V10" s="129">
         <f>Parameters!$C$42</f>
         <v>0.25</v>
       </c>
-      <c r="W10" s="195">
+      <c r="W10" s="243">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -39942,15 +39957,18 @@
         <v>1</v>
       </c>
       <c r="U11" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="V11" s="129"/>
-      <c r="W11" s="195">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W11" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X11" s="129">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -40013,15 +40031,18 @@
         <v>1</v>
       </c>
       <c r="U12" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="V12" s="129"/>
-      <c r="W12" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="V12" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W12" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X12" s="129">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -40084,15 +40105,18 @@
         <v>1</v>
       </c>
       <c r="U13" s="129">
-        <v>0.4</v>
-      </c>
-      <c r="V13" s="129"/>
-      <c r="W13" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W13" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X13" s="129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -40155,10 +40179,13 @@
         <v>1</v>
       </c>
       <c r="U14" s="129">
-        <v>0.8</v>
-      </c>
-      <c r="V14" s="129"/>
-      <c r="W14" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W14" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -40226,10 +40253,13 @@
         <v>1</v>
       </c>
       <c r="U15" s="129">
-        <v>0.8</v>
-      </c>
-      <c r="V15" s="129"/>
-      <c r="W15" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W15" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -40297,10 +40327,13 @@
         <v>1</v>
       </c>
       <c r="U16" s="129">
-        <v>0.8</v>
-      </c>
-      <c r="V16" s="129"/>
-      <c r="W16" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W16" s="243">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -40368,11 +40401,14 @@
         <v>1</v>
       </c>
       <c r="U17" s="129">
-        <v>0.8</v>
-      </c>
-      <c r="V17" s="129"/>
-      <c r="W17" s="195">
-        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="129">
+        <f>Parameters!$C$42</f>
+        <v>0.25</v>
+      </c>
+      <c r="W17" s="243">
+        <f>T17</f>
         <v>1</v>
       </c>
       <c r="X17" s="129">
@@ -40451,24 +40487,24 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
       <c r="AK3"/>
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="246"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="247"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="O4" s="4"/>
@@ -41215,12 +41251,12 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
       <c r="AL3"/>
     </row>
     <row r="4" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -42248,18 +42284,18 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="X4" s="247" t="s">
+      <c r="X4" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="248"/>
-      <c r="Z4" s="248"/>
-      <c r="AA4" s="248"/>
-      <c r="AB4" s="248"/>
-      <c r="AC4" s="248"/>
-      <c r="AD4" s="248"/>
-      <c r="AE4" s="248"/>
-      <c r="AF4" s="248"/>
-      <c r="AG4" s="249"/>
+      <c r="Y4" s="249"/>
+      <c r="Z4" s="249"/>
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="249"/>
+      <c r="AD4" s="249"/>
+      <c r="AE4" s="249"/>
+      <c r="AF4" s="249"/>
+      <c r="AG4" s="250"/>
     </row>
     <row r="5" spans="1:61" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="43"/>
@@ -44302,20 +44338,20 @@
       <c r="B2">
         <v>34626.576694199313</v>
       </c>
-      <c r="E2" s="250" t="s">
+      <c r="E2" s="251" t="s">
         <v>778</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -44344,10 +44380,10 @@
       <c r="L3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="253" t="s">
+      <c r="M3" s="254" t="s">
         <v>784</v>
       </c>
-      <c r="N3" s="253"/>
+      <c r="N3" s="254"/>
       <c r="O3" s="113" t="s">
         <v>16</v>
       </c>
@@ -46103,24 +46139,24 @@
   <sheetData>
     <row r="4" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="254" t="s">
+      <c r="D5" s="255" t="s">
         <v>795</v>
       </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="4:15" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="134" t="s">
         <v>796</v>
       </c>
       <c r="E6" s="135"/>
-      <c r="F6" s="257" t="s">
+      <c r="F6" s="258" t="s">
         <v>797</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="259"/>
     </row>
     <row r="7" spans="4:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D7" s="136"/>
@@ -46188,21 +46224,21 @@
     </row>
     <row r="13" spans="4:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="259" t="s">
+      <c r="D14" s="260" t="s">
         <v>803</v>
       </c>
-      <c r="E14" s="260"/>
-      <c r="F14" s="261"/>
-      <c r="H14" s="259" t="s">
+      <c r="E14" s="261"/>
+      <c r="F14" s="262"/>
+      <c r="H14" s="260" t="s">
         <v>804</v>
       </c>
-      <c r="I14" s="260"/>
-      <c r="J14" s="261"/>
-      <c r="M14" s="262" t="s">
+      <c r="I14" s="261"/>
+      <c r="J14" s="262"/>
+      <c r="M14" s="263" t="s">
         <v>805</v>
       </c>
-      <c r="N14" s="263"/>
-      <c r="O14" s="264"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="265"/>
     </row>
     <row r="15" spans="4:15" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="130"/>
@@ -46699,13 +46735,13 @@
       <c r="B2" s="168">
         <v>34626.576694199313</v>
       </c>
-      <c r="H2" s="265" t="s">
+      <c r="H2" s="266" t="s">
         <v>1088</v>
       </c>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="268"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="168" t="str">
@@ -46719,10 +46755,10 @@
       <c r="J3" s="177" t="s">
         <v>1089</v>
       </c>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="269" t="s">
         <v>1090</v>
       </c>
-      <c r="L3" s="269"/>
+      <c r="L3" s="270"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="168" t="str">
@@ -48316,15 +48352,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3F2126381553441AAB919CB53585984" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f1b497080c7a9ebe3361009889ddd89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac8e30ca-65e9-4041-b86a-4d1b6d416c33" xmlns:ns4="fb6f0dd5-0349-47c8-82f6-4423e71a7ac1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a52065183d7b0fe9b0b93a9043295234" ns3:_="" ns4:_="">
     <xsd:import namespace="ac8e30ca-65e9-4041-b86a-4d1b6d416c33"/>
@@ -48547,6 +48574,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -48554,14 +48590,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{896EEE12-401D-4484-A123-4E3419FF9B2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48580,6 +48608,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688B2FF8-EC2C-43B6-830F-CB3A5682666A}">
   <ds:schemaRefs>

--- a/03.Tool/Example_FiscalSim.xlsx
+++ b/03.Tool/Example_FiscalSim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb395877\GitHub\Example_FiscalSim\03.Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B8F27-07A7-46D8-863C-C99DF7C471E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C91DA1-9107-4457-9AFF-8841C6DAE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="incomes" localSheetId="13">[1]legend!$A$2:$A$10</definedName>
@@ -9381,7 +9382,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9962,6 +9963,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10495,10 +10497,10 @@
                   <c:v>0.32030570000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32573809999999997</c:v>
+                  <c:v>0.32570440000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30418830000000002</c:v>
+                  <c:v>0.30415550000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12150,34 +12152,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.6490371791637394E-4</c:v>
+                  <c:v>-4.6469627418692838E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.000458540773997E-3</c:v>
+                  <c:v>-6.999168275281414E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1103303699942717E-2</c:v>
+                  <c:v>-3.1102484250781565E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.7411809886404604E-2</c:v>
+                  <c:v>-5.7406899180567073E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.3251421377446724E-2</c:v>
+                  <c:v>-7.3249695844676915E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0046014507244407E-2</c:v>
+                  <c:v>-9.004073898136089E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13123989751555959</c:v>
+                  <c:v>-0.1312265972265162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.13309691234805146</c:v>
+                  <c:v>-0.13309724216934302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.16256095607432616</c:v>
+                  <c:v>-0.16255831943896495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19345583868303706</c:v>
+                  <c:v>-0.19347352343621022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12257,34 +12259,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.2151546816672438E-5</c:v>
+                  <c:v>-1.21461247000211E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.7991136268558777E-4</c:v>
+                  <c:v>-8.7974918484235191E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.1343886928076188E-3</c:v>
+                  <c:v>-7.134200729854036E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.927627647411952E-2</c:v>
+                  <c:v>-1.9274627682283926E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8712044270609492E-2</c:v>
+                  <c:v>-2.8711367920958585E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.8052070478942282E-2</c:v>
+                  <c:v>-3.8049841122275781E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.7136487910991712E-2</c:v>
+                  <c:v>-5.7130697508693887E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.7325435955944118E-2</c:v>
+                  <c:v>-6.7325602791987488E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.4577677414783489E-2</c:v>
+                  <c:v>-8.4576305618625142E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1169164535379487</c:v>
+                  <c:v>-0.11692714144810315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12364,34 +12366,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69844536674012536</c:v>
+                  <c:v>0.69813371487306808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37271582628801769</c:v>
+                  <c:v>0.37264713044953823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19645763545538278</c:v>
+                  <c:v>0.19645245957290647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12582177688115795</c:v>
+                  <c:v>0.12581101474466649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10187031705147527</c:v>
+                  <c:v>0.10186791736329125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4045929853407406E-2</c:v>
+                  <c:v>8.4041005854485609E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.971880838598873E-2</c:v>
+                  <c:v>4.9713769716080075E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9923189894326379E-2</c:v>
+                  <c:v>5.9923338387206766E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3378611554591606E-2</c:v>
+                  <c:v>4.3377907981089661E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5409561720716907E-2</c:v>
+                  <c:v>2.5411884534183422E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12471,34 +12473,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14928291983536737</c:v>
+                  <c:v>0.14921630861149512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18929668387768495</c:v>
+                  <c:v>0.18926179430900239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12851796109333061</c:v>
+                  <c:v>0.12851457515283932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0061660712048672E-2</c:v>
+                  <c:v>9.0053957308796423E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3476903400980754E-2</c:v>
+                  <c:v>8.3474936993645152E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9369883320403547E-2</c:v>
+                  <c:v>4.9366990887032135E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4882290580911761E-2</c:v>
+                  <c:v>4.4877742059852573E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9272076924034132E-2</c:v>
+                  <c:v>2.9272149461811659E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.993021918656512E-2</c:v>
+                  <c:v>1.992989593108033E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4014404480498398E-3</c:v>
+                  <c:v>6.4020256353207279E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12578,34 +12580,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.12197597894658248</c:v>
+                  <c:v>-0.11993568143557135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.10532457751552868</c:v>
+                  <c:v>-0.10409019523531803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10613481576358191</c:v>
+                  <c:v>-0.10529325564945989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.6768139827963465E-2</c:v>
+                  <c:v>-9.5846085980956883E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.10461677915565055</c:v>
+                  <c:v>-0.10378075979359837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.7223863956821768E-2</c:v>
+                  <c:v>-9.6346401211311161E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.9942150135874E-2</c:v>
+                  <c:v>-9.893773918067704E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.5464854510069419E-2</c:v>
+                  <c:v>-9.4750019292165269E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.963475918427725E-2</c:v>
+                  <c:v>-9.883251540304018E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.6835654645771088E-2</c:v>
+                  <c:v>-8.6387761243623878E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12685,34 +12687,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1344440726864604E-2</c:v>
+                  <c:v>2.9790791665887932E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4623845879958479E-2</c:v>
+                  <c:v>2.3588649246475985E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1943104128324311E-2</c:v>
+                  <c:v>2.1130108182086108E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8632305271375289E-2</c:v>
+                  <c:v>1.7802469522820805E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7885960414952374E-2</c:v>
+                  <c:v>1.7075540414720473E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7435773642772979E-2</c:v>
+                  <c:v>1.6621572442488252E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6671121169520839E-2</c:v>
+                  <c:v>1.577649251429758E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5153962700129271E-2</c:v>
+                  <c:v>1.4436450413859551E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4725918653561629E-2</c:v>
+                  <c:v>1.3941271403999157E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0490501694786979E-2</c:v>
+                  <c:v>9.9442142690288424E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12795,34 +12797,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12371290137501462</c:v>
+                  <c:v>0.12365769969635998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.364177874538214E-2</c:v>
+                  <c:v>9.3624519482281648E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.24977046892757E-2</c:v>
+                  <c:v>6.2496058121689971E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5252908886630628E-2</c:v>
+                  <c:v>6.5247327494209459E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9682490649576969E-2</c:v>
+                  <c:v>3.968155587675324E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5305238349283799E-2</c:v>
+                  <c:v>3.5303169921272248E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7471894466530391E-2</c:v>
+                  <c:v>2.7469110373096219E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5638172098048376E-2</c:v>
+                  <c:v>2.5638235630814729E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9881962123482505E-2</c:v>
+                  <c:v>1.98816396506966E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2016963376462136E-2</c:v>
+                  <c:v>1.2018061906403905E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12904,34 +12906,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0336524257532386E-2</c:v>
+                  <c:v>2.0327449938972727E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.78482526969454E-2</c:v>
+                  <c:v>5.7837590594766473E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.701658023767447E-2</c:v>
+                  <c:v>6.7014814615572432E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5278715876962707E-2</c:v>
+                  <c:v>7.5272276929466878E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4895838366537853E-2</c:v>
+                  <c:v>6.4894309660423755E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.65313579698484E-2</c:v>
+                  <c:v>5.6528045967159199E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8599891994783347E-2</c:v>
+                  <c:v>5.859395328623361E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9215896673627744E-2</c:v>
+                  <c:v>3.921599385272425E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4200437623303881E-2</c:v>
+                  <c:v>3.4199882913948175E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0953911374570127E-2</c:v>
+                  <c:v>2.0955826875044003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13037,34 +13039,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.90066911872358868</c:v>
+                  <c:v>0.90071344095132566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6249214400690003</c:v>
+                  <c:v>0.62499057138662295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3320604774476556</c:v>
+                  <c:v>0.33207807501499875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20159114143968765</c:v>
+                  <c:v>0.2016594331561522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10123126507981645</c:v>
+                  <c:v>0.10125243674959999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7366234192707664E-2</c:v>
+                  <c:v>1.7423803757489614E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0974528964690216E-2</c:v>
+                  <c:v>-9.0863965966327051E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1266839045238991</c:v>
+                  <c:v>-0.12668669650707884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.21465624353188209</c:v>
+                  <c:v>-0.21463654257981638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.32193556825217085</c:v>
+                  <c:v>-0.32205641290795634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13155,34 +13157,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.75661969309104171</c:v>
+                  <c:v>0.75672829131599295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47343140862667277</c:v>
+                  <c:v>0.47352846130957482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20254619252070544</c:v>
+                  <c:v>0.20256720227773634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1059516676094328E-2</c:v>
+                  <c:v>6.1139828732475865E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3470639362983834E-3</c:v>
+                  <c:v>-3.323428787576993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.4470362126424536E-2</c:v>
+                  <c:v>-7.4407412130941833E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.17704631542600396</c:v>
+                  <c:v>-0.17692702962565687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.19153797329557523</c:v>
+                  <c:v>-0.19154092599061781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.26873864327866848</c:v>
+                  <c:v>-0.26871806514446117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.35490644300320312</c:v>
+                  <c:v>-0.35503030168940425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14182,25 +14184,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.14443306575438764</c:v>
+                  <c:v>-0.14443523714962739</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12109904349485112</c:v>
+                  <c:v>-0.12110648269915268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.137810644672624E-2</c:v>
+                  <c:v>-9.1381544711334375E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.0396626758170542E-2</c:v>
+                  <c:v>-6.0392821462368747E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.14243544857647414</c:v>
+                  <c:v>-0.14242985205202999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9775172561478583E-2</c:v>
+                  <c:v>-1.9767738070087769E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.5272743865644457E-2</c:v>
+                  <c:v>-8.5268790309151299E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14270,25 +14272,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-7.6762325238103057E-2</c:v>
+                  <c:v>-7.676347927680427E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.3524550216855361E-2</c:v>
+                  <c:v>-7.3529066884654368E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.1384975419454658E-2</c:v>
+                  <c:v>-5.1386908871013728E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.0188744906043501E-2</c:v>
+                  <c:v>-3.0186842861005252E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9760870469158923E-2</c:v>
+                  <c:v>-6.9758129449133871E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.9163029518221593E-3</c:v>
+                  <c:v>-6.9137027623880727E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.7158496888605487E-2</c:v>
+                  <c:v>-3.715677408469429E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14358,25 +14360,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.8771224232388164E-2</c:v>
+                  <c:v>3.8771807115894084E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5852381617395805E-2</c:v>
+                  <c:v>2.5853969748424618E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1564298832841271E-2</c:v>
+                  <c:v>2.1565110228134513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5777903420072077E-2</c:v>
+                  <c:v>1.5776909331612701E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.301562793116056E-2</c:v>
+                  <c:v>8.3012366109783881E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.634353373935438</c:v>
+                  <c:v>0.63411488829478957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36249187624058715</c:v>
+                  <c:v>0.36247506979052979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14446,25 +14448,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.7162247703690668E-2</c:v>
+                  <c:v>5.7163107076382849E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10137728628919331</c:v>
+                  <c:v>0.10138351397128292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1875073171595743</c:v>
+                  <c:v>0.18751437245758196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8348072421698809E-2</c:v>
+                  <c:v>9.8341875991083585E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0527865614799069E-2</c:v>
+                  <c:v>2.0527059040994253E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8436458959792804E-2</c:v>
+                  <c:v>1.8429527758814023E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.428980288059575E-2</c:v>
+                  <c:v>3.4288213079837829E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14534,25 +14536,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.10455863001255031</c:v>
+                  <c:v>-0.10379772933463384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.7411384331365758E-2</c:v>
+                  <c:v>-9.6835235097592676E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.8801590023688412E-2</c:v>
+                  <c:v>-8.8234410751663481E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.48962550682447E-2</c:v>
+                  <c:v>-9.404052046100593E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.5580744424453773E-2</c:v>
+                  <c:v>-9.4757872378880989E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10702649152469007</c:v>
+                  <c:v>-0.10527515407683047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.8352969162290318E-2</c:v>
+                  <c:v>-9.7501388880474521E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14622,25 +14624,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4956984093226704E-2</c:v>
+                  <c:v>1.4179702430700922E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3463837160438023E-2</c:v>
+                  <c:v>1.2821100222725559E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2509783790514891E-2</c:v>
+                  <c:v>1.190210711523528E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7169326697605208E-2</c:v>
+                  <c:v>1.6381494388493494E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6806511574405544E-2</c:v>
+                  <c:v>1.6026026353350032E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6537740199378056E-2</c:v>
+                  <c:v>2.5192613331710679E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8146459159484984E-2</c:v>
+                  <c:v>1.7344961204893174E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14713,25 +14715,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.2038902425370372E-2</c:v>
+                  <c:v>3.2039384095684922E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8381817972264717E-2</c:v>
+                  <c:v>2.8383561488449918E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7507183404586352E-2</c:v>
+                  <c:v>4.750897094728869E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0759448619477013E-2</c:v>
+                  <c:v>3.0757510617191459E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9755786387587212E-2</c:v>
+                  <c:v>2.9754617233506978E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7555653216777565E-2</c:v>
+                  <c:v>8.7522736601358231E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5420645307602693E-2</c:v>
+                  <c:v>6.541761216705487E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14803,25 +14805,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0477764837592733E-2</c:v>
+                  <c:v>5.0478523716300384E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0088820644340544E-2</c:v>
+                  <c:v>8.0093740560153656E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11917763144878331</c:v>
+                  <c:v>0.11918211572021577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10197618035279417</c:v>
+                  <c:v>0.10196975533285832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9662960642617928E-2</c:v>
+                  <c:v>1.9662188052360512E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1263921675287526E-3</c:v>
+                  <c:v>4.126200852885788E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14917,25 +14919,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.13234689771277239</c:v>
+                  <c:v>-0.13236392132610234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2870834359439849E-2</c:v>
+                  <c:v>-4.2934898690363058E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15670154274643083</c:v>
+                  <c:v>0.15666981213444461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8549304779188533E-2</c:v>
+                  <c:v>7.8607360876859628E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.13800831131951652</c:v>
+                  <c:v>-0.13796359709004921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63316525927339562</c:v>
+                  <c:v>0.63330317107736622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26369096583925911</c:v>
+                  <c:v>0.26372510382088138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15016,25 +15018,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.2148635649757355</c:v>
+                  <c:v>-0.21488182913808765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.15134147297604511</c:v>
+                  <c:v>-0.15141220073896663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9832721069388342E-3</c:v>
+                  <c:v>-1.0021274533059843E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4186324193082641E-2</c:v>
+                  <c:v>-5.4119905073190144E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18742705834972168</c:v>
+                  <c:v>-0.18738040237591669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54560960605661801</c:v>
+                  <c:v>0.54578043447600799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19414392836412767</c:v>
+                  <c:v>0.19418129080094071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15335,25 +15337,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-8.5293089667204142E-2</c:v>
+                  <c:v>-8.5279742470429409E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.10351384420140378</c:v>
+                  <c:v>-0.10351685085800129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0714396116906654E-2</c:v>
+                  <c:v>-9.0694967508663321E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17095487801504505</c:v>
+                  <c:v>-0.17096910790065886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.16792539331526202</c:v>
+                  <c:v>-0.16794410368057447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12727470670421731</c:v>
+                  <c:v>-0.12719218783030162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.7038543269057189E-2</c:v>
+                  <c:v>-8.7043476856357771E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15423,25 +15425,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-4.0209051290436532E-2</c:v>
+                  <c:v>-4.0202759126302334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.924678595036671E-2</c:v>
+                  <c:v>-4.9248216369408966E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9309155779605545E-2</c:v>
+                  <c:v>-3.9300736805101939E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.9758905608595294E-2</c:v>
+                  <c:v>-9.9767209307397284E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9086030400855216E-2</c:v>
+                  <c:v>-9.9097070635983206E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.1494041034922051E-2</c:v>
+                  <c:v>-6.1454171219857232E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.9761085303501788E-2</c:v>
+                  <c:v>-3.9763339072672814E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15511,25 +15513,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.12678613787214404</c:v>
+                  <c:v>0.12676629758335756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12360815227186743</c:v>
+                  <c:v>0.12361174258647124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14739166646280541</c:v>
+                  <c:v>0.14736009909237008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9769862122457642E-2</c:v>
+                  <c:v>9.9778166733254306E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10336938684214558</c:v>
+                  <c:v>0.10338090433185787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14215684767264872</c:v>
+                  <c:v>0.14206467992547323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12414597049129254</c:v>
+                  <c:v>0.12415300743102556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15599,25 +15601,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.179624872368749E-2</c:v>
+                  <c:v>6.178657845972034E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4229268487350707E-2</c:v>
+                  <c:v>6.4231134086636874E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2831695639408653E-2</c:v>
+                  <c:v>7.2816097029454255E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3740590893107665E-2</c:v>
+                  <c:v>3.3743399381256853E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3825457239469225E-2</c:v>
+                  <c:v>3.3829226095681598E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1216118824358933E-2</c:v>
+                  <c:v>5.1182912725824842E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.88255181530045E-2</c:v>
+                  <c:v>6.8829419375262629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15687,25 +15689,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-9.1165066402748324E-2</c:v>
+                  <c:v>-9.0079031574384114E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.10081408647951649</c:v>
+                  <c:v>-0.10013066575240763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0975797427212124E-2</c:v>
+                  <c:v>-8.9736611216758175E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10503506421211571</c:v>
+                  <c:v>-0.10446243312631601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10640960480218689</c:v>
+                  <c:v>-0.10589891381518306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10655198160319779</c:v>
+                  <c:v>-0.10407673231033515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.0985080573475471E-2</c:v>
+                  <c:v>-9.0445630844742761E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15775,25 +15777,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8444565107904747E-2</c:v>
+                  <c:v>1.7526396300937708E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6711923439127391E-2</c:v>
+                  <c:v>1.5997013948887098E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8344492923236144E-2</c:v>
+                  <c:v>1.7335035777812754E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4151686262302987E-2</c:v>
+                  <c:v>1.3488252586565708E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4099305541612924E-2</c:v>
+                  <c:v>1.3466908573576547E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2457889612417077E-2</c:v>
+                  <c:v>2.0685515431241846E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6284696486754426E-2</c:v>
+                  <c:v>1.5684329743929568E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15866,25 +15868,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6345896877870316E-2</c:v>
+                  <c:v>4.6338644381709787E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8469134889179489E-2</c:v>
+                  <c:v>3.8470252261247999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.747652575653695E-2</c:v>
+                  <c:v>4.7466357548852582E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5637669872960105E-2</c:v>
+                  <c:v>2.5639803892848468E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5283056949659481E-2</c:v>
+                  <c:v>2.5285874005629424E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2108925779369623E-2</c:v>
+                  <c:v>4.2081624352188277E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3706353568668629E-2</c:v>
+                  <c:v>4.3708830966644546E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15956,25 +15958,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.4548887332257675E-2</c:v>
+                  <c:v>4.4541916043403684E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7014912727835735E-2</c:v>
+                  <c:v>4.7016278320028984E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.499214324817994E-2</c:v>
+                  <c:v>4.498250712907851E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8376979160083327E-2</c:v>
+                  <c:v>3.8380173570386159E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0082362041855543E-2</c:v>
+                  <c:v>4.0086828046797286E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3337455107814527E-2</c:v>
+                  <c:v>5.3302873635603758E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2276215621634847E-2</c:v>
+                  <c:v>4.2278611955404617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16070,25 +16072,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.1254528553475286E-2</c:v>
+                  <c:v>8.1398299598013216E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6458675184073766E-2</c:v>
+                  <c:v>3.6430688223454306E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11003717470644275</c:v>
+                  <c:v>0.11022778104704475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.16407205952484438</c:v>
+                  <c:v>-0.16416895417006061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15676145990356138</c:v>
+                  <c:v>-0.15689034707819799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5956507654271722E-2</c:v>
+                  <c:v>1.6594514709837936E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7454045175320507E-2</c:v>
+                  <c:v>7.7401752698493559E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16169,25 +16171,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-9.6402556566527048E-3</c:v>
+                  <c:v>-9.4822608271002556E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9025372432941458E-2</c:v>
+                  <c:v>-4.905584235782267E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7568505701725856E-2</c:v>
+                  <c:v>1.7778916369113662E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.22808670855788782</c:v>
+                  <c:v>-0.22818893163329523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2221268788950764</c:v>
+                  <c:v>-0.2222630491306247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.9489873232912428E-2</c:v>
+                  <c:v>-7.8789983277954084E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.5285240149829689E-3</c:v>
+                  <c:v>-8.5856902235555976E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16505,34 +16507,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14125849361694087</c:v>
+                  <c:v>0.13886334875256731</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12251449339451141</c:v>
+                  <c:v>0.12105382271763292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12056435605525671</c:v>
+                  <c:v>0.11959497072029318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11109655691661253</c:v>
+                  <c:v>0.11002024494977765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11507523327177245</c:v>
+                  <c:v>0.11413882521447472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10527896371275332</c:v>
+                  <c:v>0.10430992712604384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10758258496459611</c:v>
+                  <c:v>0.10648041181635358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10008784591519694</c:v>
+                  <c:v>9.9320671598321836E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1033695180763806</c:v>
+                  <c:v>0.10251884245627106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7600326594774222E-2</c:v>
+                  <c:v>8.7134293571740101E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17984,6 +17986,65 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Parameters"/>
+      <sheetName val="VAT"/>
+      <sheetName val="IO"/>
+      <sheetName val="poverty_inequality"/>
+      <sheetName val="poverty_by_groups"/>
+      <sheetName val="net_position"/>
+      <sheetName val="MC_table"/>
+      <sheetName val="Incidence"/>
+      <sheetName val="Validation"/>
+      <sheetName val="check"/>
+      <sheetName val="uprating"/>
+      <sheetName val="PIT_SIC"/>
+      <sheetName val="transfers"/>
+      <sheetName val="subsidy"/>
+      <sheetName val="inkind"/>
+      <sheetName val="legend"/>
+      <sheetName val="totals"/>
+      <sheetName val="gini_poverty"/>
+      <sheetName val="recipients"/>
+      <sheetName val="all"/>
+      <sheetName val="MC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="43">
+          <cell r="C43">
+            <v>0.18</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18252,8 +18313,8 @@
   </sheetPr>
   <dimension ref="A2:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -19780,10 +19841,10 @@
         <v>34560.054684728835</v>
       </c>
       <c r="G2" s="87">
-        <v>31745.622665839361</v>
+        <v>31747.026124493124</v>
       </c>
       <c r="H2" s="87">
-        <v>34558.122665839364</v>
+        <v>34559.526124493124</v>
       </c>
       <c r="I2" s="87">
         <v>-4061.5879684336987</v>
@@ -19798,10 +19859,10 @@
         <v>1921.4337019118711</v>
       </c>
       <c r="M2" s="87">
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="N2" s="87">
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="O2" s="87">
         <v>1312.5</v>
@@ -19849,19 +19910,19 @@
         <v>144.46552085758907</v>
       </c>
       <c r="AD2" s="64">
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="AE2" s="64">
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
       <c r="AF2" s="64">
         <v>342.07929783801552</v>
       </c>
       <c r="AG2" s="64">
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
       <c r="AH2" s="64">
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
       <c r="AI2" s="64">
         <v>825</v>
@@ -20097,10 +20158,10 @@
         <v>1926.1667639465888</v>
       </c>
       <c r="G5" s="64">
-        <v>1741.7438233872729</v>
+        <v>1742.6522016071071</v>
       </c>
       <c r="H5" s="64">
-        <v>2034.8649507880996</v>
+        <v>2035.7733290079339</v>
       </c>
       <c r="I5" s="64">
         <v>-0.94601628107910674</v>
@@ -20115,10 +20176,10 @@
         <v>303.77058132429863</v>
       </c>
       <c r="M5" s="64">
-        <v>-248.20464439646781</v>
+        <v>-244.16186146292813</v>
       </c>
       <c r="N5" s="64">
-        <v>63.781703837151852</v>
+        <v>60.647299123446487</v>
       </c>
       <c r="O5" s="64">
         <v>251.73904696832213</v>
@@ -20166,19 +20227,19 @@
         <v>36.332787962394463</v>
       </c>
       <c r="AD5" s="64">
-        <v>-246.03610875829725</v>
+        <v>-241.99052042619692</v>
       </c>
       <c r="AE5" s="64">
-        <v>-2.1685356381705705</v>
+        <v>-2.1713410367311874</v>
       </c>
       <c r="AF5" s="64">
         <v>42.076856919275436</v>
       </c>
       <c r="AG5" s="64">
-        <v>14.314296568973312</v>
+        <v>11.13334177586813</v>
       </c>
       <c r="AH5" s="64">
-        <v>7.3905503489031119</v>
+        <v>7.4371004283029247</v>
       </c>
       <c r="AI5" s="64">
         <v>192.84349644442747</v>
@@ -20229,10 +20290,10 @@
         <v>1793.1960190258692</v>
       </c>
       <c r="G6" s="64">
-        <v>1637.4592946518553</v>
+        <v>1637.815045718806</v>
       </c>
       <c r="H6" s="64">
-        <v>1929.8056066863503</v>
+        <v>1930.1613577533012</v>
       </c>
       <c r="I6" s="64">
         <v>-13.509524141361005</v>
@@ -20247,10 +20308,10 @@
         <v>365.30580187429007</v>
       </c>
       <c r="M6" s="64">
-        <v>-203.25596021133836</v>
+        <v>-200.91087256420764</v>
       </c>
       <c r="N6" s="64">
-        <v>47.519235837324459</v>
+        <v>45.529899257144471</v>
       </c>
       <c r="O6" s="64">
         <v>180.71042964292116</v>
@@ -20298,19 +20359,19 @@
         <v>26.697186804669059</v>
       </c>
       <c r="AD6" s="64">
-        <v>-200.61249593840606</v>
+        <v>-198.26377218871619</v>
       </c>
       <c r="AE6" s="64">
-        <v>-2.6434642729323428</v>
+        <v>-2.6471003754914597</v>
       </c>
       <c r="AF6" s="64">
         <v>32.23618891149637</v>
       </c>
       <c r="AG6" s="64">
-        <v>9.1268265382215059</v>
+        <v>7.0986428630611709</v>
       </c>
       <c r="AH6" s="64">
-        <v>6.1562203876065773</v>
+        <v>6.1950674825869303</v>
       </c>
       <c r="AI6" s="64">
         <v>131.6529267776971</v>
@@ -20361,10 +20422,10 @@
         <v>1882.7976976060861</v>
       </c>
       <c r="G7" s="64">
-        <v>1716.7128373212049</v>
+        <v>1716.7648115007939</v>
       </c>
       <c r="H7" s="64">
-        <v>1972.6984647183299</v>
+        <v>1972.7504388979189</v>
       </c>
       <c r="I7" s="64">
         <v>-61.357439456544945</v>
@@ -20379,10 +20440,10 @@
         <v>253.52718453754335</v>
       </c>
       <c r="M7" s="64">
-        <v>-209.37198810998083</v>
+        <v>-207.71731629546278</v>
       </c>
       <c r="N7" s="64">
-        <v>43.287127825099816</v>
+        <v>41.684430190170879</v>
       </c>
       <c r="O7" s="64">
         <v>123.28912608895374</v>
@@ -20424,25 +20485,25 @@
         <v>132.85961948036345</v>
       </c>
       <c r="AB7" s="64">
-        <v>43.772284843047316</v>
+        <v>43.772284843047323</v>
       </c>
       <c r="AC7" s="64">
         <v>20.584079968696734</v>
       </c>
       <c r="AD7" s="64">
-        <v>-206.97437776342375</v>
+        <v>-205.31643736506709</v>
       </c>
       <c r="AE7" s="64">
-        <v>-2.3976103465570819</v>
+        <v>-2.4008789303956903</v>
       </c>
       <c r="AF7" s="64">
         <v>29.13943399895156</v>
       </c>
       <c r="AG7" s="64">
-        <v>7.4056157591982856</v>
+        <v>5.7599233682653326</v>
       </c>
       <c r="AH7" s="64">
-        <v>6.7420780669499747</v>
+        <v>6.7850728229539845</v>
       </c>
       <c r="AI7" s="64">
         <v>79.634306410498709</v>
@@ -20493,10 +20554,10 @@
         <v>2180.6425885521271</v>
       </c>
       <c r="G8" s="64">
-        <v>1998.9189812424233</v>
+        <v>1999.117929859457</v>
       </c>
       <c r="H8" s="64">
-        <v>2325.7396345858956</v>
+        <v>2325.9385832029288</v>
       </c>
       <c r="I8" s="64">
         <v>-133.52492174612155</v>
@@ -20511,10 +20572,10 @@
         <v>209.45997387463899</v>
       </c>
       <c r="M8" s="64">
-        <v>-225.05749816304461</v>
+        <v>-222.93210943209294</v>
       </c>
       <c r="N8" s="64">
-        <v>43.333890853341217</v>
+        <v>41.407450739423147</v>
       </c>
       <c r="O8" s="64">
         <v>151.76127646965907</v>
@@ -20562,19 +20623,19 @@
         <v>12.624297994404245</v>
       </c>
       <c r="AD8" s="64">
-        <v>-222.07301637129603</v>
+        <v>-219.94344432662987</v>
       </c>
       <c r="AE8" s="64">
-        <v>-2.9844817917485491</v>
+        <v>-2.9886651054630589</v>
       </c>
       <c r="AF8" s="64">
         <v>27.264869229915142</v>
       </c>
       <c r="AG8" s="64">
-        <v>8.8750261394235075</v>
+        <v>6.9027981084405061</v>
       </c>
       <c r="AH8" s="64">
-        <v>7.1939954840025671</v>
+        <v>7.2397834010675037</v>
       </c>
       <c r="AI8" s="64">
         <v>106.63939414586044</v>
@@ -20625,10 +20686,10 @@
         <v>2578.0472178929299</v>
       </c>
       <c r="G9" s="64">
-        <v>2350.3650902410022</v>
+        <v>2350.4269307251138</v>
       </c>
       <c r="H9" s="64">
-        <v>2625.1582881125119</v>
+        <v>2625.2201285966235</v>
       </c>
       <c r="I9" s="64">
         <v>-192.29657594502629</v>
@@ -20643,10 +20704,10 @@
         <v>219.14008482905217</v>
       </c>
       <c r="M9" s="64">
-        <v>-274.63560487609232</v>
+        <v>-272.44733957120559</v>
       </c>
       <c r="N9" s="64">
-        <v>46.953477224164523</v>
+        <v>44.827052403389324</v>
       </c>
       <c r="O9" s="64">
         <v>104.17281922168424</v>
@@ -20694,19 +20755,19 @@
         <v>8.9227333722107876</v>
       </c>
       <c r="AD9" s="64">
-        <v>-270.46881103331378</v>
+        <v>-268.27496862542802</v>
       </c>
       <c r="AE9" s="64">
-        <v>-4.1667938427785041</v>
+        <v>-4.1723709457776019</v>
       </c>
       <c r="AF9" s="64">
         <v>28.473466445005371</v>
       </c>
       <c r="AG9" s="64">
-        <v>9.8171405315454585</v>
+        <v>7.6355537467575774</v>
       </c>
       <c r="AH9" s="64">
-        <v>8.6628702476136912</v>
+        <v>8.7180322116263778</v>
       </c>
       <c r="AI9" s="64">
         <v>58.218166779389271</v>
@@ -20757,10 +20818,10 @@
         <v>2993.409339426913</v>
       </c>
       <c r="G10" s="64">
-        <v>2751.6793834162313</v>
+        <v>2751.8568918981764</v>
       </c>
       <c r="H10" s="64">
-        <v>3029.649601328018</v>
+        <v>3029.8271098099631</v>
       </c>
       <c r="I10" s="64">
         <v>-272.80787195304993</v>
@@ -20775,10 +20836,10 @@
         <v>149.57344731927137</v>
       </c>
       <c r="M10" s="64">
-        <v>-294.55424067635454</v>
+        <v>-291.91293832265802</v>
       </c>
       <c r="N10" s="64">
-        <v>52.824284665672714</v>
+        <v>50.360490793921109</v>
       </c>
       <c r="O10" s="64">
         <v>106.96250128969831</v>
@@ -20826,19 +20887,19 @@
         <v>11.350661428007504</v>
       </c>
       <c r="AD10" s="64">
-        <v>-289.69395395580881</v>
+        <v>-287.04599185520021</v>
       </c>
       <c r="AE10" s="64">
-        <v>-4.8602867205457114</v>
+        <v>-4.8669464674577307</v>
       </c>
       <c r="AF10" s="64">
         <v>31.648706516146973</v>
       </c>
       <c r="AG10" s="64">
-        <v>11.369338869277644</v>
+        <v>8.8428191205492777</v>
       </c>
       <c r="AH10" s="64">
-        <v>9.8062392802480911</v>
+        <v>9.8689651572248547</v>
       </c>
       <c r="AI10" s="64">
         <v>62.568713166285619</v>
@@ -20889,10 +20950,10 @@
         <v>3349.967610849385</v>
       </c>
       <c r="G11" s="64">
-        <v>3070.2681045745103</v>
+        <v>3070.6085417512777</v>
       </c>
       <c r="H11" s="64">
-        <v>3358.9053689716229</v>
+        <v>3359.2458061483912</v>
       </c>
       <c r="I11" s="64">
         <v>-440.82239638829861</v>
@@ -20907,10 +20968,10 @@
         <v>150.75536680396903</v>
       </c>
       <c r="M11" s="64">
-        <v>-335.69622467795517</v>
+        <v>-332.35618541249272</v>
       </c>
       <c r="N11" s="64">
-        <v>55.996718403080024</v>
+        <v>52.997116314385636</v>
       </c>
       <c r="O11" s="64">
         <v>92.275493819450745</v>
@@ -20958,19 +21019,19 @@
         <v>8.1876413857272308</v>
       </c>
       <c r="AD11" s="64">
-        <v>-330.30737922447668</v>
+        <v>-326.95966205248897</v>
       </c>
       <c r="AE11" s="64">
-        <v>-5.3888454534784316</v>
+        <v>-5.3965233600036751</v>
       </c>
       <c r="AF11" s="64">
         <v>31.646689423868629</v>
       </c>
       <c r="AG11" s="64">
-        <v>13.800142947850977</v>
+        <v>10.733444514995204</v>
       </c>
       <c r="AH11" s="64">
-        <v>10.549886031360414</v>
+        <v>10.616982375521802</v>
       </c>
       <c r="AI11" s="64">
         <v>44.726368536714993</v>
@@ -21021,10 +21082,10 @@
         <v>4135.3401547009216</v>
       </c>
       <c r="G12" s="64">
-        <v>3808.2337523800797</v>
+        <v>3808.2236592881918</v>
       </c>
       <c r="H12" s="64">
-        <v>4073.0017429635336</v>
+        <v>4072.9916498716448</v>
       </c>
       <c r="I12" s="64">
         <v>-542.10395597667821</v>
@@ -21039,10 +21100,10 @@
         <v>119.22522033175365</v>
       </c>
       <c r="M12" s="64">
-        <v>-388.82851881127289</v>
+        <v>-385.91603740216641</v>
       </c>
       <c r="N12" s="64">
-        <v>61.722116490430892</v>
+        <v>58.799541989436001</v>
       </c>
       <c r="O12" s="64">
         <v>104.42431964175007</v>
@@ -21090,19 +21151,19 @@
         <v>8.6090088040225261</v>
       </c>
       <c r="AD12" s="64">
-        <v>-381.15791301726972</v>
+        <v>-378.23533143712194</v>
       </c>
       <c r="AE12" s="64">
-        <v>-7.6706057940031709</v>
+        <v>-7.6807059650444662</v>
       </c>
       <c r="AF12" s="64">
         <v>35.64634014235282</v>
       </c>
       <c r="AG12" s="64">
-        <v>13.510361211850233</v>
+        <v>10.508058720327959</v>
       </c>
       <c r="AH12" s="64">
-        <v>12.565415136227841</v>
+        <v>12.645143126755221</v>
       </c>
       <c r="AI12" s="64">
         <v>57.729741520171679</v>
@@ -21153,10 +21214,10 @@
         <v>5038.9335255713559</v>
       </c>
       <c r="G13" s="64">
-        <v>4623.9290439258157</v>
+        <v>4624.0083197467056</v>
       </c>
       <c r="H13" s="64">
-        <v>4887.6474940841117</v>
+        <v>4887.7267699050017</v>
       </c>
       <c r="I13" s="64">
         <v>-794.54064959259756</v>
@@ -21171,10 +21232,10 @@
         <v>97.411885863762095</v>
       </c>
       <c r="M13" s="64">
-        <v>-486.97958105070666</v>
+        <v>-483.0663312724879</v>
       </c>
       <c r="N13" s="64">
-        <v>71.975099405166972</v>
+        <v>68.141125447837766</v>
       </c>
       <c r="O13" s="64">
         <v>97.176022350314497</v>
@@ -21222,19 +21283,19 @@
         <v>5.3908198108152785</v>
       </c>
       <c r="AD13" s="64">
-        <v>-477.97331688999088</v>
+        <v>-474.04798044859922</v>
       </c>
       <c r="AE13" s="64">
-        <v>-9.0062641607158174</v>
+        <v>-9.0183508238887065</v>
       </c>
       <c r="AF13" s="64">
         <v>39.282437599860771</v>
       </c>
       <c r="AG13" s="64">
-        <v>17.682226853985423</v>
+        <v>13.752843108655327</v>
       </c>
       <c r="AH13" s="64">
-        <v>15.010434951320775</v>
+        <v>15.105844739321665</v>
       </c>
       <c r="AI13" s="64">
         <v>45.894497192893652</v>
@@ -21285,10 +21346,10 @@
         <v>8681.5537671566617</v>
       </c>
       <c r="G14" s="64">
-        <v>8046.3123546989655</v>
+        <v>8045.5517923974958</v>
       </c>
       <c r="H14" s="64">
-        <v>8320.6515136008857</v>
+        <v>8319.8909512994178</v>
       </c>
       <c r="I14" s="64">
         <v>-1609.6786169529412</v>
@@ -21303,10 +21364,10 @@
         <v>53.264155153291831</v>
       </c>
       <c r="M14" s="64">
-        <v>-722.52922126285898</v>
+        <v>-718.73675307384087</v>
       </c>
       <c r="N14" s="64">
-        <v>87.28780880516193</v>
+        <v>82.734778314675623</v>
       </c>
       <c r="O14" s="64">
         <v>99.988964507246081</v>
@@ -21354,19 +21415,19 @@
         <v>5.7663033266412294</v>
       </c>
       <c r="AD14" s="64">
-        <v>-704.85959015519609</v>
+        <v>-701.04347182540323</v>
       </c>
       <c r="AE14" s="64">
-        <v>-17.669631107662934</v>
+        <v>-17.693281248437643</v>
       </c>
       <c r="AF14" s="64">
         <v>44.664308651142441</v>
       </c>
       <c r="AG14" s="64">
-        <v>21.10236387432408</v>
+        <v>16.412949680029836</v>
       </c>
       <c r="AH14" s="64">
-        <v>21.521136279695394</v>
+        <v>21.657519983503342</v>
       </c>
       <c r="AI14" s="64">
         <v>45.092389026061142</v>
@@ -21587,25 +21648,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="64">
-        <v>798.20523491447852</v>
+        <v>798.47334154995292</v>
       </c>
       <c r="C17" s="64">
-        <v>1121.4911602803475</v>
+        <v>1121.1423161495916</v>
       </c>
       <c r="D17" s="64">
-        <v>751.7377325442103</v>
+        <v>752.00583917968459</v>
       </c>
       <c r="E17" s="64">
-        <v>1530.2801685441559</v>
+        <v>1529.9313244134005</v>
       </c>
       <c r="F17" s="64">
-        <v>1483.8126661738877</v>
+        <v>1483.463822043132</v>
       </c>
       <c r="G17" s="64">
-        <v>1324.0557630948706</v>
+        <v>1323.8452600492835</v>
       </c>
       <c r="H17" s="64">
-        <v>1412.7256767583883</v>
+        <v>1412.4970319442527</v>
       </c>
       <c r="I17" s="64">
         <v>-38.785319299540127</v>
@@ -21614,19 +21675,19 @@
         <v>-7.6821830707281533</v>
       </c>
       <c r="K17" s="64">
-        <v>362.07124466540893</v>
+        <v>361.45429389917899</v>
       </c>
       <c r="L17" s="64">
         <v>370.00368896426846</v>
       </c>
       <c r="M17" s="64">
-        <v>-205.09859318557895</v>
+        <v>-203.10261235333616</v>
       </c>
       <c r="N17" s="64">
-        <v>45.341690106561785</v>
+        <v>43.484050359487625</v>
       </c>
       <c r="O17" s="64">
-        <v>40.883646334395706</v>
+        <v>40.865504565847345</v>
       </c>
       <c r="P17" s="64">
         <v>47.786267329121991</v>
@@ -21641,10 +21702,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="64">
-        <v>282.97698601268161</v>
+        <v>283.1900581700848</v>
       </c>
       <c r="U17" s="64">
-        <v>238.19534234278038</v>
+        <v>238.25037682085153</v>
       </c>
       <c r="V17" s="64">
         <v>-38.785319299540127</v>
@@ -21653,7 +21714,7 @@
         <v>-7.6821830707281533</v>
       </c>
       <c r="X17" s="64">
-        <v>362.07124466540893</v>
+        <v>361.45429389917899</v>
       </c>
       <c r="Y17" s="64">
         <v>23.789152440915846</v>
@@ -21671,25 +21732,25 @@
         <v>8.623456589284558</v>
       </c>
       <c r="AD17" s="64">
-        <v>-203.26954852511216</v>
+        <v>-201.27085296081529</v>
       </c>
       <c r="AE17" s="64">
-        <v>-1.8290446604667625</v>
+        <v>-1.8317593925208766</v>
       </c>
       <c r="AF17" s="64">
-        <v>30.908729242245922</v>
+        <v>30.892538351791504</v>
       </c>
       <c r="AG17" s="64">
-        <v>8.3887581874803079</v>
+        <v>6.5085495903352903</v>
       </c>
       <c r="AH17" s="64">
-        <v>6.0442026768355568</v>
+        <v>6.0829624173608252</v>
       </c>
       <c r="AI17" s="64">
         <v>3.6043044367427375</v>
       </c>
       <c r="AJ17" s="64">
-        <v>37.279341897652976</v>
+        <v>37.261200129104608</v>
       </c>
       <c r="AK17" s="64">
         <v>13.351846720829993</v>
@@ -21719,25 +21780,25 @@
         <v>2</v>
       </c>
       <c r="B18" s="64">
-        <v>1090.6200034129643</v>
+        <v>1090.3518967774899</v>
       </c>
       <c r="C18" s="64">
-        <v>1410.5770031243621</v>
+        <v>1410.9258472551178</v>
       </c>
       <c r="D18" s="64">
-        <v>978.38915787638678</v>
+        <v>978.12105124091249</v>
       </c>
       <c r="E18" s="64">
-        <v>1790.5415542771245</v>
+        <v>1790.8903984078804</v>
       </c>
       <c r="F18" s="64">
-        <v>1678.3107087405472</v>
+        <v>1678.6595528713028</v>
       </c>
       <c r="G18" s="64">
-        <v>1515.3780511984944</v>
+        <v>1515.9451312589724</v>
       </c>
       <c r="H18" s="64">
-        <v>1736.4941505818167</v>
+        <v>1737.0793724108432</v>
       </c>
       <c r="I18" s="64">
         <v>-87.898689915856934</v>
@@ -21746,19 +21807,19 @@
         <v>-24.332155620720552</v>
       </c>
       <c r="K18" s="64">
-        <v>407.85568962725489</v>
+        <v>408.47264039348477</v>
       </c>
       <c r="L18" s="64">
         <v>292.0658612369055</v>
       </c>
       <c r="M18" s="64">
-        <v>-205.611795775823</v>
+        <v>-203.75108522085984</v>
       </c>
       <c r="N18" s="64">
-        <v>42.679138233770182</v>
+        <v>41.036663608529416</v>
       </c>
       <c r="O18" s="64">
-        <v>86.01213134560372</v>
+        <v>86.030273114152081</v>
       </c>
       <c r="P18" s="64">
         <v>135.10396803771869</v>
@@ -21773,10 +21834,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="64">
-        <v>310.90287392704886</v>
+        <v>310.68980176964561</v>
       </c>
       <c r="U18" s="64">
-        <v>249.7926210328782</v>
+        <v>249.73758655480702</v>
       </c>
       <c r="V18" s="64">
         <v>-87.898689915856934</v>
@@ -21785,7 +21846,7 @@
         <v>-24.332155620720552</v>
       </c>
       <c r="X18" s="64">
-        <v>407.85568962725489</v>
+        <v>408.47264039348477</v>
       </c>
       <c r="Y18" s="64">
         <v>16.988210108228117</v>
@@ -21803,25 +21864,25 @@
         <v>16.125854234320446</v>
       </c>
       <c r="AD18" s="64">
-        <v>-203.12843282835672</v>
+        <v>-201.26427822264901</v>
       </c>
       <c r="AE18" s="64">
-        <v>-2.4833629474662837</v>
+        <v>-2.4868069982108021</v>
       </c>
       <c r="AF18" s="64">
-        <v>28.606392205218082</v>
+        <v>28.6225830956725</v>
       </c>
       <c r="AG18" s="64">
-        <v>7.7161467459580111</v>
+        <v>6.0174875801167342</v>
       </c>
       <c r="AH18" s="64">
-        <v>6.3565992825940967</v>
+        <v>6.3965929327401856</v>
       </c>
       <c r="AI18" s="64">
         <v>38.181248649719045</v>
       </c>
       <c r="AJ18" s="64">
-        <v>47.830882695884675</v>
+        <v>47.849024464433036</v>
       </c>
       <c r="AK18" s="64">
         <v>45.571158943907903</v>
@@ -21866,10 +21927,10 @@
         <v>1973.4108571657737</v>
       </c>
       <c r="G19" s="64">
-        <v>1786.5571910386045</v>
+        <v>1786.7034120856963</v>
       </c>
       <c r="H19" s="64">
-        <v>2038.7865624629408</v>
+        <v>2038.9327835100323</v>
       </c>
       <c r="I19" s="64">
         <v>-116.51439787446824</v>
@@ -21884,10 +21945,10 @@
         <v>208.47172221692526</v>
       </c>
       <c r="M19" s="64">
-        <v>-233.52342440730774</v>
+        <v>-231.43903320117866</v>
       </c>
       <c r="N19" s="64">
-        <v>46.669758280138467</v>
+        <v>44.731588121101169</v>
       </c>
       <c r="O19" s="64">
         <v>112.94042970636572</v>
@@ -21935,19 +21996,19 @@
         <v>21.331673007661049</v>
       </c>
       <c r="AD19" s="64">
-        <v>-231.26307613062383</v>
+        <v>-229.17548407501852</v>
       </c>
       <c r="AE19" s="64">
-        <v>-2.2603482766839136</v>
+        <v>-2.2635491261601244</v>
       </c>
       <c r="AF19" s="64">
         <v>30.429372973351619</v>
       </c>
       <c r="AG19" s="64">
-        <v>8.9323590110812496</v>
+        <v>6.9473903419520839</v>
       </c>
       <c r="AH19" s="64">
-        <v>7.3080262957055968</v>
+        <v>7.3548248057974686</v>
       </c>
       <c r="AI19" s="64">
         <v>62.530052892183569</v>
@@ -21983,73 +22044,73 @@
         <v>4</v>
       </c>
       <c r="B20" s="64">
-        <v>1857.7833971326513</v>
+        <v>1852.3854270903721</v>
       </c>
       <c r="C20" s="64">
-        <v>2124.4780761967522</v>
+        <v>2121.3648396475496</v>
       </c>
       <c r="D20" s="64">
-        <v>1618.8680394243768</v>
+        <v>1614.2602972656759</v>
       </c>
       <c r="E20" s="64">
-        <v>2484.4684100929226</v>
+        <v>2480.9982998019495</v>
       </c>
       <c r="F20" s="64">
-        <v>2245.5530523846478</v>
+        <v>2242.8731699772534</v>
       </c>
       <c r="G20" s="64">
-        <v>2048.6044250368832</v>
+        <v>2046.3837642163594</v>
       </c>
       <c r="H20" s="64">
-        <v>2345.1217283717378</v>
+        <v>2344.1435340342632</v>
       </c>
       <c r="I20" s="64">
-        <v>-168.2247230075568</v>
+        <v>-166.18240130653228</v>
       </c>
       <c r="J20" s="64">
-        <v>-70.690634700717865</v>
+        <v>-71.034064347636985</v>
       </c>
       <c r="K20" s="64">
-        <v>434.91940207165766</v>
+        <v>435.84258776405142</v>
       </c>
       <c r="L20" s="64">
-        <v>191.76561088861345</v>
+        <v>193.16721958507847</v>
       </c>
       <c r="M20" s="64">
-        <v>-244.02809138696347</v>
+        <v>-241.33378734949059</v>
       </c>
       <c r="N20" s="64">
-        <v>47.07946403919896</v>
+        <v>44.844381588596342</v>
       </c>
       <c r="O20" s="64">
-        <v>143.92299202148774</v>
+        <v>145.17881390089795</v>
       </c>
       <c r="P20" s="64">
-        <v>152.59431131336686</v>
+        <v>152.25086868910364</v>
       </c>
       <c r="Q20" s="64">
-        <v>959.80759666062863</v>
+        <v>949.59598815550612</v>
       </c>
       <c r="R20" s="64">
-        <v>167.38566420308862</v>
+        <v>174.34369061049333</v>
       </c>
       <c r="S20" s="64">
         <v>0</v>
       </c>
       <c r="T20" s="64">
-        <v>334.4536454277083</v>
+        <v>332.24265273885544</v>
       </c>
       <c r="U20" s="64">
-        <v>396.13649084122579</v>
+        <v>392.79922608380969</v>
       </c>
       <c r="V20" s="64">
-        <v>-168.2247230075568</v>
+        <v>-166.18240130653228</v>
       </c>
       <c r="W20" s="64">
-        <v>-70.690634700717865</v>
+        <v>-71.034064347636985</v>
       </c>
       <c r="X20" s="64">
-        <v>434.91940207165766</v>
+        <v>435.84258776405142</v>
       </c>
       <c r="Y20" s="64">
         <v>19.066618915906083</v>
@@ -22058,40 +22119,40 @@
         <v>0</v>
       </c>
       <c r="AA20" s="64">
-        <v>136.41700273584635</v>
+        <v>137.79266363128039</v>
       </c>
       <c r="AB20" s="64">
         <v>18.900337540404291</v>
       </c>
       <c r="AC20" s="64">
-        <v>17.381651696456753</v>
+        <v>17.407599497487695</v>
       </c>
       <c r="AD20" s="64">
-        <v>-240.83807894340217</v>
+        <v>-238.12437831456225</v>
       </c>
       <c r="AE20" s="64">
-        <v>-3.1900124435612787</v>
+        <v>-3.2094090349282989</v>
       </c>
       <c r="AF20" s="64">
-        <v>29.945700329038285</v>
+        <v>29.853834781694943</v>
       </c>
       <c r="AG20" s="64">
-        <v>9.552359937488287</v>
+        <v>7.3632820846566736</v>
       </c>
       <c r="AH20" s="64">
-        <v>7.5814037726723882</v>
+        <v>7.627264722244731</v>
       </c>
       <c r="AI20" s="64">
-        <v>96.26742751474977</v>
+        <v>97.544076635947562</v>
       </c>
       <c r="AJ20" s="64">
-        <v>47.655564506737996</v>
+        <v>47.634737264950409</v>
       </c>
       <c r="AK20" s="64">
-        <v>41.684266913553074</v>
+        <v>41.585721759005985</v>
       </c>
       <c r="AL20" s="64">
-        <v>97.387741291751666</v>
+        <v>97.142843822035516</v>
       </c>
       <c r="AM20" s="64">
         <v>13.522303108062124</v>
@@ -22115,73 +22176,73 @@
         <v>5</v>
       </c>
       <c r="B21" s="64">
-        <v>2359.4272250413219</v>
+        <v>2358.7223066408792</v>
       </c>
       <c r="C21" s="64">
-        <v>2554.4833002763971</v>
+        <v>2555.2143496831345</v>
       </c>
       <c r="D21" s="64">
-        <v>2021.1569238394588</v>
+        <v>2020.8433707788108</v>
       </c>
       <c r="E21" s="64">
-        <v>2954.9680899288874</v>
+        <v>2954.7869899602638</v>
       </c>
       <c r="F21" s="64">
-        <v>2616.6977887270245</v>
+        <v>2616.908054098195</v>
       </c>
       <c r="G21" s="64">
-        <v>2381.8348306695075</v>
+        <v>2382.1952617734405</v>
       </c>
       <c r="H21" s="64">
-        <v>2670.3041016552825</v>
+        <v>2669.6533672189157</v>
       </c>
       <c r="I21" s="64">
-        <v>-244.5464980081648</v>
+        <v>-245.6709392375891</v>
       </c>
       <c r="J21" s="64">
-        <v>-94.11766760148906</v>
+        <v>-93.116660795006254</v>
       </c>
       <c r="K21" s="64">
-        <v>439.37310312534026</v>
+        <v>441.48220837950299</v>
       </c>
       <c r="L21" s="64">
-        <v>156.16776176222501</v>
+        <v>154.18554030232917</v>
       </c>
       <c r="M21" s="64">
-        <v>-288.45903802179555</v>
+        <v>-285.52848555251626</v>
       </c>
       <c r="N21" s="64">
-        <v>53.596079964278637</v>
+        <v>50.815693227761642</v>
       </c>
       <c r="O21" s="64">
-        <v>145.64794601923654</v>
+        <v>145.36577657413787</v>
       </c>
       <c r="P21" s="64">
-        <v>142.56542700089679</v>
+        <v>142.42241609923965</v>
       </c>
       <c r="Q21" s="64">
-        <v>1389.2560941255749</v>
+        <v>1394.8783002726966</v>
       </c>
       <c r="R21" s="64">
-        <v>165.02660906582304</v>
+        <v>153.8248678423702</v>
       </c>
       <c r="S21" s="64">
         <v>0</v>
       </c>
       <c r="T21" s="64">
-        <v>337.83173111548734</v>
+        <v>340.06067412750639</v>
       </c>
       <c r="U21" s="64">
-        <v>469.52107002794889</v>
+        <v>473.36233390001377</v>
       </c>
       <c r="V21" s="64">
-        <v>-244.5464980081648</v>
+        <v>-245.6709392375891</v>
       </c>
       <c r="W21" s="64">
-        <v>-94.11766760148906</v>
+        <v>-93.116660795006254</v>
       </c>
       <c r="X21" s="64">
-        <v>439.37310312534026</v>
+        <v>441.48220837950299</v>
       </c>
       <c r="Y21" s="64">
         <v>14.100583362576051</v>
@@ -22190,40 +22251,40 @@
         <v>0</v>
       </c>
       <c r="AA21" s="64">
-        <v>118.17495291873676</v>
+        <v>116.21867925987191</v>
       </c>
       <c r="AB21" s="64">
         <v>5.1812765767949207</v>
       </c>
       <c r="AC21" s="64">
-        <v>18.710948904117259</v>
+        <v>18.685001103086318</v>
       </c>
       <c r="AD21" s="64">
-        <v>-284.60339416463296</v>
+        <v>-281.6816669626665</v>
       </c>
       <c r="AE21" s="64">
-        <v>-3.8556438571626033</v>
+        <v>-3.8468185898497218</v>
       </c>
       <c r="AF21" s="64">
-        <v>31.404366863987892</v>
+        <v>31.483682022176353</v>
       </c>
       <c r="AG21" s="64">
-        <v>13.108557832717791</v>
+        <v>10.198692941837784</v>
       </c>
       <c r="AH21" s="64">
-        <v>9.0831552675729537</v>
+        <v>9.1333182637475101</v>
       </c>
       <c r="AI21" s="64">
-        <v>96.946262675324164</v>
+        <v>96.643115201225541</v>
       </c>
       <c r="AJ21" s="64">
-        <v>48.701683343912386</v>
+        <v>48.722661372912334</v>
       </c>
       <c r="AK21" s="64">
-        <v>39.341349181604059</v>
+        <v>39.439894336151148</v>
       </c>
       <c r="AL21" s="64">
-        <v>86.401346254260517</v>
+        <v>86.159790198056285</v>
       </c>
       <c r="AM21" s="64">
         <v>16.822731565032218</v>
@@ -22247,73 +22308,73 @@
         <v>6</v>
       </c>
       <c r="B22" s="64">
-        <v>2876.8892509101706</v>
+        <v>2878.8345171959554</v>
       </c>
       <c r="C22" s="64">
-        <v>2956.4409990986196</v>
+        <v>2953.5710735651141</v>
       </c>
       <c r="D22" s="64">
-        <v>2438.1291809408663</v>
+        <v>2437.3090137045197</v>
       </c>
       <c r="E22" s="64">
-        <v>3418.3841385893734</v>
+        <v>3418.4669103733072</v>
       </c>
       <c r="F22" s="64">
-        <v>2979.6240686200695</v>
+        <v>2976.9414068818714</v>
       </c>
       <c r="G22" s="64">
-        <v>2737.7857394092007</v>
+        <v>2735.6785801656229</v>
       </c>
       <c r="H22" s="64">
-        <v>3074.1085509830023</v>
+        <v>3072.540531993177</v>
       </c>
       <c r="I22" s="64">
-        <v>-299.13508565942777</v>
+        <v>-300.05296613102792</v>
       </c>
       <c r="J22" s="64">
-        <v>-140.81496020084407</v>
+        <v>-141.47253736040776</v>
       </c>
       <c r="K22" s="64">
-        <v>377.82181344674279</v>
+        <v>374.78952250018625</v>
       </c>
       <c r="L22" s="64">
-        <v>163.67307423246024</v>
+        <v>164.84287067716528</v>
       </c>
       <c r="M22" s="64">
-        <v>-296.16570162968333</v>
+        <v>-292.62150568515796</v>
       </c>
       <c r="N22" s="64">
-        <v>54.327372418814313</v>
+        <v>51.358678968909203</v>
       </c>
       <c r="O22" s="64">
-        <v>156.43985838745957</v>
+        <v>155.56907197762993</v>
       </c>
       <c r="P22" s="64">
-        <v>179.81915736533671</v>
+        <v>181.2928798499243</v>
       </c>
       <c r="Q22" s="64">
-        <v>1708.262578113151</v>
+        <v>1712.8519804711518</v>
       </c>
       <c r="R22" s="64">
-        <v>291.90830149703868</v>
+        <v>296.15201631308679</v>
       </c>
       <c r="S22" s="64">
         <v>0</v>
       </c>
       <c r="T22" s="64">
-        <v>329.00702020019628</v>
+        <v>329.28395630950786</v>
       </c>
       <c r="U22" s="64">
-        <v>550.97552440144113</v>
+        <v>540.546564102209</v>
       </c>
       <c r="V22" s="64">
-        <v>-299.13508565942777</v>
+        <v>-300.05296613102792</v>
       </c>
       <c r="W22" s="64">
-        <v>-140.81496020084407</v>
+        <v>-141.47253736040776</v>
       </c>
       <c r="X22" s="64">
-        <v>377.82181344674279</v>
+        <v>374.78952250018625</v>
       </c>
       <c r="Y22" s="64">
         <v>16.936707282135664</v>
@@ -22322,7 +22383,7 @@
         <v>7.0287829270233644</v>
       </c>
       <c r="AA22" s="64">
-        <v>119.91431017842308</v>
+        <v>121.08410662312815</v>
       </c>
       <c r="AB22" s="64">
         <v>2.3571425229714</v>
@@ -22331,31 +22392,31 @@
         <v>17.436131321906707</v>
       </c>
       <c r="AD22" s="64">
-        <v>-291.3764882671872</v>
+        <v>-287.7889282441526</v>
       </c>
       <c r="AE22" s="64">
-        <v>-4.7892133624961408</v>
+        <v>-4.8325774410053546</v>
       </c>
       <c r="AF22" s="64">
-        <v>32.308595157025998</v>
+        <v>32.223147027609365</v>
       </c>
       <c r="AG22" s="64">
-        <v>12.509373172942098</v>
+        <v>9.5752821571881395</v>
       </c>
       <c r="AH22" s="64">
-        <v>9.5094040888462192</v>
+        <v>9.5602497841116989</v>
       </c>
       <c r="AI22" s="64">
-        <v>107.03591528107204</v>
+        <v>106.06241363397287</v>
       </c>
       <c r="AJ22" s="64">
-        <v>49.403943106387544</v>
+        <v>49.506658343657058</v>
       </c>
       <c r="AK22" s="64">
         <v>45.794946066155084</v>
       </c>
       <c r="AL22" s="64">
-        <v>90.070632944343899</v>
+        <v>91.544355428931453</v>
       </c>
       <c r="AM22" s="64">
         <v>43.953578354837745</v>
@@ -22379,25 +22440,25 @@
         <v>7</v>
       </c>
       <c r="B23" s="64">
-        <v>3568.5471567030067</v>
+        <v>3572.7047788599434</v>
       </c>
       <c r="C23" s="64">
-        <v>3501.971047461192</v>
+        <v>3507.2231601371627</v>
       </c>
       <c r="D23" s="64">
-        <v>2966.428146101855</v>
+        <v>2972.1696085575504</v>
       </c>
       <c r="E23" s="64">
-        <v>4054.7836602137422</v>
+        <v>4058.352098689405</v>
       </c>
       <c r="F23" s="64">
-        <v>3452.6646496125904</v>
+        <v>3457.816928387012</v>
       </c>
       <c r="G23" s="64">
-        <v>3171.128243464806</v>
+        <v>3176.2976991177447</v>
       </c>
       <c r="H23" s="64">
-        <v>3505.2540501001167</v>
+        <v>3509.6530645565545</v>
       </c>
       <c r="I23" s="64">
         <v>-406.97544944148103</v>
@@ -22409,19 +22470,19 @@
         <v>341.49383071870017</v>
       </c>
       <c r="L23" s="64">
-        <v>144.74267279203539</v>
+        <v>144.15348911076114</v>
       </c>
       <c r="M23" s="64">
-        <v>-340.50300081730842</v>
+        <v>-337.99763597403495</v>
       </c>
       <c r="N23" s="64">
-        <v>58.966594669524262</v>
+        <v>56.478406704768311</v>
       </c>
       <c r="O23" s="64">
-        <v>162.96558242767159</v>
+        <v>162.86271640318972</v>
       </c>
       <c r="P23" s="64">
-        <v>171.47991799428661</v>
+        <v>170.49264903561939</v>
       </c>
       <c r="Q23" s="64">
         <v>2280.470156048319</v>
@@ -22433,10 +22494,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="64">
-        <v>364.52429565429861</v>
+        <v>364.22940922182084</v>
       </c>
       <c r="U23" s="64">
-        <v>597.8772247886036</v>
+        <v>607.80218597318708</v>
       </c>
       <c r="V23" s="64">
         <v>-406.97544944148103</v>
@@ -22454,7 +22515,7 @@
         <v>14.329421673210007</v>
       </c>
       <c r="AA23" s="64">
-        <v>111.69010909256042</v>
+        <v>111.10092541128617</v>
       </c>
       <c r="AB23" s="64">
         <v>1.0158448455457865</v>
@@ -22463,31 +22524,31 @@
         <v>12.150472182160943</v>
       </c>
       <c r="AD23" s="64">
-        <v>-335.02949097821937</v>
+        <v>-332.5541542936221</v>
       </c>
       <c r="AE23" s="64">
-        <v>-5.4735098390890427</v>
+        <v>-5.4434816804129129</v>
       </c>
       <c r="AF23" s="64">
-        <v>34.61021545246868</v>
+        <v>34.708213971040188</v>
       </c>
       <c r="AG23" s="64">
-        <v>13.030079113356924</v>
+        <v>10.351919526932479</v>
       </c>
       <c r="AH23" s="64">
-        <v>11.326300103698657</v>
+        <v>11.418273206795636</v>
       </c>
       <c r="AI23" s="64">
         <v>114.16813137832727</v>
       </c>
       <c r="AJ23" s="64">
-        <v>48.797451049344318</v>
+        <v>48.694585024862434</v>
       </c>
       <c r="AK23" s="64">
         <v>45.360422275672505</v>
       </c>
       <c r="AL23" s="64">
-        <v>84.805171411383995</v>
+        <v>83.817902452716808</v>
       </c>
       <c r="AM23" s="64">
         <v>41.314324307230095</v>
@@ -22511,46 +22572,46 @@
         <v>8</v>
       </c>
       <c r="B24" s="64">
-        <v>4438.867886348934</v>
+        <v>4445.2332531469783</v>
       </c>
       <c r="C24" s="64">
-        <v>4269.9097758482121</v>
+        <v>4273.2446509581441</v>
       </c>
       <c r="D24" s="64">
-        <v>3623.1167207734652</v>
+        <v>3628.7598268237998</v>
       </c>
       <c r="E24" s="64">
-        <v>4948.2300117615423</v>
+        <v>4951.5648868714743</v>
       </c>
       <c r="F24" s="64">
-        <v>4132.4788461860735</v>
+        <v>4135.0914605482958</v>
       </c>
       <c r="G24" s="64">
-        <v>3789.6347073216266</v>
+        <v>3792.9485429168744</v>
       </c>
       <c r="H24" s="64">
-        <v>4103.5040797454476</v>
+        <v>4103.231589711093</v>
       </c>
       <c r="I24" s="64">
         <v>-541.48747798493287</v>
       </c>
       <c r="J24" s="64">
-        <v>-274.26368759053565</v>
+        <v>-274.98594833824529</v>
       </c>
       <c r="K24" s="64">
-        <v>372.52936748421092</v>
+        <v>369.49887579609873</v>
       </c>
       <c r="L24" s="64">
         <v>136.83275792839731</v>
       </c>
       <c r="M24" s="64">
-        <v>-406.24656054282804</v>
+        <v>-402.37256371208298</v>
       </c>
       <c r="N24" s="64">
-        <v>63.402421678381216</v>
+        <v>60.229646080661411</v>
       </c>
       <c r="O24" s="64">
-        <v>150.710139040218</v>
+        <v>147.12381341061572</v>
       </c>
       <c r="P24" s="64">
         <v>163.15923338360267</v>
@@ -22559,7 +22620,7 @@
         <v>3027.8012294202331</v>
       </c>
       <c r="R24" s="64">
-        <v>334.34830439834553</v>
+        <v>344.16394636312071</v>
       </c>
       <c r="S24" s="64">
         <v>0</v>
@@ -22568,16 +22629,16 @@
         <v>324.02147896161858</v>
       </c>
       <c r="U24" s="64">
-        <v>752.69687356873646</v>
+        <v>749.24659840200536</v>
       </c>
       <c r="V24" s="64">
         <v>-541.48747798493287</v>
       </c>
       <c r="W24" s="64">
-        <v>-274.26368759053565</v>
+        <v>-274.98594833824529</v>
       </c>
       <c r="X24" s="64">
-        <v>372.52936748421092</v>
+        <v>369.49887579609873</v>
       </c>
       <c r="Y24" s="64">
         <v>9.9950433144785951</v>
@@ -22595,25 +22656,25 @@
         <v>11.70299176311109</v>
       </c>
       <c r="AD24" s="64">
-        <v>-398.17559034057189</v>
+        <v>-394.29093920685119</v>
       </c>
       <c r="AE24" s="64">
-        <v>-8.0709702022561185</v>
+        <v>-8.0816245052317797</v>
       </c>
       <c r="AF24" s="64">
-        <v>37.504984086064937</v>
+        <v>37.424477193288887</v>
       </c>
       <c r="AG24" s="64">
-        <v>13.094329436873156</v>
+        <v>9.9315797820136709</v>
       </c>
       <c r="AH24" s="64">
-        <v>12.803108155443132</v>
+        <v>12.873589105358851</v>
       </c>
       <c r="AI24" s="64">
-        <v>99.475744478019578</v>
+        <v>96.009896078541061</v>
       </c>
       <c r="AJ24" s="64">
-        <v>51.23439456219841</v>
+        <v>51.113917332074649</v>
       </c>
       <c r="AK24" s="64">
         <v>38.27947945522358</v>
@@ -22643,55 +22704,55 @@
         <v>9</v>
       </c>
       <c r="B25" s="64">
-        <v>5771.7565313665882</v>
+        <v>5772.3613230738792</v>
       </c>
       <c r="C25" s="64">
-        <v>5362.6688704617609</v>
+        <v>5364.9810049252937</v>
       </c>
       <c r="D25" s="64">
-        <v>4586.872897141614</v>
+        <v>4585.9448091488048</v>
       </c>
       <c r="E25" s="64">
-        <v>6263.9307268529283</v>
+        <v>6267.5660102483307</v>
       </c>
       <c r="F25" s="64">
-        <v>5079.0470926279522</v>
+        <v>5081.1494963232553</v>
       </c>
       <c r="G25" s="64">
-        <v>4672.0741265202951</v>
+        <v>4672.873852102709</v>
       </c>
       <c r="H25" s="64">
-        <v>5004.5211987777921</v>
+        <v>5010.4975696644042</v>
       </c>
       <c r="I25" s="64">
-        <v>-778.21422951145291</v>
+        <v>-776.09004301322159</v>
       </c>
       <c r="J25" s="64">
-        <v>-412.00097502568508</v>
+        <v>-410.32647091185328</v>
       </c>
       <c r="K25" s="64">
-        <v>365.67923317652418</v>
+        <v>368.70972486463637</v>
       </c>
       <c r="L25" s="64">
         <v>126.49496230981492</v>
       </c>
       <c r="M25" s="64">
-        <v>-480.52228104048959</v>
+        <v>-477.81349546061011</v>
       </c>
       <c r="N25" s="64">
-        <v>73.549314932832104</v>
+        <v>69.537851240062963</v>
       </c>
       <c r="O25" s="64">
-        <v>145.9252078809387</v>
+        <v>149.57154655877437</v>
       </c>
       <c r="P25" s="64">
-        <v>186.71232223581347</v>
+        <v>188.05217100292072</v>
       </c>
       <c r="Q25" s="64">
-        <v>4364.4241175966099</v>
+        <v>4353.8031851054538</v>
       </c>
       <c r="R25" s="64">
-        <v>373.24366372799761</v>
+        <v>363.42802176322238</v>
       </c>
       <c r="S25" s="64">
         <v>0</v>
@@ -22700,16 +22761,16 @@
         <v>329.88217562889383</v>
       </c>
       <c r="U25" s="64">
-        <v>721.44325156358866</v>
+        <v>725.24794057630936</v>
       </c>
       <c r="V25" s="64">
-        <v>-778.21422951145291</v>
+        <v>-776.09004301322159</v>
       </c>
       <c r="W25" s="64">
-        <v>-412.00097502568508</v>
+        <v>-410.32647091185328</v>
       </c>
       <c r="X25" s="64">
-        <v>365.67923317652418</v>
+        <v>368.70972486463637</v>
       </c>
       <c r="Y25" s="64">
         <v>6.3330592323813679</v>
@@ -22727,31 +22788,31 @@
         <v>10.013784534020955</v>
       </c>
       <c r="AD25" s="64">
-        <v>-471.72557094338578</v>
+        <v>-468.83405300210558</v>
       </c>
       <c r="AE25" s="64">
-        <v>-8.7967100971038139</v>
+        <v>-8.9794424585045256</v>
       </c>
       <c r="AF25" s="64">
-        <v>39.127697118428969</v>
+        <v>39.19105267435171</v>
       </c>
       <c r="AG25" s="64">
-        <v>19.868213835097656</v>
+        <v>15.638595436794038</v>
       </c>
       <c r="AH25" s="64">
-        <v>14.553403979305491</v>
+        <v>14.708203128917217</v>
       </c>
       <c r="AI25" s="64">
-        <v>92.932657402508895</v>
+        <v>96.398505801987412</v>
       </c>
       <c r="AJ25" s="64">
-        <v>52.992550478429827</v>
+        <v>53.173040756786968</v>
       </c>
       <c r="AK25" s="64">
         <v>40.16615691378118</v>
       </c>
       <c r="AL25" s="64">
-        <v>64.365910225499931</v>
+        <v>65.705758992607173</v>
       </c>
       <c r="AM25" s="64">
         <v>82.180255096532377</v>
@@ -22775,31 +22836,31 @@
         <v>10</v>
       </c>
       <c r="B26" s="64">
-        <v>10461.374302071719</v>
+        <v>10454.404143566386</v>
       </c>
       <c r="C26" s="64">
-        <v>9634.929213310068</v>
+        <v>9629.2822037366022</v>
       </c>
       <c r="D26" s="64">
-        <v>8230.4310205107795</v>
+        <v>8225.716002453255</v>
       </c>
       <c r="E26" s="64">
-        <v>11149.398236051213</v>
+        <v>11142.428077545877</v>
       </c>
       <c r="F26" s="64">
-        <v>8918.4549544902711</v>
+        <v>8913.7399364327448</v>
       </c>
       <c r="G26" s="64">
-        <v>8318.5695880850708</v>
+        <v>8314.1546208064228</v>
       </c>
       <c r="H26" s="64">
-        <v>8667.3025664028355</v>
+        <v>8661.2972794495909</v>
       </c>
       <c r="I26" s="64">
-        <v>-1379.8060977308169</v>
+        <v>-1381.9302842290483</v>
       </c>
       <c r="J26" s="64">
-        <v>-845.80561351796041</v>
+        <v>-846.75785688408257</v>
       </c>
       <c r="K26" s="64">
         <v>556.80834439926593</v>
@@ -22808,19 +22869,19 @@
         <v>131.21558958022555</v>
       </c>
       <c r="M26" s="64">
-        <v>-688.95499542829407</v>
+        <v>-684.19754030027548</v>
       </c>
       <c r="N26" s="64">
-        <v>89.069629023094436</v>
+        <v>84.612224673952355</v>
       </c>
       <c r="O26" s="64">
-        <v>167.05206683662269</v>
+        <v>166.99205378838928</v>
       </c>
       <c r="P26" s="64">
-        <v>181.49045362188525</v>
+        <v>180.15060485477795</v>
       </c>
       <c r="Q26" s="64">
-        <v>7521.3460275348179</v>
+        <v>7531.966960025974</v>
       </c>
       <c r="R26" s="64">
         <v>536.25119393664488</v>
@@ -22832,13 +22893,13 @@
         <v>217.54226238060014</v>
       </c>
       <c r="U26" s="64">
-        <v>1175.6448547303539</v>
+        <v>1175.2904408843642</v>
       </c>
       <c r="V26" s="64">
-        <v>-1379.8060977308169</v>
+        <v>-1381.9302842290483</v>
       </c>
       <c r="W26" s="64">
-        <v>-845.80561351796041</v>
+        <v>-846.75785688408257</v>
       </c>
       <c r="X26" s="64">
         <v>556.80834439926593</v>
@@ -22859,31 +22920,31 @@
         <v>10.988556624549295</v>
       </c>
       <c r="AD26" s="64">
-        <v>-670.74729198598686</v>
+        <v>-666.13684526840871</v>
       </c>
       <c r="AE26" s="64">
-        <v>-18.207703442307157</v>
+        <v>-18.060695031866821</v>
       </c>
       <c r="AF26" s="64">
-        <v>47.233244410185144</v>
+        <v>47.250395747038446</v>
       </c>
       <c r="AG26" s="64">
-        <v>20.803162021654948</v>
+        <v>16.247595565123433</v>
       </c>
       <c r="AH26" s="64">
-        <v>21.033222591254347</v>
+        <v>21.114233361790479</v>
       </c>
       <c r="AI26" s="64">
         <v>113.85825529135298</v>
       </c>
       <c r="AJ26" s="64">
-        <v>53.19381154526971</v>
+        <v>53.133798497036338</v>
       </c>
       <c r="AK26" s="64">
         <v>21.543990690791496</v>
       </c>
       <c r="AL26" s="64">
-        <v>36.993175820421079</v>
+        <v>35.653327053313824</v>
       </c>
       <c r="AM26" s="64">
         <v>122.95328711067265</v>
@@ -23107,10 +23168,10 @@
         <v>5884.4615379299048</v>
       </c>
       <c r="G29" s="64">
-        <v>5360.9134259811663</v>
+        <v>5360.8255831483193</v>
       </c>
       <c r="H29" s="64">
-        <v>5843.0635573384043</v>
+        <v>5842.9757145055582</v>
       </c>
       <c r="I29" s="64">
         <v>-843.93158298412379</v>
@@ -23125,10 +23186,10 @@
         <v>334.00264641298583</v>
       </c>
       <c r="M29" s="64">
-        <v>-610.94272063156222</v>
+        <v>-606.48761172308673</v>
       </c>
       <c r="N29" s="64">
-        <v>87.394608682823147</v>
+        <v>82.85165694150092</v>
       </c>
       <c r="O29" s="64">
         <v>187.20534317880262</v>
@@ -23170,25 +23231,25 @@
         <v>182.98631751387933</v>
       </c>
       <c r="AB29" s="64">
-        <v>63.989502648477767</v>
+        <v>63.989502648477774</v>
       </c>
       <c r="AC29" s="64">
         <v>13.973117183428128</v>
       </c>
       <c r="AD29" s="64">
-        <v>-600.5977284457698</v>
+        <v>-596.12814371527361</v>
       </c>
       <c r="AE29" s="64">
-        <v>-10.344992185792353</v>
+        <v>-10.359468007813131</v>
       </c>
       <c r="AF29" s="64">
         <v>47.573800054713381</v>
       </c>
       <c r="AG29" s="64">
-        <v>20.984574762758637</v>
+        <v>16.321335926590052</v>
       </c>
       <c r="AH29" s="64">
-        <v>18.836233865351129</v>
+        <v>18.956520960197484</v>
       </c>
       <c r="AI29" s="64">
         <v>106.55264596375959</v>
@@ -23239,10 +23300,10 @@
         <v>5446.2998053230904</v>
       </c>
       <c r="G30" s="64">
-        <v>4977.6023858301369</v>
+        <v>4977.2594256915554</v>
       </c>
       <c r="H30" s="64">
-        <v>5583.2175601108011</v>
+        <v>5582.8745999722187</v>
       </c>
       <c r="I30" s="64">
         <v>-676.12230615307442</v>
@@ -23257,10 +23318,10 @@
         <v>566.01144500620399</v>
       </c>
       <c r="M30" s="64">
-        <v>-543.86895155358343</v>
+        <v>-540.61897440868847</v>
       </c>
       <c r="N30" s="64">
-        <v>75.171532060629914</v>
+        <v>71.578594777152674</v>
       </c>
       <c r="O30" s="64">
         <v>158.4618644906167</v>
@@ -23308,19 +23369,19 @@
         <v>13.092005978106696</v>
       </c>
       <c r="AD30" s="64">
-        <v>-534.13662628039913</v>
+        <v>-530.87334585433359</v>
       </c>
       <c r="AE30" s="64">
-        <v>-9.7323252731842338</v>
+        <v>-9.7456285543548518</v>
       </c>
       <c r="AF30" s="64">
         <v>41.525451137233013</v>
       </c>
       <c r="AG30" s="64">
-        <v>16.655838864367578</v>
+        <v>12.954541338952557</v>
       </c>
       <c r="AH30" s="64">
-        <v>16.990242059029327</v>
+        <v>17.098602300967105</v>
       </c>
       <c r="AI30" s="64">
         <v>67.563423381158742</v>
@@ -23371,10 +23432,10 @@
         <v>2022.5289329814375</v>
       </c>
       <c r="G31" s="64">
-        <v>1852.892609911908</v>
+        <v>1852.8089491616249</v>
       </c>
       <c r="H31" s="64">
-        <v>2223.5195553119224</v>
+        <v>2223.43589456164</v>
       </c>
       <c r="I31" s="64">
         <v>-203.18100661167026</v>
@@ -23389,10 +23450,10 @@
         <v>416.92618646838827</v>
       </c>
       <c r="M31" s="64">
-        <v>-197.45207196046331</v>
+        <v>-196.18355600074409</v>
       </c>
       <c r="N31" s="64">
-        <v>27.815748890933968</v>
+        <v>26.463572180931614</v>
       </c>
       <c r="O31" s="64">
         <v>105.63315131788779</v>
@@ -23440,19 +23501,19 @@
         <v>6.1335372859390471</v>
       </c>
       <c r="AD31" s="64">
-        <v>-193.45664643487845</v>
+        <v>-192.18251908849027</v>
       </c>
       <c r="AE31" s="64">
-        <v>-3.9954255255848881</v>
+        <v>-4.0010369122538112</v>
       </c>
       <c r="AF31" s="64">
         <v>15.120890536977287</v>
       </c>
       <c r="AG31" s="64">
-        <v>6.2695264601532923</v>
+        <v>4.8762983578970038</v>
       </c>
       <c r="AH31" s="64">
-        <v>6.4253318938033877</v>
+        <v>6.4663832860573232</v>
       </c>
       <c r="AI31" s="64">
         <v>59.920200208036093</v>
@@ -23503,10 +23564,10 @@
         <v>1929.4440479625739</v>
       </c>
       <c r="G32" s="64">
-        <v>1770.7444288162153</v>
+        <v>1770.8730781321597</v>
       </c>
       <c r="H32" s="64">
-        <v>2041.7585317356475</v>
+        <v>2041.8871810515918</v>
       </c>
       <c r="I32" s="64">
         <v>-123.3153279715482</v>
@@ -23521,10 +23582,10 @@
         <v>200.80301594675888</v>
       </c>
       <c r="M32" s="64">
-        <v>-193.75523841535079</v>
+        <v>-192.02013322874794</v>
       </c>
       <c r="N32" s="64">
-        <v>35.055619268992061</v>
+        <v>33.449163398333454</v>
       </c>
       <c r="O32" s="64">
         <v>62.803366650301477</v>
@@ -23572,19 +23633,19 @@
         <v>6.3407113879405124</v>
       </c>
       <c r="AD32" s="64">
-        <v>-189.76567843082913</v>
+        <v>-188.02505041411555</v>
       </c>
       <c r="AE32" s="64">
-        <v>-3.9895599845216529</v>
+        <v>-3.9950828146323678</v>
       </c>
       <c r="AF32" s="64">
         <v>21.564975680196625</v>
       </c>
       <c r="AG32" s="64">
-        <v>7.4024534003966789</v>
+        <v>5.7574637558640829</v>
       </c>
       <c r="AH32" s="64">
-        <v>6.0881901883987553</v>
+        <v>6.1267239622727478</v>
       </c>
       <c r="AI32" s="64">
         <v>28.939985557247372</v>
@@ -23635,10 +23696,10 @@
         <v>14545.472408327654</v>
       </c>
       <c r="G33" s="64">
-        <v>13432.340505703205</v>
+        <v>13432.895744531766</v>
       </c>
       <c r="H33" s="64">
-        <v>14130.66001852871</v>
+        <v>14131.215257357271</v>
       </c>
       <c r="I33" s="64">
         <v>-2012.7068984207851</v>
@@ -23653,10 +23714,10 @@
         <v>290.07228990877149</v>
       </c>
       <c r="M33" s="64">
-        <v>-1350.6190037798399</v>
+        <v>-1339.0438919151561</v>
       </c>
       <c r="N33" s="64">
-        <v>237.48710115539239</v>
+        <v>226.46722811926969</v>
       </c>
       <c r="O33" s="64">
         <v>420.46890102695943</v>
@@ -23704,19 +23765,19 @@
         <v>49.939332160990602</v>
       </c>
       <c r="AD33" s="64">
-        <v>-1325.8280403263259</v>
+        <v>-1314.2199940033206</v>
       </c>
       <c r="AE33" s="64">
-        <v>-24.790963453514088</v>
+        <v>-24.82389791183553</v>
       </c>
       <c r="AF33" s="64">
         <v>144.80544038292746</v>
       </c>
       <c r="AG33" s="64">
-        <v>50.78411448239369</v>
+        <v>39.498755708528421</v>
       </c>
       <c r="AH33" s="64">
-        <v>41.897546290071276</v>
+        <v>42.163032027813848</v>
       </c>
       <c r="AI33" s="64">
         <v>280.74314282257848</v>
@@ -23767,10 +23828,10 @@
         <v>3054.9005246110933</v>
       </c>
       <c r="G34" s="64">
-        <v>2807.2653827094068</v>
+        <v>2808.4224839800804</v>
       </c>
       <c r="H34" s="64">
-        <v>3076.6428578425443</v>
+        <v>3077.7999591132179</v>
       </c>
       <c r="I34" s="64">
         <v>-60.841143423876936</v>
@@ -23785,10 +23846,10 @@
         <v>56.722399782553715</v>
       </c>
       <c r="M34" s="64">
-        <v>-329.28229074938332</v>
+        <v>-324.01586491330653</v>
       </c>
       <c r="N34" s="64">
-        <v>81.64714884769748</v>
+        <v>77.537824282294238</v>
       </c>
       <c r="O34" s="64">
         <v>269.3774751331373</v>
@@ -23836,19 +23897,19 @@
         <v>33.069881300953</v>
       </c>
       <c r="AD34" s="64">
-        <v>-325.54210315110629</v>
+        <v>-320.27112188978577</v>
       </c>
       <c r="AE34" s="64">
-        <v>-3.7401875982769943</v>
+        <v>-3.7447430235207917</v>
       </c>
       <c r="AF34" s="64">
         <v>52.859194985522123</v>
       </c>
       <c r="AG34" s="64">
-        <v>18.776065427117512</v>
+        <v>14.603606443313618</v>
       </c>
       <c r="AH34" s="64">
-        <v>10.011888435057852</v>
+        <v>10.075022853458504</v>
       </c>
       <c r="AI34" s="64">
         <v>202.05604600661971</v>
@@ -23899,10 +23960,10 @@
         <v>1676.9474275930841</v>
       </c>
       <c r="G35" s="64">
-        <v>1543.8639268873205</v>
+        <v>1543.9408598476189</v>
       </c>
       <c r="H35" s="64">
-        <v>1659.26058497133</v>
+        <v>1659.3375179316286</v>
       </c>
       <c r="I35" s="64">
         <v>-141.48970286861962</v>
@@ -23917,10 +23978,10 @@
         <v>56.895718386208905</v>
       </c>
       <c r="M35" s="64">
-        <v>-163.19320514588901</v>
+        <v>-161.78771261981308</v>
       </c>
       <c r="N35" s="64">
-        <v>30.109704440125402</v>
+        <v>28.781144874347827</v>
       </c>
       <c r="O35" s="64">
         <v>108.54989820229473</v>
@@ -23968,19 +24029,19 @@
         <v>21.916935560231074</v>
       </c>
       <c r="AD35" s="64">
-        <v>-160.83014003817013</v>
+        <v>-159.42140558553237</v>
       </c>
       <c r="AE35" s="64">
-        <v>-2.3630651077189011</v>
+        <v>-2.3663070342807369</v>
       </c>
       <c r="AF35" s="64">
         <v>18.629545060445651</v>
       </c>
       <c r="AG35" s="64">
-        <v>6.1307658974630463</v>
+        <v>4.7683734758045908</v>
       </c>
       <c r="AH35" s="64">
-        <v>5.3493934822167049</v>
+        <v>5.3832263380975869</v>
       </c>
       <c r="AI35" s="64">
         <v>79.224556060600008</v>
@@ -24216,10 +24277,10 @@
         <v>8714.7999920059301</v>
       </c>
       <c r="G38" s="64">
-        <v>8069.32431024775</v>
+        <v>8070.7135180184459</v>
       </c>
       <c r="H38" s="64">
-        <v>8876.117054544402</v>
+        <v>8877.5062623150952</v>
       </c>
       <c r="I38" s="64">
         <v>-757.07144782985563</v>
@@ -24234,10 +24295,10 @@
         <v>548.51073720319027</v>
       </c>
       <c r="M38" s="64">
-        <v>-809.19180067610728</v>
+        <v>-799.67716690487418</v>
       </c>
       <c r="N38" s="64">
-        <v>163.71611891792793</v>
+        <v>155.59069291739061</v>
       </c>
       <c r="O38" s="64">
         <v>411.37160568582084</v>
@@ -24285,19 +24346,19 @@
         <v>38.651433338962597</v>
       </c>
       <c r="AD38" s="64">
-        <v>-798.103109217976</v>
+        <v>-788.57377684568246</v>
       </c>
       <c r="AE38" s="64">
-        <v>-11.088691458131267</v>
+        <v>-11.103390059191728</v>
       </c>
       <c r="AF38" s="64">
         <v>99.382262355538856</v>
       </c>
       <c r="AG38" s="64">
-        <v>37.340836556346595</v>
+        <v>29.042872877158462</v>
       </c>
       <c r="AH38" s="64">
-        <v>26.993020006042443</v>
+        <v>27.165557684693294</v>
       </c>
       <c r="AI38" s="64">
         <v>281.19731847140309</v>
@@ -24348,10 +24409,10 @@
         <v>9555.9374399601948</v>
       </c>
       <c r="G39" s="64">
-        <v>8751.1503084564119</v>
+        <v>8750.8723712842329</v>
       </c>
       <c r="H39" s="64">
-        <v>9569.1609158410483</v>
+        <v>9568.8829786688711</v>
       </c>
       <c r="I39" s="64">
         <v>-990.54063218053261</v>
@@ -24366,10 +24427,10 @@
         <v>614.62020566221747</v>
       </c>
       <c r="M39" s="64">
-        <v>-964.7062161060087</v>
+        <v>-958.13862316099539</v>
       </c>
       <c r="N39" s="64">
-        <v>159.91908460222575</v>
+        <v>153.07355448503426</v>
       </c>
       <c r="O39" s="64">
         <v>368.1173420477536</v>
@@ -24417,19 +24478,19 @@
         <v>43.368436790433002</v>
       </c>
       <c r="AD39" s="64">
-        <v>-950.48756032960523</v>
+        <v>-943.90023081128686</v>
       </c>
       <c r="AE39" s="64">
-        <v>-14.218655776403388</v>
+        <v>-14.23839234970853</v>
       </c>
       <c r="AF39" s="64">
         <v>97.07688119459668</v>
       </c>
       <c r="AG39" s="64">
-        <v>31.703214566837527</v>
+        <v>24.658055774206961</v>
       </c>
       <c r="AH39" s="64">
-        <v>31.138988840791534</v>
+        <v>31.33861751623061</v>
       </c>
       <c r="AI39" s="64">
         <v>224.81626300331135</v>
@@ -24480,10 +24541,10 @@
         <v>5381.9878280137355</v>
       </c>
       <c r="G40" s="64">
-        <v>4983.175648671634</v>
+        <v>4984.3519079714142</v>
       </c>
       <c r="H40" s="64">
-        <v>5490.913072066196</v>
+        <v>5492.0893313659772</v>
       </c>
       <c r="I40" s="64">
         <v>-498.10486346291373</v>
@@ -24498,10 +24559,10 @@
         <v>399.91250964717551</v>
       </c>
       <c r="M40" s="64">
-        <v>-499.54019533472524</v>
+        <v>-492.84148509649407</v>
       </c>
       <c r="N40" s="64">
-        <v>100.72801599262317</v>
+        <v>95.205565054172936</v>
       </c>
       <c r="O40" s="64">
         <v>260.68947589285619</v>
@@ -24549,19 +24610,19 @@
         <v>31.290926633885078</v>
       </c>
       <c r="AD40" s="64">
-        <v>-494.59346985513156</v>
+        <v>-487.88833347319871</v>
       </c>
       <c r="AE40" s="64">
-        <v>-4.9467254795937157</v>
+        <v>-4.9531516232953274</v>
       </c>
       <c r="AF40" s="64">
         <v>60.613101717163424</v>
       </c>
       <c r="AG40" s="64">
-        <v>25.27700714148666</v>
+        <v>19.659894443378512</v>
       </c>
       <c r="AH40" s="64">
-        <v>14.837907133973088</v>
+        <v>14.932568893630995</v>
       </c>
       <c r="AI40" s="64">
         <v>168.82279989205722</v>
@@ -24612,10 +24673,10 @@
         <v>10907.329424748978</v>
       </c>
       <c r="G41" s="64">
-        <v>9941.9723984635639</v>
+        <v>9941.0883272190313</v>
       </c>
       <c r="H41" s="64">
-        <v>10621.931623387714</v>
+        <v>10621.047552143182</v>
       </c>
       <c r="I41" s="64">
         <v>-1815.8710249603962</v>
@@ -24630,10 +24691,10 @@
         <v>358.39024939928782</v>
       </c>
       <c r="M41" s="64">
-        <v>-1115.6752701192311</v>
+        <v>-1109.5004696471794</v>
       </c>
       <c r="N41" s="64">
-        <v>150.31824383381758</v>
+        <v>143.25937211723266</v>
       </c>
       <c r="O41" s="64">
         <v>272.32157637356943</v>
@@ -24681,19 +24742,19 @@
         <v>31.154724094308385</v>
       </c>
       <c r="AD41" s="64">
-        <v>-1086.9728237047664</v>
+        <v>-1080.7592394206836</v>
       </c>
       <c r="AE41" s="64">
-        <v>-28.702446414464742</v>
+        <v>-28.741230226495635</v>
       </c>
       <c r="AF41" s="64">
         <v>85.007052570716539</v>
       </c>
       <c r="AG41" s="64">
-        <v>32.682281029979642</v>
+        <v>25.419551912206384</v>
       </c>
       <c r="AH41" s="64">
-        <v>32.628910233121367</v>
+        <v>32.832767634309704</v>
       </c>
       <c r="AI41" s="64">
         <v>150.1636186332284</v>
@@ -24929,10 +24990,10 @@
         <v>10536.545310689895</v>
       </c>
       <c r="G44" s="64">
-        <v>9589.4334749041682</v>
+        <v>9588.2904159998252</v>
       </c>
       <c r="H44" s="64">
-        <v>10260.088455701076</v>
+        <v>10258.945396796731</v>
       </c>
       <c r="I44" s="64">
         <v>-1722.9293893729823</v>
@@ -24947,10 +25008,10 @@
         <v>347.05218333148861</v>
       </c>
       <c r="M44" s="64">
-        <v>-1091.7719578066315</v>
+        <v>-1086.411174410046</v>
       </c>
       <c r="N44" s="64">
-        <v>144.66012202090496</v>
+        <v>138.15627971997554</v>
       </c>
       <c r="O44" s="64">
         <v>259.40640073403409</v>
@@ -24998,19 +25059,19 @@
         <v>28.909912015769407</v>
       </c>
       <c r="AD44" s="64">
-        <v>-1062.7510072196917</v>
+        <v>-1057.3511525133345</v>
       </c>
       <c r="AE44" s="64">
-        <v>-29.020950586939882</v>
+        <v>-29.06002189671176</v>
       </c>
       <c r="AF44" s="64">
         <v>82.574311195569379</v>
       </c>
       <c r="AG44" s="64">
-        <v>30.163901484202604</v>
+        <v>23.460812265490915</v>
       </c>
       <c r="AH44" s="64">
-        <v>31.921909341132952</v>
+        <v>32.121156258915228</v>
       </c>
       <c r="AI44" s="64">
         <v>141.5644712296654</v>
@@ -25061,10 +25122,10 @@
         <v>5498.8471701770659</v>
       </c>
       <c r="G45" s="64">
-        <v>5031.1168001184233</v>
+        <v>5034.7252687918244</v>
       </c>
       <c r="H45" s="64">
-        <v>5561.9884701284282</v>
+        <v>5565.5969388018293</v>
       </c>
       <c r="I45" s="64">
         <v>-707.90045122783397</v>
@@ -25079,10 +25140,10 @@
         <v>284.86346238581194</v>
       </c>
       <c r="M45" s="64">
-        <v>-592.64089314632247</v>
+        <v>-579.24914274689877</v>
       </c>
       <c r="N45" s="64">
-        <v>124.91052308768077</v>
+        <v>115.12724136165762</v>
       </c>
       <c r="O45" s="64">
         <v>234.20935967434758</v>
@@ -25130,19 +25191,19 @@
         <v>13.317108555014377</v>
       </c>
       <c r="AD45" s="64">
-        <v>-585.03542752299597</v>
+        <v>-571.63399909453653</v>
       </c>
       <c r="AE45" s="64">
-        <v>-7.6054656233264248</v>
+        <v>-7.6151436523622786</v>
       </c>
       <c r="AF45" s="64">
         <v>63.092096692249207</v>
       </c>
       <c r="AG45" s="64">
-        <v>44.515542161465405</v>
+        <v>34.623199458917533</v>
       </c>
       <c r="AH45" s="64">
-        <v>17.302884233966161</v>
+        <v>17.411945210490867</v>
       </c>
       <c r="AI45" s="64">
         <v>148.10644259542411</v>
@@ -25193,10 +25254,10 @@
         <v>18524.662203861877</v>
       </c>
       <c r="G46" s="64">
-        <v>17125.072390816767</v>
+        <v>17124.010439701477</v>
       </c>
       <c r="H46" s="64">
-        <v>18736.045740009853</v>
+        <v>18734.983788894566</v>
       </c>
       <c r="I46" s="64">
         <v>-1630.7581278328821</v>
@@ -25211,10 +25272,10 @@
         <v>1289.5180561945708</v>
       </c>
       <c r="M46" s="64">
-        <v>-1704.7006312831184</v>
+        <v>-1694.4974276525979</v>
       </c>
       <c r="N46" s="64">
-        <v>305.11081823800868</v>
+        <v>293.84566349219733</v>
       </c>
       <c r="O46" s="64">
         <v>818.88423959161832</v>
@@ -25262,19 +25323,19 @@
         <v>102.23850028680528</v>
       </c>
       <c r="AD46" s="64">
-        <v>-1682.3705283647914</v>
+        <v>-1672.1364289429807</v>
       </c>
       <c r="AE46" s="64">
-        <v>-22.330102918326801</v>
+        <v>-22.360998709617181</v>
       </c>
       <c r="AF46" s="64">
         <v>196.41288995019693</v>
       </c>
       <c r="AG46" s="64">
-        <v>52.323895648982415</v>
+        <v>40.696363282541874</v>
       </c>
       <c r="AH46" s="64">
-        <v>56.37403263882932</v>
+        <v>56.736410259458509</v>
       </c>
       <c r="AI46" s="64">
         <v>535.32908617491057</v>
@@ -26495,7 +26556,7 @@
         <v>1000000</v>
       </c>
       <c r="E26" s="13">
-        <v>5.694880554397006E-3</v>
+        <v>5.6948805543970051E-3</v>
       </c>
       <c r="F26" t="s">
         <v>758</v>
@@ -26539,7 +26600,7 @@
         <v>1000000</v>
       </c>
       <c r="E27" s="13">
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="F27" t="s">
         <v>759</v>
@@ -26583,7 +26644,7 @@
         <v>1000000</v>
       </c>
       <c r="E28" s="13">
-        <v>0.22639490000000001</v>
+        <v>0.22634670000000001</v>
       </c>
       <c r="F28" t="s">
         <v>759</v>
@@ -26645,7 +26706,7 @@
         <v>842</v>
       </c>
       <c r="L29">
-        <v>0.15653543113955223</v>
+        <v>0.15271123303616921</v>
       </c>
       <c r="M29">
         <v>63900.536915252065</v>
@@ -26671,7 +26732,7 @@
         <v>1000000</v>
       </c>
       <c r="E30" s="13">
-        <v>5.1580391646030038E-2</v>
+        <v>5.15597314917524E-2</v>
       </c>
       <c r="F30" t="s">
         <v>759</v>
@@ -26715,7 +26776,7 @@
         <v>1000000</v>
       </c>
       <c r="E31" s="13">
-        <v>1.2595817609440793E-2</v>
+        <v>1.2589722402755119E-2</v>
       </c>
       <c r="F31" t="s">
         <v>759</v>
@@ -26759,7 +26820,7 @@
         <v>1000000</v>
       </c>
       <c r="E32" s="13">
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="F32" t="s">
         <v>760</v>
@@ -26803,7 +26864,7 @@
         <v>1000000</v>
       </c>
       <c r="E33" s="13">
-        <v>0.1985082</v>
+        <v>0.19846510000000001</v>
       </c>
       <c r="F33" t="s">
         <v>760</v>
@@ -26847,7 +26908,7 @@
         <v>1000000</v>
       </c>
       <c r="E34" s="13">
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="F34" t="s">
         <v>760</v>
@@ -26891,7 +26952,7 @@
         <v>1000000</v>
       </c>
       <c r="E35" s="13">
-        <v>2.5659121245578613E-2</v>
+        <v>2.5644740614339141E-2</v>
       </c>
       <c r="F35" t="s">
         <v>760</v>
@@ -26935,7 +26996,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="13">
-        <v>5.2971287187261748E-3</v>
+        <v>5.2918323371841311E-3</v>
       </c>
       <c r="F36" t="s">
         <v>760</v>
@@ -26953,7 +27014,7 @@
         <v>842</v>
       </c>
       <c r="L36">
-        <v>0.161360458528163</v>
+        <v>0.16083837038691323</v>
       </c>
       <c r="M36">
         <v>334441.30677796475</v>
@@ -27114,7 +27175,7 @@
         <v>842</v>
       </c>
       <c r="L43">
-        <v>0.23245527630903889</v>
+        <v>0.22982807428696833</v>
       </c>
       <c r="M43">
         <v>107677.80149337703</v>
@@ -27620,7 +27681,7 @@
         <v>932</v>
       </c>
       <c r="L115">
-        <v>0.21605830030271064</v>
+        <v>0.2154824262170108</v>
       </c>
       <c r="M115">
         <v>303204.8924387063</v>
@@ -27781,7 +27842,7 @@
         <v>932</v>
       </c>
       <c r="L122">
-        <v>0.21376435182256009</v>
+        <v>0.21098810139999605</v>
       </c>
       <c r="M122">
         <v>189917.89991517513</v>
@@ -28448,7 +28509,7 @@
         <v>993</v>
       </c>
       <c r="L222">
-        <v>0.21911793888436523</v>
+        <v>0.21797446304927601</v>
       </c>
       <c r="M222">
         <v>613801.76875367481</v>
@@ -28607,7 +28668,7 @@
         <v>424.87732793347396</v>
       </c>
       <c r="O3">
-        <v>343.28715675851009</v>
+        <v>340.01816964192398</v>
       </c>
       <c r="P3">
         <v>423.74766191820925</v>
@@ -28754,7 +28815,7 @@
         <v>1000</v>
       </c>
       <c r="O7">
-        <v>846.20617955677676</v>
+        <v>838.27242266806252</v>
       </c>
       <c r="P7">
         <v>998.02895854424685</v>
@@ -28795,7 +28856,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:E89"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30436,11 +30497,11 @@
       <c r="C91" s="195">
         <v>4</v>
       </c>
-      <c r="D91" s="197">
+      <c r="D91" s="242">
         <v>0.18</v>
       </c>
-      <c r="E91" s="197">
-        <f>Parameters!$C$43</f>
+      <c r="E91" s="242">
+        <f>[2]Parameters!$C$43</f>
         <v>0.18</v>
       </c>
     </row>
@@ -30645,7 +30706,7 @@
         <v>1403</v>
       </c>
       <c r="D7" s="13">
-        <v>2460.7579959936197</v>
+        <v>2420.2955862808481</v>
       </c>
       <c r="E7" s="13">
         <v>99983.870481725811</v>
@@ -30665,7 +30726,7 @@
         <v>1403</v>
       </c>
       <c r="D8" s="13">
-        <v>21.688854689486309</v>
+        <v>21.716913200795183</v>
       </c>
       <c r="E8" s="13">
         <v>99983.870481725811</v>
@@ -30705,7 +30766,7 @@
         <v>1403</v>
       </c>
       <c r="D10" s="13">
-        <v>143.16605768516987</v>
+        <v>111.35137819957657</v>
       </c>
       <c r="E10" s="13">
         <v>99983.870481725811</v>
@@ -30725,7 +30786,7 @@
         <v>1403</v>
       </c>
       <c r="D11" s="13">
-        <v>73.917426013767823</v>
+        <v>74.383001902914074</v>
       </c>
       <c r="E11" s="13">
         <v>99983.870481725811</v>
@@ -30945,7 +31006,7 @@
         <v>1403</v>
       </c>
       <c r="D22" s="13">
-        <v>2482.4468506831058</v>
+        <v>2442.0124994816429</v>
       </c>
       <c r="E22" s="13">
         <v>99983.870481725811</v>
@@ -30965,7 +31026,7 @@
         <v>1403</v>
       </c>
       <c r="D23" s="13">
-        <v>637.91993178349026</v>
+        <v>606.57082818704316</v>
       </c>
       <c r="E23" s="13">
         <v>99983.870481725811</v>
@@ -31145,7 +31206,7 @@
         <v>1403</v>
       </c>
       <c r="D32" s="13">
-        <v>17420.248035963097</v>
+        <v>17429.333283568114</v>
       </c>
       <c r="E32" s="13">
         <v>99983.870481725811</v>
@@ -31165,7 +31226,7 @@
         <v>1403</v>
       </c>
       <c r="D33" s="13">
-        <v>20351.932176500555</v>
+        <v>20361.017424105572</v>
       </c>
       <c r="E33" s="13">
         <v>99983.870481725811</v>
@@ -31405,7 +31466,7 @@
         <v>1403</v>
       </c>
       <c r="D45" s="13">
-        <v>2006.3490484042572</v>
+        <v>1982.8591873260045</v>
       </c>
       <c r="E45" s="13">
         <v>99988.831005234359</v>
@@ -31425,7 +31486,7 @@
         <v>1403</v>
       </c>
       <c r="D46" s="13">
-        <v>26.437595542985786</v>
+        <v>26.473960630191641</v>
       </c>
       <c r="E46" s="13">
         <v>99988.831005234359</v>
@@ -31465,7 +31526,7 @@
         <v>1403</v>
       </c>
       <c r="D48" s="13">
-        <v>91.278460268664631</v>
+        <v>70.994357986739146</v>
       </c>
       <c r="E48" s="13">
         <v>99988.831005234359</v>
@@ -31485,7 +31546,7 @@
         <v>1403</v>
       </c>
       <c r="D49" s="13">
-        <v>61.569080523446686</v>
+        <v>61.957594866396853</v>
       </c>
       <c r="E49" s="13">
         <v>99988.831005234359</v>
@@ -31705,7 +31766,7 @@
         <v>1403</v>
       </c>
       <c r="D60" s="13">
-        <v>2032.7866439472427</v>
+        <v>2009.3331479561959</v>
       </c>
       <c r="E60" s="13">
         <v>99988.831005234359</v>
@@ -31725,7 +31786,7 @@
         <v>1403</v>
       </c>
       <c r="D61" s="13">
-        <v>475.24543851139583</v>
+        <v>455.34985057242051</v>
       </c>
       <c r="E61" s="13">
         <v>99988.831005234359</v>
@@ -31905,7 +31966,7 @@
         <v>1403</v>
       </c>
       <c r="D70" s="13">
-        <v>16376.422028237686</v>
+        <v>16379.979936289757</v>
       </c>
       <c r="E70" s="13">
         <v>99988.831005234359</v>
@@ -31925,7 +31986,7 @@
         <v>1403</v>
       </c>
       <c r="D71" s="13">
-        <v>19300.211706498761</v>
+        <v>19303.769614550831</v>
       </c>
       <c r="E71" s="13">
         <v>99988.831005234359</v>
@@ -32125,7 +32186,7 @@
         <v>1403</v>
       </c>
       <c r="D81" s="13">
-        <v>437.72893591580134</v>
+        <v>437.72893591580146</v>
       </c>
       <c r="E81" s="13">
         <v>99998.609302509212</v>
@@ -32165,7 +32226,7 @@
         <v>1403</v>
       </c>
       <c r="D83" s="13">
-        <v>2069.7725619093208</v>
+        <v>2053.1929273531928</v>
       </c>
       <c r="E83" s="13">
         <v>99998.609302509212</v>
@@ -32185,7 +32246,7 @@
         <v>1403</v>
       </c>
       <c r="D84" s="13">
-        <v>23.976436905277243</v>
+        <v>24.009123198230782</v>
       </c>
       <c r="E84" s="13">
         <v>99998.609302509212</v>
@@ -32225,7 +32286,7 @@
         <v>1403</v>
       </c>
       <c r="D86" s="13">
-        <v>74.057187503431209</v>
+        <v>57.600034724890939</v>
       </c>
       <c r="E86" s="13">
         <v>99998.609302509212</v>
@@ -32245,7 +32306,7 @@
         <v>1403</v>
       </c>
       <c r="D87" s="13">
-        <v>67.421718301644418</v>
+        <v>67.851671841037586</v>
       </c>
       <c r="E87" s="13">
         <v>99998.609302509212</v>
@@ -32465,7 +32526,7 @@
         <v>1403</v>
       </c>
       <c r="D98" s="13">
-        <v>2093.7489988145981</v>
+        <v>2077.2020505514233</v>
       </c>
       <c r="E98" s="13">
         <v>99998.609302509212</v>
@@ -32485,7 +32546,7 @@
         <v>1403</v>
       </c>
       <c r="D99" s="13">
-        <v>432.87729826472332</v>
+        <v>416.85009902557624</v>
       </c>
       <c r="E99" s="13">
         <v>99998.609302509212</v>
@@ -32665,7 +32726,7 @@
         <v>1403</v>
       </c>
       <c r="D108" s="13">
-        <v>17167.367119355811</v>
+        <v>17167.886868379839</v>
       </c>
       <c r="E108" s="13">
         <v>99998.609302509212</v>
@@ -32685,7 +32746,7 @@
         <v>1403</v>
       </c>
       <c r="D109" s="13">
-        <v>19727.258993679126</v>
+        <v>19727.778742703151</v>
       </c>
       <c r="E109" s="13">
         <v>99998.609302509212</v>
@@ -32925,7 +32986,7 @@
         <v>1403</v>
       </c>
       <c r="D121" s="13">
-        <v>2220.9022327389916</v>
+        <v>2199.6048622341932</v>
       </c>
       <c r="E121" s="13">
         <v>99992.252291726545</v>
@@ -32945,7 +33006,7 @@
         <v>1403</v>
       </c>
       <c r="D122" s="13">
-        <v>29.847130386075804</v>
+        <v>29.888966764581458</v>
       </c>
       <c r="E122" s="13">
         <v>99992.252291726545</v>
@@ -32985,7 +33046,7 @@
         <v>1403</v>
       </c>
       <c r="D124" s="13">
-        <v>88.757138038362157</v>
+        <v>69.033329585392792</v>
       </c>
       <c r="E124" s="13">
         <v>99992.252291726545</v>
@@ -33005,7 +33066,7 @@
         <v>1403</v>
       </c>
       <c r="D125" s="13">
-        <v>71.945528969726041</v>
+        <v>72.403443618266522</v>
       </c>
       <c r="E125" s="13">
         <v>99992.252291726545</v>
@@ -33225,7 +33286,7 @@
         <v>1403</v>
       </c>
       <c r="D136" s="13">
-        <v>2250.7493631250677</v>
+        <v>2229.4938289987749</v>
       </c>
       <c r="E136" s="13">
         <v>99992.252291726545</v>
@@ -33245,7 +33306,7 @@
         <v>1403</v>
       </c>
       <c r="D137" s="13">
-        <v>433.37248496928498</v>
+        <v>414.10659116485607</v>
       </c>
       <c r="E137" s="13">
         <v>99992.252291726545</v>
@@ -33425,7 +33486,7 @@
         <v>1403</v>
       </c>
       <c r="D146" s="13">
-        <v>19990.738636535501</v>
+        <v>19992.728276857364</v>
       </c>
       <c r="E146" s="13">
         <v>99992.252291726545</v>
@@ -33445,7 +33506,7 @@
         <v>1403</v>
       </c>
       <c r="D147" s="13">
-        <v>23259.198400697787</v>
+        <v>23261.18804101965</v>
       </c>
       <c r="E147" s="13">
         <v>99992.252291726545</v>
@@ -33685,7 +33746,7 @@
         <v>1403</v>
       </c>
       <c r="D159" s="13">
-        <v>2706.3327547345721</v>
+        <v>2684.3809905200437</v>
       </c>
       <c r="E159" s="13">
         <v>99939.229778800975</v>
@@ -33705,7 +33766,7 @@
         <v>1403</v>
       </c>
       <c r="D160" s="13">
-        <v>41.693275523545815</v>
+        <v>41.74908046632396</v>
       </c>
       <c r="E160" s="13">
         <v>99939.229778800975</v>
@@ -33745,7 +33806,7 @@
         <v>1403</v>
       </c>
       <c r="D162" s="13">
-        <v>98.231100572558759</v>
+        <v>76.401967111990132</v>
       </c>
       <c r="E162" s="13">
         <v>99939.229778800975</v>
@@ -33765,7 +33826,7 @@
         <v>1403</v>
       </c>
       <c r="D163" s="13">
-        <v>86.681378941858242</v>
+        <v>87.233334006298676</v>
       </c>
       <c r="E163" s="13">
         <v>99939.229778800975</v>
@@ -33985,7 +34046,7 @@
         <v>1403</v>
       </c>
       <c r="D174" s="13">
-        <v>2748.0260302581178</v>
+        <v>2726.1300709863676</v>
       </c>
       <c r="E174" s="13">
         <v>99939.229778800975</v>
@@ -34005,7 +34066,7 @@
         <v>1403</v>
       </c>
       <c r="D175" s="13">
-        <v>469.8202830669029</v>
+        <v>448.54310467077465</v>
       </c>
       <c r="E175" s="13">
         <v>99939.229778800975</v>
@@ -34185,7 +34246,7 @@
         <v>1403</v>
       </c>
       <c r="D184" s="13">
-        <v>23517.942808276071</v>
+        <v>23518.561589151694</v>
       </c>
       <c r="E184" s="13">
         <v>99939.229778800975</v>
@@ -34205,7 +34266,7 @@
         <v>1403</v>
       </c>
       <c r="D185" s="13">
-        <v>26267.545726766828</v>
+        <v>26268.164507642454</v>
       </c>
       <c r="E185" s="13">
         <v>99939.229778800975</v>
@@ -34445,7 +34506,7 @@
         <v>1403</v>
       </c>
       <c r="D197" s="13">
-        <v>2897.4746578429958</v>
+        <v>2870.9901455614158</v>
       </c>
       <c r="E197" s="13">
         <v>99981.531562891876</v>
@@ -34465,7 +34526,7 @@
         <v>1403</v>
       </c>
       <c r="D198" s="13">
-        <v>48.611845053487912</v>
+        <v>48.67845482439175</v>
       </c>
       <c r="E198" s="13">
         <v>99981.531562891876</v>
@@ -34505,7 +34566,7 @@
         <v>1403</v>
       </c>
       <c r="D200" s="13">
-        <v>113.71438996336973</v>
+        <v>88.444525527065323</v>
       </c>
       <c r="E200" s="13">
         <v>99981.531562891876</v>
@@ -34525,7 +34586,7 @@
         <v>1403</v>
       </c>
       <c r="D201" s="13">
-        <v>98.080506739183363</v>
+        <v>98.707881375241087</v>
       </c>
       <c r="E201" s="13">
         <v>99981.531562891876</v>
@@ -34745,7 +34806,7 @@
         <v>1403</v>
       </c>
       <c r="D212" s="13">
-        <v>2946.0865028964836</v>
+        <v>2919.6686003858081</v>
       </c>
       <c r="E212" s="13">
         <v>99981.531562891876</v>
@@ -34765,7 +34826,7 @@
         <v>1403</v>
       </c>
       <c r="D213" s="13">
-        <v>528.34042287544264</v>
+        <v>503.69793307519598</v>
       </c>
       <c r="E213" s="13">
         <v>99981.531562891876</v>
@@ -34945,7 +35006,7 @@
         <v>1403</v>
       </c>
       <c r="D222" s="13">
-        <v>27521.87669465064</v>
+        <v>27523.652107361067</v>
       </c>
       <c r="E222" s="13">
         <v>99981.531562891876</v>
@@ -34965,7 +35026,7 @@
         <v>1403</v>
       </c>
       <c r="D223" s="13">
-        <v>30302.092336145728</v>
+        <v>30303.867748856159</v>
       </c>
       <c r="E223" s="13">
         <v>99981.531562891876</v>
@@ -35205,7 +35266,7 @@
         <v>1403</v>
       </c>
       <c r="D235" s="13">
-        <v>3300.3200729517566</v>
+        <v>3266.8708106094591</v>
       </c>
       <c r="E235" s="13">
         <v>100083.43794638522</v>
@@ -35225,7 +35286,7 @@
         <v>1403</v>
       </c>
       <c r="D236" s="13">
-        <v>53.843528600258914</v>
+        <v>53.920243656044242</v>
       </c>
       <c r="E236" s="13">
         <v>100083.43794638522</v>
@@ -35265,7 +35326,7 @@
         <v>1403</v>
       </c>
       <c r="D238" s="13">
-        <v>137.88637991476398</v>
+        <v>107.24496215592752</v>
       </c>
       <c r="E238" s="13">
         <v>100083.43794638522</v>
@@ -35285,7 +35346,7 @@
         <v>1403</v>
       </c>
       <c r="D239" s="13">
-        <v>105.41090761702247</v>
+        <v>106.08131168724766</v>
       </c>
       <c r="E239" s="13">
         <v>100083.43794638522</v>
@@ -35505,7 +35566,7 @@
         <v>1403</v>
       </c>
       <c r="D250" s="13">
-        <v>3354.1636015520157</v>
+        <v>3320.7910542655036</v>
       </c>
       <c r="E250" s="13">
         <v>100083.43794638522</v>
@@ -35525,7 +35586,7 @@
         <v>1403</v>
       </c>
       <c r="D251" s="13">
-        <v>559.50034843005199</v>
+        <v>529.52933474144083</v>
       </c>
       <c r="E251" s="13">
         <v>100083.43794638522</v>
@@ -35705,7 +35766,7 @@
         <v>1403</v>
       </c>
       <c r="D260" s="13">
-        <v>30677.084716247009</v>
+        <v>30680.486249844907</v>
       </c>
       <c r="E260" s="13">
         <v>100083.43794638522</v>
@@ -35725,7 +35786,7 @@
         <v>1403</v>
       </c>
       <c r="D261" s="13">
-        <v>33561.051037944868</v>
+        <v>33564.452571542774</v>
       </c>
       <c r="E261" s="13">
         <v>100083.43794638522</v>
@@ -35965,7 +36026,7 @@
         <v>1403</v>
       </c>
       <c r="D273" s="13">
-        <v>3813.569389792086</v>
+        <v>3784.3283133967579</v>
       </c>
       <c r="E273" s="13">
         <v>99947.811107758622</v>
@@ -35985,7 +36046,7 @@
         <v>1403</v>
       </c>
       <c r="D274" s="13">
-        <v>76.746110885141007</v>
+        <v>76.847165334751764</v>
       </c>
       <c r="E274" s="13">
         <v>99947.811107758622</v>
@@ -36025,7 +36086,7 @@
         <v>1403</v>
       </c>
       <c r="D276" s="13">
-        <v>135.17415801416655</v>
+        <v>105.13545623324063</v>
       </c>
       <c r="E276" s="13">
         <v>99947.811107758622</v>
@@ -36045,7 +36106,7 @@
         <v>1403</v>
       </c>
       <c r="D277" s="13">
-        <v>125.71976311397607</v>
+        <v>126.51745932806746</v>
       </c>
       <c r="E277" s="13">
         <v>99947.811107758622</v>
@@ -36265,7 +36326,7 @@
         <v>1403</v>
       </c>
       <c r="D288" s="13">
-        <v>3890.3155006772267</v>
+        <v>3861.1754787315099</v>
       </c>
       <c r="E288" s="13">
         <v>99947.811107758622</v>
@@ -36285,7 +36346,7 @@
         <v>1403</v>
       </c>
       <c r="D289" s="13">
-        <v>617.54345399205647</v>
+        <v>588.302448425222</v>
       </c>
       <c r="E289" s="13">
         <v>99947.811107758622</v>
@@ -36465,7 +36526,7 @@
         <v>1403</v>
       </c>
       <c r="D298" s="13">
-        <v>38102.222651722077</v>
+        <v>38102.121668100961</v>
       </c>
       <c r="E298" s="13">
         <v>99947.811107758622</v>
@@ -36485,7 +36546,7 @@
         <v>1403</v>
       </c>
       <c r="D299" s="13">
-        <v>40751.285073889521</v>
+        <v>40751.184090268405</v>
       </c>
       <c r="E299" s="13">
         <v>99947.811107758622</v>
@@ -36725,7 +36786,7 @@
         <v>1403</v>
       </c>
       <c r="D311" s="13">
-        <v>4788.1586632671297</v>
+        <v>4748.8361048231118</v>
       </c>
       <c r="E311" s="13">
         <v>99824.034770780301</v>
@@ -36745,7 +36806,7 @@
         <v>1403</v>
       </c>
       <c r="D312" s="13">
-        <v>90.221399900297939</v>
+        <v>90.342479590180687</v>
       </c>
       <c r="E312" s="13">
         <v>99824.034770780301</v>
@@ -36785,7 +36846,7 @@
         <v>1403</v>
       </c>
       <c r="D314" s="13">
-        <v>177.13396272338636</v>
+        <v>137.77085989596716</v>
       </c>
       <c r="E314" s="13">
         <v>99824.034770780301</v>
@@ -36805,7 +36866,7 @@
         <v>1403</v>
       </c>
       <c r="D315" s="13">
-        <v>150.3689465747232</v>
+        <v>151.3247262947072</v>
       </c>
       <c r="E315" s="13">
         <v>99824.034770780301</v>
@@ -37025,7 +37086,7 @@
         <v>1403</v>
       </c>
       <c r="D326" s="13">
-        <v>4878.3800631674276</v>
+        <v>4839.1785844132919</v>
       </c>
       <c r="E326" s="13">
         <v>99824.034770780301</v>
@@ -37045,7 +37106,7 @@
         <v>1403</v>
       </c>
       <c r="D327" s="13">
-        <v>721.01973808651292</v>
+        <v>682.61241497907781</v>
       </c>
       <c r="E327" s="13">
         <v>99824.034770780301</v>
@@ -37225,7 +37286,7 @@
         <v>1403</v>
       </c>
       <c r="D336" s="13">
-        <v>46320.79893928807</v>
+        <v>46321.593094934775</v>
       </c>
       <c r="E336" s="13">
         <v>99824.034770780301</v>
@@ -37245,7 +37306,7 @@
         <v>1403</v>
       </c>
       <c r="D337" s="13">
-        <v>48962.632148733639</v>
+        <v>48963.426304380337</v>
       </c>
       <c r="E337" s="13">
         <v>99824.034770780301</v>
@@ -37485,7 +37546,7 @@
         <v>1403</v>
       </c>
       <c r="D349" s="13">
-        <v>7030.289607259795</v>
+        <v>6992.2275344601485</v>
       </c>
       <c r="E349" s="13">
         <v>100260.39175218702</v>
@@ -37505,7 +37566,7 @@
         <v>1403</v>
       </c>
       <c r="D350" s="13">
-        <v>176.23740341387108</v>
+        <v>176.47329059086479</v>
       </c>
       <c r="E350" s="13">
         <v>100260.39175218702</v>
@@ -37545,7 +37606,7 @@
         <v>1403</v>
       </c>
       <c r="D352" s="13">
-        <v>210.47557769854581</v>
+        <v>163.70322709886895</v>
       </c>
       <c r="E352" s="13">
         <v>100260.39175218702</v>
@@ -37565,7 +37626,7 @@
         <v>1403</v>
       </c>
       <c r="D353" s="13">
-        <v>214.65242558486159</v>
+        <v>216.01272052710604</v>
       </c>
       <c r="E353" s="13">
         <v>100260.39175218702</v>
@@ -37785,7 +37846,7 @@
         <v>1403</v>
       </c>
       <c r="D364" s="13">
-        <v>7206.5270106736662</v>
+        <v>7168.7008250510135</v>
       </c>
       <c r="E364" s="13">
         <v>100260.39175218702</v>
@@ -37805,7 +37866,7 @@
         <v>1403</v>
       </c>
       <c r="D365" s="13">
-        <v>870.61108858332261</v>
+        <v>825.19903292589026</v>
       </c>
       <c r="E365" s="13">
         <v>100260.39175218702</v>
@@ -37985,7 +38046,7 @@
         <v>1403</v>
       </c>
       <c r="D374" s="13">
-        <v>80254.148363862216</v>
+        <v>80246.562493827441</v>
       </c>
       <c r="E374" s="13">
         <v>100260.39175218702</v>
@@ -38005,7 +38066,7 @@
         <v>1403</v>
       </c>
       <c r="D375" s="13">
-        <v>82990.414940398288</v>
+        <v>82982.829070363514</v>
       </c>
       <c r="E375" s="13">
         <v>100260.39175218702</v>
@@ -38189,7 +38250,7 @@
         <v>2442</v>
       </c>
       <c r="D3" s="13">
-        <v>0.34300789999999998</v>
+        <v>0.34297250000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -38217,7 +38278,7 @@
         <v>2444</v>
       </c>
       <c r="D5" s="13">
-        <v>0.34581230000000002</v>
+        <v>0.34577760000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -38245,7 +38306,7 @@
         <v>2446</v>
       </c>
       <c r="D7" s="13">
-        <v>0.35859479999999999</v>
+        <v>0.35856130000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -38273,7 +38334,7 @@
         <v>2448</v>
       </c>
       <c r="D9" s="13">
-        <v>0.35859479999999999</v>
+        <v>0.35856130000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -38287,7 +38348,7 @@
         <v>2449</v>
       </c>
       <c r="D10" s="13">
-        <v>0.19323130268112165</v>
+        <v>0.19398979648444409</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -38301,7 +38362,7 @@
         <v>2450</v>
       </c>
       <c r="D11" s="13">
-        <v>0.31737729999999997</v>
+        <v>0.31746180000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -38329,7 +38390,7 @@
         <v>2452</v>
       </c>
       <c r="D13" s="13">
-        <v>0.32585609999999998</v>
+        <v>0.32582250000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -38357,7 +38418,7 @@
         <v>2454</v>
       </c>
       <c r="D15" s="13">
-        <v>0.38334200000000002</v>
+        <v>0.38331789999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -38385,7 +38446,7 @@
         <v>2456</v>
       </c>
       <c r="D17" s="13">
-        <v>0.30636029999999997</v>
+        <v>0.30632549999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -38413,7 +38474,7 @@
         <v>2458</v>
       </c>
       <c r="D19" s="13">
-        <v>0.34299079999999998</v>
+        <v>0.34295999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -38441,7 +38502,7 @@
         <v>2460</v>
       </c>
       <c r="D21" s="13">
-        <v>0.34581230000000002</v>
+        <v>0.34577760000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -38455,7 +38516,7 @@
         <v>2461</v>
       </c>
       <c r="D22" s="13">
-        <v>0.32728070997825237</v>
+        <v>0.32716894538367841</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -38469,7 +38530,7 @@
         <v>2462</v>
       </c>
       <c r="D23" s="13">
-        <v>0.37147170000000002</v>
+        <v>0.37143870000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -38483,7 +38544,7 @@
         <v>2463</v>
       </c>
       <c r="D24" s="13">
-        <v>0.28033321363892955</v>
+        <v>0.28018493096425839</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -38497,7 +38558,7 @@
         <v>2464</v>
       </c>
       <c r="D25" s="13">
-        <v>0.3323393</v>
+        <v>0.3323063</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -38511,7 +38572,7 @@
         <v>2465</v>
       </c>
       <c r="D26" s="13">
-        <v>0.29565030142819704</v>
+        <v>0.29575104332989377</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -38525,7 +38586,7 @@
         <v>2466</v>
       </c>
       <c r="D27" s="13">
-        <v>0.3387812</v>
+        <v>0.33874850000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -38553,7 +38614,7 @@
         <v>2468</v>
       </c>
       <c r="D29" s="13">
-        <v>0.32984970000000002</v>
+        <v>0.32981389999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -38567,7 +38628,7 @@
         <v>2469</v>
       </c>
       <c r="D30" s="13">
-        <v>0.31445495724062106</v>
+        <v>0.31440741646764658</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -38581,7 +38642,7 @@
         <v>2470</v>
       </c>
       <c r="D31" s="13">
-        <v>0.3492325</v>
+        <v>0.34919860000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -38595,7 +38656,7 @@
         <v>2471</v>
       </c>
       <c r="D32" s="13">
-        <v>0.27913814570729106</v>
+        <v>0.27881759540425261</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -38609,7 +38670,7 @@
         <v>2472</v>
       </c>
       <c r="D33" s="13">
-        <v>0.3283218</v>
+        <v>0.32828649999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -38623,7 +38684,7 @@
         <v>2473</v>
       </c>
       <c r="D34" s="13">
-        <v>0.27298894241450045</v>
+        <v>0.27190535020474044</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -38637,7 +38698,7 @@
         <v>2474</v>
       </c>
       <c r="D35" s="13">
-        <v>0.32630320000000002</v>
+        <v>0.32613769999999997</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -38665,7 +38726,7 @@
         <v>2476</v>
       </c>
       <c r="D37" s="13">
-        <v>0.32607049999999999</v>
+        <v>0.32603919999999997</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -38679,7 +38740,7 @@
         <v>2477</v>
       </c>
       <c r="D38" s="13">
-        <v>0.30545227995711038</v>
+        <v>0.3052509928432231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -38693,7 +38754,7 @@
         <v>2478</v>
       </c>
       <c r="D39" s="13">
-        <v>0.35038619999999998</v>
+        <v>0.35034789999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -38721,7 +38782,7 @@
         <v>2480</v>
       </c>
       <c r="D41" s="13">
-        <v>0.34510489999999999</v>
+        <v>0.34506769999999998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -38735,7 +38796,7 @@
         <v>2481</v>
       </c>
       <c r="D42" s="13">
-        <v>0.28645089271522944</v>
+        <v>0.28618250989671301</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -38749,7 +38810,7 @@
         <v>2482</v>
       </c>
       <c r="D43" s="13">
-        <v>0.33043679999999997</v>
+        <v>0.33040199999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -38763,7 +38824,7 @@
         <v>2483</v>
       </c>
       <c r="D44" s="13">
-        <v>0.28407140147646548</v>
+        <v>0.28358669868169795</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -38777,7 +38838,7 @@
         <v>2484</v>
       </c>
       <c r="D45" s="13">
-        <v>0.3292639</v>
+        <v>0.3290922</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -38791,7 +38852,7 @@
         <v>2485</v>
       </c>
       <c r="D46" s="13">
-        <v>0.19239593380102016</v>
+        <v>0.19343780369188063</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -38805,7 +38866,7 @@
         <v>2486</v>
       </c>
       <c r="D47" s="13">
-        <v>0.3174999</v>
+        <v>0.3175847</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -38833,7 +38894,7 @@
         <v>2488</v>
       </c>
       <c r="D49" s="13">
-        <v>0.42229359999999999</v>
+        <v>0.42221340000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -38861,7 +38922,7 @@
         <v>2490</v>
       </c>
       <c r="D51" s="13">
-        <v>0.32808320000000002</v>
+        <v>0.32804879999999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -38889,7 +38950,7 @@
         <v>2492</v>
       </c>
       <c r="D53" s="13">
-        <v>0.42229359999999999</v>
+        <v>0.42221340000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -38903,7 +38964,7 @@
         <v>2493</v>
       </c>
       <c r="D54" s="13">
-        <v>0.42338922777026017</v>
+        <v>0.42307600492903008</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -38917,7 +38978,7 @@
         <v>2494</v>
       </c>
       <c r="D55" s="13">
-        <v>0.40360360000000001</v>
+        <v>0.4035706</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -38945,7 +39006,7 @@
         <v>2496</v>
       </c>
       <c r="D57" s="13">
-        <v>0.39753899999999998</v>
+        <v>0.39750750000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -38973,7 +39034,7 @@
         <v>2498</v>
       </c>
       <c r="D59" s="13">
-        <v>0.32948959999999999</v>
+        <v>0.32945649999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -39001,7 +39062,7 @@
         <v>2500</v>
       </c>
       <c r="D61" s="13">
-        <v>0.32935019999999998</v>
+        <v>0.32931670000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -39029,7 +39090,7 @@
         <v>2502</v>
       </c>
       <c r="D63" s="13">
-        <v>2.0714359999999998</v>
+        <v>2.0711360000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -39155,7 +39216,7 @@
         <v>2511</v>
       </c>
       <c r="D72" s="13">
-        <v>0.15323235472541394</v>
+        <v>0.15325383696511088</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -39169,7 +39230,7 @@
         <v>2512</v>
       </c>
       <c r="D73" s="13">
-        <v>0.31505899999999998</v>
+        <v>0.31517000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -39197,7 +39258,7 @@
         <v>2514</v>
       </c>
       <c r="D75" s="13">
-        <v>0.32043919999999998</v>
+        <v>0.32043939999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -39491,7 +39552,7 @@
         <v>2535</v>
       </c>
       <c r="D96" s="13">
-        <v>0.20792673634422593</v>
+        <v>0.20750032132248067</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -39505,7 +39566,7 @@
         <v>2536</v>
       </c>
       <c r="D97" s="13">
-        <v>0.32077309999999998</v>
+        <v>0.32066689999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -39533,7 +39594,7 @@
         <v>2538</v>
       </c>
       <c r="D99" s="13">
-        <v>0.32053690000000001</v>
+        <v>0.3205384</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -39631,7 +39692,7 @@
         <v>2545</v>
       </c>
       <c r="D106" s="13">
-        <v>0.21879094536515886</v>
+        <v>0.21848750429241812</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -39645,7 +39706,7 @@
         <v>2546</v>
       </c>
       <c r="D107" s="13">
-        <v>0.32336949999999998</v>
+        <v>0.3232604</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -39659,7 +39720,7 @@
         <v>2547</v>
       </c>
       <c r="D108" s="13">
-        <v>0.15141369798719106</v>
+        <v>0.15267528812698572</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -39673,7 +39734,7 @@
         <v>2548</v>
       </c>
       <c r="D109" s="13">
-        <v>0.31518259999999998</v>
+        <v>0.31529390000000002</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -39911,7 +39972,7 @@
         <v>2565</v>
       </c>
       <c r="D126" s="13">
-        <v>0.18410576620417396</v>
+        <v>0.18364826702614559</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -39925,7 +39986,7 @@
         <v>2566</v>
       </c>
       <c r="D127" s="13">
-        <v>0.31900640000000002</v>
+        <v>0.3189728</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -39939,7 +40000,7 @@
         <v>2567</v>
       </c>
       <c r="D128" s="13">
-        <v>0.16717248076804092</v>
+        <v>0.16647061327793611</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -39953,7 +40014,7 @@
         <v>2568</v>
       </c>
       <c r="D129" s="13">
-        <v>0.32380710000000001</v>
+        <v>0.32377349999999999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -39967,7 +40028,7 @@
         <v>2569</v>
       </c>
       <c r="D130" s="13">
-        <v>0.15989488392563625</v>
+        <v>0.15919301643553141</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -39981,7 +40042,7 @@
         <v>2570</v>
       </c>
       <c r="D131" s="13">
-        <v>0.33633809999999997</v>
+        <v>0.33630569999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -39995,7 +40056,7 @@
         <v>2571</v>
       </c>
       <c r="D132" s="13">
-        <v>0.15989488392563625</v>
+        <v>0.15919301643553141</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -40009,7 +40070,7 @@
         <v>2572</v>
       </c>
       <c r="D133" s="13">
-        <v>0.33633809999999997</v>
+        <v>0.33630569999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -40023,7 +40084,7 @@
         <v>2573</v>
       </c>
       <c r="D134" s="13">
-        <v>0.10711409965905735</v>
+        <v>0.10896466149577906</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -40037,7 +40098,7 @@
         <v>2574</v>
       </c>
       <c r="D135" s="13">
-        <v>0.29798829999999998</v>
+        <v>0.2980602</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -40051,7 +40112,7 @@
         <v>2575</v>
       </c>
       <c r="D136" s="13">
-        <v>0.17099456485849143</v>
+        <v>0.1709569578287064</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -40065,7 +40126,7 @@
         <v>2576</v>
       </c>
       <c r="D137" s="13">
-        <v>0.30434709999999998</v>
+        <v>0.30431439999999998</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -40079,7 +40140,7 @@
         <v>2577</v>
       </c>
       <c r="D138" s="13">
-        <v>0.28850939481104665</v>
+        <v>0.28894001751374804</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -40093,7 +40154,7 @@
         <v>2578</v>
       </c>
       <c r="D139" s="13">
-        <v>0.35587010000000002</v>
+        <v>0.355846</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -40107,7 +40168,7 @@
         <v>2579</v>
       </c>
       <c r="D140" s="13">
-        <v>0.17335696105214823</v>
+        <v>0.17265509356204339</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -40121,7 +40182,7 @@
         <v>2580</v>
       </c>
       <c r="D141" s="13">
-        <v>0.2858309</v>
+        <v>0.28579710000000003</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -40135,7 +40196,7 @@
         <v>2581</v>
       </c>
       <c r="D142" s="13">
-        <v>0.21228012440663213</v>
+        <v>0.21206166891270009</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -40149,7 +40210,7 @@
         <v>2582</v>
       </c>
       <c r="D143" s="13">
-        <v>0.31774079999999999</v>
+        <v>0.31771100000000002</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -40163,7 +40224,7 @@
         <v>2583</v>
       </c>
       <c r="D144" s="13">
-        <v>0.16717248076804092</v>
+        <v>0.16647061327793611</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -40177,7 +40238,7 @@
         <v>2584</v>
       </c>
       <c r="D145" s="13">
-        <v>0.32380710000000001</v>
+        <v>0.32377349999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -40191,7 +40252,7 @@
         <v>2585</v>
       </c>
       <c r="D146" s="13">
-        <v>0.23068660057405727</v>
+        <v>0.23046814508012523</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -40205,7 +40266,7 @@
         <v>2586</v>
       </c>
       <c r="D147" s="13">
-        <v>0.34238200000000002</v>
+        <v>0.34235080000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -40219,7 +40280,7 @@
         <v>2587</v>
       </c>
       <c r="D148" s="13">
-        <v>0.18637209222282053</v>
+        <v>0.18567022473271572</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -40233,7 +40294,7 @@
         <v>2588</v>
       </c>
       <c r="D149" s="13">
-        <v>0.30918879999999999</v>
+        <v>0.30915690000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -40247,7 +40308,7 @@
         <v>2589</v>
       </c>
       <c r="D150" s="13">
-        <v>0.20158506193071848</v>
+        <v>0.20106647067467101</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -40261,7 +40322,7 @@
         <v>2590</v>
       </c>
       <c r="D151" s="13">
-        <v>0.31426739999999997</v>
+        <v>0.31423570000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -40275,7 +40336,7 @@
         <v>2591</v>
       </c>
       <c r="D152" s="13">
-        <v>0.17903336352253213</v>
+        <v>0.17833149603242729</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -40289,7 +40350,7 @@
         <v>2592</v>
       </c>
       <c r="D153" s="13">
-        <v>0.30533179999999999</v>
+        <v>0.30529729999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -40303,7 +40364,7 @@
         <v>2593</v>
       </c>
       <c r="D154" s="13">
-        <v>0.22201731616389517</v>
+        <v>0.22149872490784764</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -40317,7 +40378,7 @@
         <v>2594</v>
       </c>
       <c r="D155" s="13">
-        <v>0.31999050000000001</v>
+        <v>0.31995820000000003</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -40331,7 +40392,7 @@
         <v>2595</v>
       </c>
       <c r="D156" s="13">
-        <v>0.18216329812281834</v>
+        <v>0.18207839702287332</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -40345,7 +40406,7 @@
         <v>2596</v>
       </c>
       <c r="D157" s="13">
-        <v>0.30644670000000002</v>
+        <v>0.30641249999999998</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -40359,7 +40420,7 @@
         <v>2597</v>
       </c>
       <c r="D158" s="13">
-        <v>0.17591307032784809</v>
+        <v>0.17378522977827943</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -40373,7 +40434,7 @@
         <v>2598</v>
       </c>
       <c r="D159" s="13">
-        <v>0.30465730000000002</v>
+        <v>0.30451479999999997</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -40387,7 +40448,7 @@
         <v>2599</v>
       </c>
       <c r="D160" s="13">
-        <v>0.1741459308821714</v>
+        <v>0.17416696173753488</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -40401,7 +40462,7 @@
         <v>2600</v>
       </c>
       <c r="D161" s="13">
-        <v>0.30444009999999999</v>
+        <v>0.30440919999999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -40415,7 +40476,7 @@
         <v>2601</v>
       </c>
       <c r="D162" s="13">
-        <v>0.21507870072679727</v>
+        <v>0.21488367735614397</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -40429,7 +40490,7 @@
         <v>2602</v>
       </c>
       <c r="D163" s="13">
-        <v>0.31881290000000001</v>
+        <v>0.31877660000000002</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -40443,7 +40504,7 @@
         <v>2603</v>
       </c>
       <c r="D164" s="13">
-        <v>0.19981941486698596</v>
+        <v>0.19911754737688112</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -40457,7 +40518,7 @@
         <v>2604</v>
       </c>
       <c r="D165" s="13">
-        <v>0.3145791</v>
+        <v>0.31454379999999998</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -40471,7 +40532,7 @@
         <v>2605</v>
       </c>
       <c r="D166" s="13">
-        <v>0.18802111518144315</v>
+        <v>0.1878727191833176</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -40485,7 +40546,7 @@
         <v>2606</v>
       </c>
       <c r="D167" s="13">
-        <v>0.30802030000000002</v>
+        <v>0.3079866</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -40499,7 +40560,7 @@
         <v>2607</v>
       </c>
       <c r="D168" s="13">
-        <v>0.18715078349603023</v>
+        <v>0.1860000855252357</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -40513,7 +40574,7 @@
         <v>2608</v>
       </c>
       <c r="D169" s="13">
-        <v>0.30720389999999997</v>
+        <v>0.3070561</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -40527,7 +40588,7 @@
         <v>2609</v>
       </c>
       <c r="D170" s="13">
-        <v>0.10649826430310876</v>
+        <v>0.10668754290553988</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -40541,7 +40602,7 @@
         <v>2610</v>
       </c>
       <c r="D171" s="13">
-        <v>0.29814600000000002</v>
+        <v>0.29821819999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -40555,7 +40616,7 @@
         <v>2611</v>
       </c>
       <c r="D172" s="13">
-        <v>0.29842530021344454</v>
+        <v>0.29790194602755438</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -40569,7 +40630,7 @@
         <v>2612</v>
       </c>
       <c r="D173" s="13">
-        <v>0.3880924</v>
+        <v>0.38802120000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -40583,7 +40644,7 @@
         <v>2613</v>
       </c>
       <c r="D174" s="13">
-        <v>0.17899164880995491</v>
+        <v>0.17828978131985007</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -40597,7 +40658,7 @@
         <v>2614</v>
       </c>
       <c r="D175" s="13">
-        <v>0.30611460000000001</v>
+        <v>0.3060813</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -40611,7 +40672,7 @@
         <v>2615</v>
       </c>
       <c r="D176" s="13">
-        <v>0.29842530021344454</v>
+        <v>0.29790194602755438</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -40625,7 +40686,7 @@
         <v>2616</v>
       </c>
       <c r="D177" s="13">
-        <v>0.3880924</v>
+        <v>0.38802120000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -40639,7 +40700,7 @@
         <v>2617</v>
       </c>
       <c r="D178" s="13">
-        <v>0.32329251963977917</v>
+        <v>0.32339663883079928</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -40653,7 +40714,7 @@
         <v>2618</v>
       </c>
       <c r="D179" s="13">
-        <v>0.36968450000000003</v>
+        <v>0.36965389999999998</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -40667,7 +40728,7 @@
         <v>2619</v>
       </c>
       <c r="D180" s="13">
-        <v>0.20765015959756161</v>
+        <v>0.20694829210745677</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -40681,7 +40742,7 @@
         <v>2620</v>
       </c>
       <c r="D181" s="13">
-        <v>0.36873420000000001</v>
+        <v>0.36870320000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -40695,7 +40756,7 @@
         <v>2621</v>
       </c>
       <c r="D182" s="13">
-        <v>0.17937543092283631</v>
+        <v>0.17867356343273147</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -40709,7 +40770,7 @@
         <v>2622</v>
       </c>
       <c r="D183" s="13">
-        <v>0.30727929999999998</v>
+        <v>0.3072472</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -40723,7 +40784,7 @@
         <v>2623</v>
       </c>
       <c r="D184" s="13">
-        <v>0.17401753242399454</v>
+        <v>0.1733156649338897</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -40737,7 +40798,7 @@
         <v>2624</v>
       </c>
       <c r="D185" s="13">
-        <v>0.30733549999999998</v>
+        <v>0.30730289999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -40751,7 +40812,7 @@
         <v>2625</v>
       </c>
       <c r="D186" s="13">
-        <v>0.44944315726897988</v>
+        <v>0.44865112661500617</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -40765,7 +40826,7 @@
         <v>2626</v>
       </c>
       <c r="D187" s="13">
-        <v>1.600592</v>
+        <v>1.6004130000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -40891,7 +40952,7 @@
         <v>2635</v>
       </c>
       <c r="D196" s="13">
-        <v>0.12926304186310691</v>
+        <v>0.13007220283389959</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -40905,7 +40966,7 @@
         <v>2636</v>
       </c>
       <c r="D197" s="13">
-        <v>0.35012850000000001</v>
+        <v>0.35025620000000002</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -40933,7 +40994,7 @@
         <v>2638</v>
       </c>
       <c r="D199" s="13">
-        <v>0.357964</v>
+        <v>0.35796410000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -41227,7 +41288,7 @@
         <v>2659</v>
       </c>
       <c r="D220" s="13">
-        <v>0.18030998874399168</v>
+        <v>0.17988357372224642</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -41241,7 +41302,7 @@
         <v>2660</v>
       </c>
       <c r="D221" s="13">
-        <v>0.35844369999999998</v>
+        <v>0.35832239999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -41269,7 +41330,7 @@
         <v>2662</v>
       </c>
       <c r="D223" s="13">
-        <v>0.35820869999999999</v>
+        <v>0.35821059999999999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -41381,7 +41442,7 @@
         <v>2670</v>
       </c>
       <c r="D231" s="13">
-        <v>0.3611916</v>
+        <v>0.361068</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -41395,7 +41456,7 @@
         <v>2671</v>
       </c>
       <c r="D232" s="13">
-        <v>0.12818002698143346</v>
+        <v>0.12848859353308095</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -41409,7 +41470,7 @@
         <v>2672</v>
       </c>
       <c r="D233" s="13">
-        <v>0.35018949999999999</v>
+        <v>0.3503173</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -41759,7 +41820,7 @@
         <v>2697</v>
       </c>
       <c r="D258" s="13">
-        <v>0.29749593666636664</v>
+        <v>0.29701071363202841</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -41773,7 +41834,7 @@
         <v>2698</v>
       </c>
       <c r="D259" s="13">
-        <v>0.44129790000000002</v>
+        <v>0.44157639999999998</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -41801,7 +41862,7 @@
         <v>2700</v>
       </c>
       <c r="D261" s="13">
-        <v>0.46137590000000001</v>
+        <v>0.4613757</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -42095,7 +42156,7 @@
         <v>2721</v>
       </c>
       <c r="D282" s="13">
-        <v>0.33780314826442148</v>
+        <v>0.33756021525209612</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -42109,7 +42170,7 @@
         <v>2722</v>
       </c>
       <c r="D283" s="13">
-        <v>0.46273999999999998</v>
+        <v>0.46246599999999999</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -42137,7 +42198,7 @@
         <v>2724</v>
       </c>
       <c r="D285" s="13">
-        <v>0.46225260000000001</v>
+        <v>0.46225719999999998</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -42235,7 +42296,7 @@
         <v>2731</v>
       </c>
       <c r="D292" s="13">
-        <v>0.34645029382211245</v>
+        <v>0.34626761929683914</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -42249,7 +42310,7 @@
         <v>2732</v>
       </c>
       <c r="D293" s="13">
-        <v>0.46779080000000001</v>
+        <v>0.4675127</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -42263,7 +42324,7 @@
         <v>2733</v>
       </c>
       <c r="D294" s="13">
-        <v>0.2959734806387383</v>
+        <v>0.2968384613743757</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -42277,7 +42338,7 @@
         <v>2734</v>
       </c>
       <c r="D295" s="13">
-        <v>0.44120350000000003</v>
+        <v>0.44148150000000003</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -42459,7 +42520,7 @@
         <v>2747</v>
       </c>
       <c r="D308" s="13">
-        <v>0.18523092920072914</v>
+        <v>0.18521437716041605</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -42473,7 +42534,7 @@
         <v>2748</v>
       </c>
       <c r="D309" s="13">
-        <v>0.36222539999999998</v>
+        <v>0.3623671</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -42795,7 +42856,7 @@
         <v>2771</v>
       </c>
       <c r="D332" s="13">
-        <v>0.2514476855058031</v>
+        <v>0.2510388562286377</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -42809,7 +42870,7 @@
         <v>2772</v>
       </c>
       <c r="D333" s="13">
-        <v>0.37274059999999998</v>
+        <v>0.37260110000000002</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -42837,7 +42898,7 @@
         <v>2774</v>
       </c>
       <c r="D335" s="13">
-        <v>0.37250499999999998</v>
+        <v>0.37250749999999999</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -42935,7 +42996,7 @@
         <v>2781</v>
       </c>
       <c r="D342" s="13">
-        <v>0.26507329766517773</v>
+        <v>0.26477056937376037</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -42949,7 +43010,7 @@
         <v>2782</v>
       </c>
       <c r="D343" s="13">
-        <v>0.37592189999999998</v>
+        <v>0.37577899999999997</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -42963,7 +43024,7 @@
         <v>2783</v>
       </c>
       <c r="D344" s="13">
-        <v>0.18434167799926562</v>
+        <v>0.18486770453342152</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -42977,7 +43038,7 @@
         <v>2784</v>
       </c>
       <c r="D345" s="13">
-        <v>0.3622746</v>
+        <v>0.36241640000000003</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -43495,7 +43556,7 @@
         <v>2821</v>
       </c>
       <c r="D382" s="13">
-        <v>0.33206952696854125</v>
+        <v>0.33306312249046277</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -43509,7 +43570,7 @@
         <v>2822</v>
       </c>
       <c r="D383" s="13">
-        <v>0.41305560000000002</v>
+        <v>0.41336070000000003</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -43537,7 +43598,7 @@
         <v>2824</v>
       </c>
       <c r="D385" s="13">
-        <v>0.43391479999999999</v>
+        <v>0.43391459999999998</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -43831,7 +43892,7 @@
         <v>2845</v>
       </c>
       <c r="D406" s="13">
-        <v>0.3897872595039158</v>
+        <v>0.3887378926118224</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -43845,7 +43906,7 @@
         <v>2846</v>
       </c>
       <c r="D407" s="13">
-        <v>0.4353976</v>
+        <v>0.4350908</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -43873,7 +43934,7 @@
         <v>2848</v>
       </c>
       <c r="D409" s="13">
-        <v>0.43481560000000002</v>
+        <v>0.4348206</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -43971,7 +44032,7 @@
         <v>2855</v>
       </c>
       <c r="D416" s="13">
-        <v>0.40028547100844919</v>
+        <v>0.39975837441711692</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -43985,7 +44046,7 @@
         <v>2856</v>
       </c>
       <c r="D417" s="13">
-        <v>0.4410385</v>
+        <v>0.44072450000000002</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -43999,7 +44060,7 @@
         <v>2857</v>
       </c>
       <c r="D418" s="13">
-        <v>0.33103726762488206</v>
+        <v>0.33209315594255739</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -44013,7 +44074,7 @@
         <v>2858</v>
       </c>
       <c r="D419" s="13">
-        <v>0.41299530000000001</v>
+        <v>0.41329979999999999</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -44254,11 +44315,11 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
       <selection pane="topRight" activeCell="J44" sqref="J44"/>
       <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45475,24 +45536,24 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
       <c r="AK3"/>
     </row>
     <row r="4" spans="1:37" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="65"/>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="246"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="O4" s="4"/>
@@ -45792,7 +45853,7 @@
       </c>
       <c r="E10" s="34">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A10,"_",E$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>5.694880554397006E-3</v>
+        <v>5.6948805543970051E-3</v>
       </c>
       <c r="F10" s="34">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A10,"_",F$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -45843,19 +45904,19 @@
       </c>
       <c r="D11" s="34">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A11,"_",D$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>5.1580391646030038E-2</v>
+        <v>5.15597314917524E-2</v>
       </c>
       <c r="E11" s="34">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A11,"_",E$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>1.2595817609440793E-2</v>
+        <v>1.2589722402755119E-2</v>
       </c>
       <c r="F11" s="34">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A11,"_",F$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="G11" s="35">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A11,"_",G$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.22639490000000001</v>
+        <v>0.22634670000000001</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -45897,11 +45958,11 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A12,"_",F$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="G12" s="37">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($A12,"_",G$13,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.1985082</v>
+        <v>0.19846510000000001</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -46239,12 +46300,12 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
       <c r="AL3"/>
     </row>
     <row r="4" spans="1:38" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -47272,18 +47333,18 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="X4" s="246" t="s">
+      <c r="X4" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="248"/>
+      <c r="Y4" s="248"/>
+      <c r="Z4" s="248"/>
+      <c r="AA4" s="248"/>
+      <c r="AB4" s="248"/>
+      <c r="AC4" s="248"/>
+      <c r="AD4" s="248"/>
+      <c r="AE4" s="248"/>
+      <c r="AF4" s="248"/>
+      <c r="AG4" s="249"/>
     </row>
     <row r="5" spans="1:61" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="43"/>
@@ -47373,43 +47434,43 @@
       </c>
       <c r="C6" s="36">
         <f>totals!I$2/totals!$H$2</f>
-        <v>-0.11752918431673287</v>
+        <v>-0.11752441146914797</v>
       </c>
       <c r="D6" s="36">
         <f>totals!J$2/totals!$H$2</f>
-        <v>-6.0872117305526399E-2</v>
+        <v>-6.0869645295363484E-2</v>
       </c>
       <c r="E6" s="36">
         <f>totals!K$2/totals!$H$2</f>
-        <v>0.12087631096954968</v>
+        <v>0.12087140219550996</v>
       </c>
       <c r="F6" s="36">
         <f>totals!L$2/totals!$H$2</f>
-        <v>5.5600060237392598E-2</v>
+        <v>5.5597802324902461E-2</v>
       </c>
       <c r="G6" s="36">
         <f>totals!M$2/totals!$H$2</f>
-        <v>-9.8069953481188493E-2</v>
+        <v>-9.7228119757930442E-2</v>
       </c>
       <c r="H6" s="36">
         <f>totals!N$2/totals!$H$2</f>
-        <v>1.6629417891228966E-2</v>
+        <v>1.5831501352273101E-2</v>
       </c>
       <c r="I6" s="36">
         <f>totals!O$2/totals!$H$2</f>
-        <v>3.7979493640069854E-2</v>
+        <v>3.7977951296901645E-2</v>
       </c>
       <c r="J6" s="36">
         <f>totals!P$2/totals!$H$2</f>
-        <v>4.340513558865125E-2</v>
+        <v>4.3403372910744725E-2</v>
       </c>
       <c r="K6" s="71">
         <f>SUM($C6:J6)</f>
-        <v>-1.9808367765553961E-3</v>
+        <v>-1.9401464421099981E-3</v>
       </c>
       <c r="L6" s="71">
         <f>K6-SUM(I6:J6)</f>
-        <v>-8.3365466005276501E-2</v>
+        <v>-8.3321470649756368E-2</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -47425,23 +47486,23 @@
       </c>
       <c r="Y6" s="52">
         <f t="shared" ref="Y6:Y15" si="0">C10</f>
-        <v>-4.6490371791637394E-4</v>
+        <v>-4.6469627418692838E-4</v>
       </c>
       <c r="Z6" s="52">
         <f t="shared" ref="Z6:Z15" si="1">D10+E10</f>
-        <v>0.6984332151933087</v>
+        <v>0.69812156874836806</v>
       </c>
       <c r="AA6" s="52">
         <f t="shared" ref="AA6:AA15" si="2">F10</f>
-        <v>0.14928291983536737</v>
+        <v>0.14921630861149512</v>
       </c>
       <c r="AB6" s="52">
         <f t="shared" ref="AB6:AB15" si="3">G10</f>
-        <v>-0.12197597894658248</v>
+        <v>-0.11993568143557135</v>
       </c>
       <c r="AC6" s="52">
         <f t="shared" ref="AC6:AC15" si="4">H10+I10+J10+K10</f>
-        <v>1.0760629850830004</v>
+        <v>1.0744893822525463</v>
       </c>
       <c r="AD6" s="52">
         <f t="shared" ref="AD6:AD15" si="5">M6</f>
@@ -47488,23 +47549,23 @@
       </c>
       <c r="Y7" s="52">
         <f t="shared" si="0"/>
-        <v>-7.000458540773997E-3</v>
+        <v>-6.999168275281414E-3</v>
       </c>
       <c r="Z7" s="52">
         <f t="shared" si="1"/>
-        <v>0.37183591492533208</v>
+        <v>0.37176738126469588</v>
       </c>
       <c r="AA7" s="52">
         <f t="shared" si="2"/>
-        <v>0.18929668387768495</v>
+        <v>0.18926179430900239</v>
       </c>
       <c r="AB7" s="52">
         <f t="shared" si="3"/>
-        <v>-0.10532457751552868</v>
+        <v>-0.10409019523531803</v>
       </c>
       <c r="AC7" s="52">
         <f t="shared" si="4"/>
-        <v>0.80103531739128631</v>
+        <v>0.80004133071014705</v>
       </c>
       <c r="AD7" s="52">
         <f t="shared" si="5"/>
@@ -47554,23 +47615,23 @@
       </c>
       <c r="Y8" s="52">
         <f t="shared" si="0"/>
-        <v>-3.1103303699942717E-2</v>
+        <v>-3.1102484250781565E-2</v>
       </c>
       <c r="Z8" s="52">
         <f t="shared" si="1"/>
-        <v>0.18932324676257517</v>
+        <v>0.18931825884305242</v>
       </c>
       <c r="AA8" s="52">
         <f t="shared" si="2"/>
-        <v>0.12851796109333061</v>
+        <v>0.12851457515283932</v>
       </c>
       <c r="AB8" s="52">
         <f t="shared" si="3"/>
-        <v>-0.10613481576358191</v>
+        <v>-0.10529325564945989</v>
       </c>
       <c r="AC8" s="52">
         <f t="shared" si="4"/>
-        <v>0.48351786650293005</v>
+        <v>0.48271905593434727</v>
       </c>
       <c r="AD8" s="52">
         <f t="shared" si="5"/>
@@ -47652,23 +47713,23 @@
       </c>
       <c r="Y9" s="52">
         <f t="shared" si="0"/>
-        <v>-5.7411809886404604E-2</v>
+        <v>-5.7406899180567073E-2</v>
       </c>
       <c r="Z9" s="52">
         <f t="shared" si="1"/>
-        <v>0.10654550040703843</v>
+        <v>0.10653638706238257</v>
       </c>
       <c r="AA9" s="52">
         <f t="shared" si="2"/>
-        <v>9.0061660712048672E-2</v>
+        <v>9.0053957308796423E-2</v>
       </c>
       <c r="AB9" s="52">
         <f t="shared" si="3"/>
-        <v>-9.6768139827963465E-2</v>
+        <v>-9.5846085980956883E-2</v>
       </c>
       <c r="AC9" s="52">
         <f t="shared" si="4"/>
-        <v>0.36075507147465624</v>
+        <v>0.35998150710264931</v>
       </c>
       <c r="AD9" s="52">
         <f t="shared" si="5"/>
@@ -47722,43 +47783,43 @@
       </c>
       <c r="C10" s="34">
         <f>totals!I5/totals!$H5</f>
-        <v>-4.6490371791637394E-4</v>
+        <v>-4.6469627418692838E-4</v>
       </c>
       <c r="D10" s="34">
         <f>totals!J5/totals!$H5</f>
-        <v>-1.2151546816672438E-5</v>
+        <v>-1.21461247000211E-5</v>
       </c>
       <c r="E10" s="34">
         <f>totals!K5/totals!$H5</f>
-        <v>0.69844536674012536</v>
+        <v>0.69813371487306808</v>
       </c>
       <c r="F10" s="34">
         <f>totals!L5/totals!$H5</f>
-        <v>0.14928291983536737</v>
+        <v>0.14921630861149512</v>
       </c>
       <c r="G10" s="34">
         <f>totals!M5/totals!$H5</f>
-        <v>-0.12197597894658248</v>
+        <v>-0.11993568143557135</v>
       </c>
       <c r="H10" s="34">
         <f>totals!N5/totals!$H5</f>
-        <v>3.1344440726864604E-2</v>
+        <v>2.9790791665887932E-2</v>
       </c>
       <c r="I10" s="34">
         <f>totals!O5/totals!$H5</f>
-        <v>0.12371290137501462</v>
+        <v>0.12365769969635998</v>
       </c>
       <c r="J10" s="34">
         <f>totals!P5/totals!$H5</f>
-        <v>2.0336524257532386E-2</v>
+        <v>2.0327449938972727E-2</v>
       </c>
       <c r="K10" s="97">
         <f>SUM($C10:J10)</f>
-        <v>0.90066911872358868</v>
+        <v>0.90071344095132566</v>
       </c>
       <c r="L10" s="97">
         <f>K10-SUM(I10:J10)</f>
-        <v>0.75661969309104171</v>
+        <v>0.75672829131599295</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -47774,23 +47835,23 @@
       </c>
       <c r="Y10" s="52">
         <f t="shared" si="0"/>
-        <v>-7.3251421377446724E-2</v>
+        <v>-7.3249695844676915E-2</v>
       </c>
       <c r="Z10" s="52">
         <f t="shared" si="1"/>
-        <v>7.3158272780865785E-2</v>
+        <v>7.3156549442332658E-2</v>
       </c>
       <c r="AA10" s="52">
         <f t="shared" si="2"/>
-        <v>8.3476903400980754E-2</v>
+        <v>8.3474936993645152E-2</v>
       </c>
       <c r="AB10" s="52">
         <f t="shared" si="3"/>
-        <v>-0.10461677915565055</v>
+        <v>-0.10378075979359837</v>
       </c>
       <c r="AC10" s="52">
         <f t="shared" si="4"/>
-        <v>0.22369555451088363</v>
+        <v>0.22290384270149746</v>
       </c>
       <c r="AD10" s="52">
         <f t="shared" si="5"/>
@@ -47818,43 +47879,43 @@
       </c>
       <c r="C11" s="34">
         <f>totals!I6/totals!$H6</f>
-        <v>-7.000458540773997E-3</v>
+        <v>-6.999168275281414E-3</v>
       </c>
       <c r="D11" s="34">
         <f>totals!J6/totals!$H6</f>
-        <v>-8.7991136268558777E-4</v>
+        <v>-8.7974918484235191E-4</v>
       </c>
       <c r="E11" s="34">
         <f>totals!K6/totals!$H6</f>
-        <v>0.37271582628801769</v>
+        <v>0.37264713044953823</v>
       </c>
       <c r="F11" s="34">
         <f>totals!L6/totals!$H6</f>
-        <v>0.18929668387768495</v>
+        <v>0.18926179430900239</v>
       </c>
       <c r="G11" s="34">
         <f>totals!M6/totals!$H6</f>
-        <v>-0.10532457751552868</v>
+        <v>-0.10409019523531803</v>
       </c>
       <c r="H11" s="34">
         <f>totals!N6/totals!$H6</f>
-        <v>2.4623845879958479E-2</v>
+        <v>2.3588649246475985E-2</v>
       </c>
       <c r="I11" s="34">
         <f>totals!O6/totals!$H6</f>
-        <v>9.364177874538214E-2</v>
+        <v>9.3624519482281648E-2</v>
       </c>
       <c r="J11" s="34">
         <f>totals!P6/totals!$H6</f>
-        <v>5.78482526969454E-2</v>
+        <v>5.7837590594766473E-2</v>
       </c>
       <c r="K11" s="98">
         <f>SUM($C11:J11)</f>
-        <v>0.6249214400690003</v>
+        <v>0.62499057138662295</v>
       </c>
       <c r="L11" s="98">
         <f t="shared" ref="L11:L19" si="10">K11-SUM(I11:J11)</f>
-        <v>0.47343140862667277</v>
+        <v>0.47352846130957482</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -47870,23 +47931,23 @@
       </c>
       <c r="Y11" s="52">
         <f t="shared" si="0"/>
-        <v>-9.0046014507244407E-2</v>
+        <v>-9.004073898136089E-2</v>
       </c>
       <c r="Z11" s="52">
         <f t="shared" si="1"/>
-        <v>4.5993859374465124E-2</v>
+        <v>4.5991164732209829E-2</v>
       </c>
       <c r="AA11" s="52">
         <f t="shared" si="2"/>
-        <v>4.9369883320403547E-2</v>
+        <v>4.9366990887032135E-2</v>
       </c>
       <c r="AB11" s="52">
         <f t="shared" si="3"/>
-        <v>-9.7223863956821768E-2</v>
+        <v>-9.6346401211311161E-2</v>
       </c>
       <c r="AC11" s="52">
         <f t="shared" si="4"/>
-        <v>0.12663860415461284</v>
+        <v>0.12587659208840932</v>
       </c>
       <c r="AD11" s="52">
         <f t="shared" si="5"/>
@@ -47914,43 +47975,43 @@
       </c>
       <c r="C12" s="34">
         <f>totals!I7/totals!$H7</f>
-        <v>-3.1103303699942717E-2</v>
+        <v>-3.1102484250781565E-2</v>
       </c>
       <c r="D12" s="34">
         <f>totals!J7/totals!$H7</f>
-        <v>-7.1343886928076188E-3</v>
+        <v>-7.134200729854036E-3</v>
       </c>
       <c r="E12" s="34">
         <f>totals!K7/totals!$H7</f>
-        <v>0.19645763545538278</v>
+        <v>0.19645245957290647</v>
       </c>
       <c r="F12" s="34">
         <f>totals!L7/totals!$H7</f>
-        <v>0.12851796109333061</v>
+        <v>0.12851457515283932</v>
       </c>
       <c r="G12" s="34">
         <f>totals!M7/totals!$H7</f>
-        <v>-0.10613481576358191</v>
+        <v>-0.10529325564945989</v>
       </c>
       <c r="H12" s="34">
         <f>totals!N7/totals!$H7</f>
-        <v>2.1943104128324311E-2</v>
+        <v>2.1130108182086108E-2</v>
       </c>
       <c r="I12" s="34">
         <f>totals!O7/totals!$H7</f>
-        <v>6.24977046892757E-2</v>
+        <v>6.2496058121689971E-2</v>
       </c>
       <c r="J12" s="34">
         <f>totals!P7/totals!$H7</f>
-        <v>6.701658023767447E-2</v>
+        <v>6.7014814615572432E-2</v>
       </c>
       <c r="K12" s="98">
         <f>SUM($C12:J12)</f>
-        <v>0.3320604774476556</v>
+        <v>0.33207807501499875</v>
       </c>
       <c r="L12" s="98">
         <f t="shared" si="10"/>
-        <v>0.20254619252070544</v>
+        <v>0.20256720227773634</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -47966,23 +48027,23 @@
       </c>
       <c r="Y12" s="52">
         <f t="shared" si="0"/>
-        <v>-0.13123989751555959</v>
+        <v>-0.1312265972265162</v>
       </c>
       <c r="Z12" s="52">
         <f t="shared" si="1"/>
-        <v>-7.417679525002982E-3</v>
+        <v>-7.4169277926138116E-3</v>
       </c>
       <c r="AA12" s="52">
         <f t="shared" si="2"/>
-        <v>4.4882290580911761E-2</v>
+        <v>4.4877742059852573E-2</v>
       </c>
       <c r="AB12" s="52">
         <f t="shared" si="3"/>
-        <v>-9.9942150135874E-2</v>
+        <v>-9.893773918067704E-2</v>
       </c>
       <c r="AC12" s="52">
         <f t="shared" si="4"/>
-        <v>1.1768378666144358E-2</v>
+        <v>1.0975590207300365E-2</v>
       </c>
       <c r="AD12" s="52">
         <f t="shared" si="5"/>
@@ -48010,43 +48071,43 @@
       </c>
       <c r="C13" s="34">
         <f>totals!I8/totals!$H8</f>
-        <v>-5.7411809886404604E-2</v>
+        <v>-5.7406899180567073E-2</v>
       </c>
       <c r="D13" s="34">
         <f>totals!J8/totals!$H8</f>
-        <v>-1.927627647411952E-2</v>
+        <v>-1.9274627682283926E-2</v>
       </c>
       <c r="E13" s="34">
         <f>totals!K8/totals!$H8</f>
-        <v>0.12582177688115795</v>
+        <v>0.12581101474466649</v>
       </c>
       <c r="F13" s="34">
         <f>totals!L8/totals!$H8</f>
-        <v>9.0061660712048672E-2</v>
+        <v>9.0053957308796423E-2</v>
       </c>
       <c r="G13" s="34">
         <f>totals!M8/totals!$H8</f>
-        <v>-9.6768139827963465E-2</v>
+        <v>-9.5846085980956883E-2</v>
       </c>
       <c r="H13" s="34">
         <f>totals!N8/totals!$H8</f>
-        <v>1.8632305271375289E-2</v>
+        <v>1.7802469522820805E-2</v>
       </c>
       <c r="I13" s="34">
         <f>totals!O8/totals!$H8</f>
-        <v>6.5252908886630628E-2</v>
+        <v>6.5247327494209459E-2</v>
       </c>
       <c r="J13" s="34">
         <f>totals!P8/totals!$H8</f>
-        <v>7.5278715876962707E-2</v>
+        <v>7.5272276929466878E-2</v>
       </c>
       <c r="K13" s="98">
         <f>SUM($C13:J13)</f>
-        <v>0.20159114143968765</v>
+        <v>0.2016594331561522</v>
       </c>
       <c r="L13" s="98">
         <f t="shared" si="10"/>
-        <v>6.1059516676094328E-2</v>
+        <v>6.1139828732475865E-2</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -48062,23 +48123,23 @@
       </c>
       <c r="Y13" s="52">
         <f t="shared" si="0"/>
-        <v>-0.13309691234805146</v>
+        <v>-0.13309724216934302</v>
       </c>
       <c r="Z13" s="52">
         <f t="shared" si="1"/>
-        <v>-7.4022460616177399E-3</v>
+        <v>-7.4022644047807215E-3</v>
       </c>
       <c r="AA13" s="52">
         <f t="shared" si="2"/>
-        <v>2.9272076924034132E-2</v>
+        <v>2.9272149461811659E-2</v>
       </c>
       <c r="AB13" s="52">
         <f t="shared" si="3"/>
-        <v>-9.5464854510069419E-2</v>
+        <v>-9.4750019292165269E-2</v>
       </c>
       <c r="AC13" s="52">
         <f t="shared" si="4"/>
-        <v>-4.6675873052093725E-2</v>
+        <v>-4.7396016609680319E-2</v>
       </c>
       <c r="AD13" s="52">
         <f t="shared" si="5"/>
@@ -48106,43 +48167,43 @@
       </c>
       <c r="C14" s="34">
         <f>totals!I9/totals!$H9</f>
-        <v>-7.3251421377446724E-2</v>
+        <v>-7.3249695844676915E-2</v>
       </c>
       <c r="D14" s="34">
         <f>totals!J9/totals!$H9</f>
-        <v>-2.8712044270609492E-2</v>
+        <v>-2.8711367920958585E-2</v>
       </c>
       <c r="E14" s="34">
         <f>totals!K9/totals!$H9</f>
-        <v>0.10187031705147527</v>
+        <v>0.10186791736329125</v>
       </c>
       <c r="F14" s="34">
         <f>totals!L9/totals!$H9</f>
-        <v>8.3476903400980754E-2</v>
+        <v>8.3474936993645152E-2</v>
       </c>
       <c r="G14" s="34">
         <f>totals!M9/totals!$H9</f>
-        <v>-0.10461677915565055</v>
+        <v>-0.10378075979359837</v>
       </c>
       <c r="H14" s="34">
         <f>totals!N9/totals!$H9</f>
-        <v>1.7885960414952374E-2</v>
+        <v>1.7075540414720473E-2</v>
       </c>
       <c r="I14" s="34">
         <f>totals!O9/totals!$H9</f>
-        <v>3.9682490649576969E-2</v>
+        <v>3.968155587675324E-2</v>
       </c>
       <c r="J14" s="34">
         <f>totals!P9/totals!$H9</f>
-        <v>6.4895838366537853E-2</v>
+        <v>6.4894309660423755E-2</v>
       </c>
       <c r="K14" s="98">
         <f>SUM($C14:J14)</f>
-        <v>0.10123126507981645</v>
+        <v>0.10125243674959999</v>
       </c>
       <c r="L14" s="98">
         <f t="shared" si="10"/>
-        <v>-3.3470639362983834E-3</v>
+        <v>-3.323428787576993E-3</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -48158,23 +48219,23 @@
       </c>
       <c r="Y14" s="52">
         <f t="shared" si="0"/>
-        <v>-0.16256095607432616</v>
+        <v>-0.16255831943896495</v>
       </c>
       <c r="Z14" s="52">
         <f t="shared" si="1"/>
-        <v>-4.1199065860191883E-2</v>
+        <v>-4.119839763753548E-2</v>
       </c>
       <c r="AA14" s="52">
         <f t="shared" si="2"/>
-        <v>1.993021918656512E-2</v>
+        <v>1.992989593108033E-2</v>
       </c>
       <c r="AB14" s="52">
         <f t="shared" si="3"/>
-        <v>-9.963475918427725E-2</v>
+        <v>-9.883251540304018E-2</v>
       </c>
       <c r="AC14" s="52">
         <f t="shared" si="4"/>
-        <v>-0.14584792513153408</v>
+        <v>-0.14661374861117243</v>
       </c>
       <c r="AD14" s="52">
         <f t="shared" si="5"/>
@@ -48202,43 +48263,43 @@
       </c>
       <c r="C15" s="34">
         <f>totals!I10/totals!$H10</f>
-        <v>-9.0046014507244407E-2</v>
+        <v>-9.004073898136089E-2</v>
       </c>
       <c r="D15" s="34">
         <f>totals!J10/totals!$H10</f>
-        <v>-3.8052070478942282E-2</v>
+        <v>-3.8049841122275781E-2</v>
       </c>
       <c r="E15" s="34">
         <f>totals!K10/totals!$H10</f>
-        <v>8.4045929853407406E-2</v>
+        <v>8.4041005854485609E-2</v>
       </c>
       <c r="F15" s="34">
         <f>totals!L10/totals!$H10</f>
-        <v>4.9369883320403547E-2</v>
+        <v>4.9366990887032135E-2</v>
       </c>
       <c r="G15" s="34">
         <f>totals!M10/totals!$H10</f>
-        <v>-9.7223863956821768E-2</v>
+        <v>-9.6346401211311161E-2</v>
       </c>
       <c r="H15" s="34">
         <f>totals!N10/totals!$H10</f>
-        <v>1.7435773642772979E-2</v>
+        <v>1.6621572442488252E-2</v>
       </c>
       <c r="I15" s="34">
         <f>totals!O10/totals!$H10</f>
-        <v>3.5305238349283799E-2</v>
+        <v>3.5303169921272248E-2</v>
       </c>
       <c r="J15" s="34">
         <f>totals!P10/totals!$H10</f>
-        <v>5.65313579698484E-2</v>
+        <v>5.6528045967159199E-2</v>
       </c>
       <c r="K15" s="98">
         <f>SUM($C15:J15)</f>
-        <v>1.7366234192707664E-2</v>
+        <v>1.7423803757489614E-2</v>
       </c>
       <c r="L15" s="98">
         <f t="shared" si="10"/>
-        <v>-7.4470362126424536E-2</v>
+        <v>-7.4407412130941833E-2</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -48254,23 +48315,23 @@
       </c>
       <c r="Y15" s="55">
         <f t="shared" si="0"/>
-        <v>-0.19345583868303706</v>
+        <v>-0.19347352343621022</v>
       </c>
       <c r="Z15" s="55">
         <f t="shared" si="1"/>
-        <v>-9.1506891817231789E-2</v>
+        <v>-9.1515256913919735E-2</v>
       </c>
       <c r="AA15" s="55">
         <f t="shared" si="2"/>
-        <v>6.4014404480498398E-3</v>
+        <v>6.4020256353207279E-3</v>
       </c>
       <c r="AB15" s="55">
         <f t="shared" si="3"/>
-        <v>-8.6835654645771088E-2</v>
+        <v>-8.6387761243623878E-2</v>
       </c>
       <c r="AC15" s="55">
         <f t="shared" si="4"/>
-        <v>-0.27847419180635158</v>
+        <v>-0.27913830985747956</v>
       </c>
       <c r="AD15" s="55">
         <f t="shared" si="5"/>
@@ -48298,43 +48359,43 @@
       </c>
       <c r="C16" s="34">
         <f>totals!I11/totals!$H11</f>
-        <v>-0.13123989751555959</v>
+        <v>-0.1312265972265162</v>
       </c>
       <c r="D16" s="34">
         <f>totals!J11/totals!$H11</f>
-        <v>-5.7136487910991712E-2</v>
+        <v>-5.7130697508693887E-2</v>
       </c>
       <c r="E16" s="34">
         <f>totals!K11/totals!$H11</f>
-        <v>4.971880838598873E-2</v>
+        <v>4.9713769716080075E-2</v>
       </c>
       <c r="F16" s="34">
         <f>totals!L11/totals!$H11</f>
-        <v>4.4882290580911761E-2</v>
+        <v>4.4877742059852573E-2</v>
       </c>
       <c r="G16" s="34">
         <f>totals!M11/totals!$H11</f>
-        <v>-9.9942150135874E-2</v>
+        <v>-9.893773918067704E-2</v>
       </c>
       <c r="H16" s="34">
         <f>totals!N11/totals!$H11</f>
-        <v>1.6671121169520839E-2</v>
+        <v>1.577649251429758E-2</v>
       </c>
       <c r="I16" s="34">
         <f>totals!O11/totals!$H11</f>
-        <v>2.7471894466530391E-2</v>
+        <v>2.7469110373096219E-2</v>
       </c>
       <c r="J16" s="34">
         <f>totals!P11/totals!$H11</f>
-        <v>5.8599891994783347E-2</v>
+        <v>5.859395328623361E-2</v>
       </c>
       <c r="K16" s="98">
         <f>SUM($C16:J16)</f>
-        <v>-9.0974528964690216E-2</v>
+        <v>-9.0863965966327051E-2</v>
       </c>
       <c r="L16" s="98">
         <f t="shared" si="10"/>
-        <v>-0.17704631542600396</v>
+        <v>-0.17692702962565687</v>
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -48347,43 +48408,43 @@
       </c>
       <c r="C17" s="34">
         <f>totals!I12/totals!$H12</f>
-        <v>-0.13309691234805146</v>
+        <v>-0.13309724216934302</v>
       </c>
       <c r="D17" s="34">
         <f>totals!J12/totals!$H12</f>
-        <v>-6.7325435955944118E-2</v>
+        <v>-6.7325602791987488E-2</v>
       </c>
       <c r="E17" s="34">
         <f>totals!K12/totals!$H12</f>
-        <v>5.9923189894326379E-2</v>
+        <v>5.9923338387206766E-2</v>
       </c>
       <c r="F17" s="34">
         <f>totals!L12/totals!$H12</f>
-        <v>2.9272076924034132E-2</v>
+        <v>2.9272149461811659E-2</v>
       </c>
       <c r="G17" s="34">
         <f>totals!M12/totals!$H12</f>
-        <v>-9.5464854510069419E-2</v>
+        <v>-9.4750019292165269E-2</v>
       </c>
       <c r="H17" s="34">
         <f>totals!N12/totals!$H12</f>
-        <v>1.5153962700129271E-2</v>
+        <v>1.4436450413859551E-2</v>
       </c>
       <c r="I17" s="34">
         <f>totals!O12/totals!$H12</f>
-        <v>2.5638172098048376E-2</v>
+        <v>2.5638235630814729E-2</v>
       </c>
       <c r="J17" s="34">
         <f>totals!P12/totals!$H12</f>
-        <v>3.9215896673627744E-2</v>
+        <v>3.921599385272425E-2</v>
       </c>
       <c r="K17" s="98">
         <f>SUM($C17:J17)</f>
-        <v>-0.1266839045238991</v>
+        <v>-0.12668669650707884</v>
       </c>
       <c r="L17" s="98">
         <f t="shared" si="10"/>
-        <v>-0.19153797329557523</v>
+        <v>-0.19154092599061781</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -48393,43 +48454,43 @@
       </c>
       <c r="C18" s="34">
         <f>totals!I13/totals!$H13</f>
-        <v>-0.16256095607432616</v>
+        <v>-0.16255831943896495</v>
       </c>
       <c r="D18" s="34">
         <f>totals!J13/totals!$H13</f>
-        <v>-8.4577677414783489E-2</v>
+        <v>-8.4576305618625142E-2</v>
       </c>
       <c r="E18" s="34">
         <f>totals!K13/totals!$H13</f>
-        <v>4.3378611554591606E-2</v>
+        <v>4.3377907981089661E-2</v>
       </c>
       <c r="F18" s="34">
         <f>totals!L13/totals!$H13</f>
-        <v>1.993021918656512E-2</v>
+        <v>1.992989593108033E-2</v>
       </c>
       <c r="G18" s="34">
         <f>totals!M13/totals!$H13</f>
-        <v>-9.963475918427725E-2</v>
+        <v>-9.883251540304018E-2</v>
       </c>
       <c r="H18" s="34">
         <f>totals!N13/totals!$H13</f>
-        <v>1.4725918653561629E-2</v>
+        <v>1.3941271403999157E-2</v>
       </c>
       <c r="I18" s="34">
         <f>totals!O13/totals!$H13</f>
-        <v>1.9881962123482505E-2</v>
+        <v>1.98816396506966E-2</v>
       </c>
       <c r="J18" s="34">
         <f>totals!P13/totals!$H13</f>
-        <v>3.4200437623303881E-2</v>
+        <v>3.4199882913948175E-2</v>
       </c>
       <c r="K18" s="98">
         <f>SUM($C18:J18)</f>
-        <v>-0.21465624353188209</v>
+        <v>-0.21463654257981638</v>
       </c>
       <c r="L18" s="98">
         <f t="shared" si="10"/>
-        <v>-0.26873864327866848</v>
+        <v>-0.26871806514446117</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -48439,43 +48500,43 @@
       </c>
       <c r="C19" s="36">
         <f>totals!I14/totals!$H14</f>
-        <v>-0.19345583868303706</v>
+        <v>-0.19347352343621022</v>
       </c>
       <c r="D19" s="36">
         <f>totals!J14/totals!$H14</f>
-        <v>-0.1169164535379487</v>
+        <v>-0.11692714144810315</v>
       </c>
       <c r="E19" s="36">
         <f>totals!K14/totals!$H14</f>
-        <v>2.5409561720716907E-2</v>
+        <v>2.5411884534183422E-2</v>
       </c>
       <c r="F19" s="36">
         <f>totals!L14/totals!$H14</f>
-        <v>6.4014404480498398E-3</v>
+        <v>6.4020256353207279E-3</v>
       </c>
       <c r="G19" s="36">
         <f>totals!M14/totals!$H14</f>
-        <v>-8.6835654645771088E-2</v>
+        <v>-8.6387761243623878E-2</v>
       </c>
       <c r="H19" s="36">
         <f>totals!N14/totals!$H14</f>
-        <v>1.0490501694786979E-2</v>
+        <v>9.9442142690288424E-3</v>
       </c>
       <c r="I19" s="36">
         <f>totals!O14/totals!$H14</f>
-        <v>1.2016963376462136E-2</v>
+        <v>1.2018061906403905E-2</v>
       </c>
       <c r="J19" s="36">
         <f>totals!P14/totals!$H14</f>
-        <v>2.0953911374570127E-2</v>
+        <v>2.0955826875044003E-2</v>
       </c>
       <c r="K19" s="71">
         <f>SUM($C19:J19)</f>
-        <v>-0.32193556825217085</v>
+        <v>-0.32205641290795634</v>
       </c>
       <c r="L19" s="71">
         <f t="shared" si="10"/>
-        <v>-0.35490644300320312</v>
+        <v>-0.35503030168940425</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -48561,43 +48622,43 @@
       </c>
       <c r="C30" s="34">
         <f>totals!I29/totals!$H29</f>
-        <v>-0.14443306575438764</v>
+        <v>-0.14443523714962739</v>
       </c>
       <c r="D30" s="34">
         <f>totals!J29/totals!$H29</f>
-        <v>-7.6762325238103057E-2</v>
+        <v>-7.676347927680427E-2</v>
       </c>
       <c r="E30" s="34">
         <f>totals!K29/totals!$H29</f>
-        <v>3.8771224232388164E-2</v>
+        <v>3.8771807115894084E-2</v>
       </c>
       <c r="F30" s="34">
         <f>totals!L29/totals!$H29</f>
-        <v>5.7162247703690668E-2</v>
+        <v>5.7163107076382849E-2</v>
       </c>
       <c r="G30" s="34">
         <f>totals!M29/totals!$H29</f>
-        <v>-0.10455863001255031</v>
+        <v>-0.10379772933463384</v>
       </c>
       <c r="H30" s="34">
         <f>totals!N29/totals!$H29</f>
-        <v>1.4956984093226704E-2</v>
+        <v>1.4179702430700922E-2</v>
       </c>
       <c r="I30" s="34">
         <f>totals!O29/totals!$H29</f>
-        <v>3.2038902425370372E-2</v>
+        <v>3.2039384095684922E-2</v>
       </c>
       <c r="J30" s="34">
         <f>totals!P29/totals!$H29</f>
-        <v>5.0477764837592733E-2</v>
+        <v>5.0478523716300384E-2</v>
       </c>
       <c r="K30" s="97">
         <f>SUM($C30:J30)</f>
-        <v>-0.13234689771277239</v>
+        <v>-0.13236392132610234</v>
       </c>
       <c r="L30" s="97">
         <f>K30-SUM(I30:J30)</f>
-        <v>-0.2148635649757355</v>
+        <v>-0.21488182913808765</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -48607,43 +48668,43 @@
       </c>
       <c r="C31" s="34">
         <f>totals!I30/totals!$H30</f>
-        <v>-0.12109904349485112</v>
+        <v>-0.12110648269915268</v>
       </c>
       <c r="D31" s="34">
         <f>totals!J30/totals!$H30</f>
-        <v>-7.3524550216855361E-2</v>
+        <v>-7.3529066884654368E-2</v>
       </c>
       <c r="E31" s="34">
         <f>totals!K30/totals!$H30</f>
-        <v>2.5852381617395805E-2</v>
+        <v>2.5853969748424618E-2</v>
       </c>
       <c r="F31" s="34">
         <f>totals!L30/totals!$H30</f>
-        <v>0.10137728628919331</v>
+        <v>0.10138351397128292</v>
       </c>
       <c r="G31" s="34">
         <f>totals!M30/totals!$H30</f>
-        <v>-9.7411384331365758E-2</v>
+        <v>-9.6835235097592676E-2</v>
       </c>
       <c r="H31" s="34">
         <f>totals!N30/totals!$H30</f>
-        <v>1.3463837160438023E-2</v>
+        <v>1.2821100222725559E-2</v>
       </c>
       <c r="I31" s="34">
         <f>totals!O30/totals!$H30</f>
-        <v>2.8381817972264717E-2</v>
+        <v>2.8383561488449918E-2</v>
       </c>
       <c r="J31" s="34">
         <f>totals!P30/totals!$H30</f>
-        <v>8.0088820644340544E-2</v>
+        <v>8.0093740560153656E-2</v>
       </c>
       <c r="K31" s="98">
         <f>SUM($C31:J31)</f>
-        <v>-4.2870834359439849E-2</v>
+        <v>-4.2934898690363058E-2</v>
       </c>
       <c r="L31" s="98">
         <f t="shared" ref="L31:L36" si="12">K31-SUM(I31:J31)</f>
-        <v>-0.15134147297604511</v>
+        <v>-0.15141220073896663</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -48653,43 +48714,43 @@
       </c>
       <c r="C32" s="34">
         <f>totals!I31/totals!$H31</f>
-        <v>-9.137810644672624E-2</v>
+        <v>-9.1381544711334375E-2</v>
       </c>
       <c r="D32" s="34">
         <f>totals!J31/totals!$H31</f>
-        <v>-5.1384975419454658E-2</v>
+        <v>-5.1386908871013728E-2</v>
       </c>
       <c r="E32" s="34">
         <f>totals!K31/totals!$H31</f>
-        <v>2.1564298832841271E-2</v>
+        <v>2.1565110228134513E-2</v>
       </c>
       <c r="F32" s="34">
         <f>totals!L31/totals!$H31</f>
-        <v>0.1875073171595743</v>
+        <v>0.18751437245758196</v>
       </c>
       <c r="G32" s="34">
         <f>totals!M31/totals!$H31</f>
-        <v>-8.8801590023688412E-2</v>
+        <v>-8.8234410751663481E-2</v>
       </c>
       <c r="H32" s="34">
         <f>totals!N31/totals!$H31</f>
-        <v>1.2509783790514891E-2</v>
+        <v>1.190210711523528E-2</v>
       </c>
       <c r="I32" s="34">
         <f>totals!O31/totals!$H31</f>
-        <v>4.7507183404586352E-2</v>
+        <v>4.750897094728869E-2</v>
       </c>
       <c r="J32" s="34">
         <f>totals!P31/totals!$H31</f>
-        <v>0.11917763144878331</v>
+        <v>0.11918211572021577</v>
       </c>
       <c r="K32" s="98">
         <f>SUM($C32:J32)</f>
-        <v>0.15670154274643083</v>
+        <v>0.15666981213444461</v>
       </c>
       <c r="L32" s="98">
         <f t="shared" si="12"/>
-        <v>-9.9832721069388342E-3</v>
+        <v>-1.0021274533059843E-2</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -48699,43 +48760,43 @@
       </c>
       <c r="C33" s="34">
         <f>totals!I32/totals!$H32</f>
-        <v>-6.0396626758170542E-2</v>
+        <v>-6.0392821462368747E-2</v>
       </c>
       <c r="D33" s="34">
         <f>totals!J32/totals!$H32</f>
-        <v>-3.0188744906043501E-2</v>
+        <v>-3.0186842861005252E-2</v>
       </c>
       <c r="E33" s="34">
         <f>totals!K32/totals!$H32</f>
-        <v>1.5777903420072077E-2</v>
+        <v>1.5776909331612701E-2</v>
       </c>
       <c r="F33" s="34">
         <f>totals!L32/totals!$H32</f>
-        <v>9.8348072421698809E-2</v>
+        <v>9.8341875991083585E-2</v>
       </c>
       <c r="G33" s="34">
         <f>totals!M32/totals!$H32</f>
-        <v>-9.48962550682447E-2</v>
+        <v>-9.404052046100593E-2</v>
       </c>
       <c r="H33" s="34">
         <f>totals!N32/totals!$H32</f>
-        <v>1.7169326697605208E-2</v>
+        <v>1.6381494388493494E-2</v>
       </c>
       <c r="I33" s="34">
         <f>totals!O32/totals!$H32</f>
-        <v>3.0759448619477013E-2</v>
+        <v>3.0757510617191459E-2</v>
       </c>
       <c r="J33" s="34">
         <f>totals!P32/totals!$H32</f>
-        <v>0.10197618035279417</v>
+        <v>0.10196975533285832</v>
       </c>
       <c r="K33" s="98">
         <f>SUM($C33:J33)</f>
-        <v>7.8549304779188533E-2</v>
+        <v>7.8607360876859628E-2</v>
       </c>
       <c r="L33" s="98">
         <f t="shared" si="12"/>
-        <v>-5.4186324193082641E-2</v>
+        <v>-5.4119905073190144E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -48745,43 +48806,43 @@
       </c>
       <c r="C34" s="34">
         <f>totals!I33/totals!$H33</f>
-        <v>-0.14243544857647414</v>
+        <v>-0.14242985205202999</v>
       </c>
       <c r="D34" s="34">
         <f>totals!J33/totals!$H33</f>
-        <v>-6.9760870469158923E-2</v>
+        <v>-6.9758129449133871E-2</v>
       </c>
       <c r="E34" s="34">
         <f>totals!K33/totals!$H33</f>
-        <v>8.301562793116056E-2</v>
+        <v>8.3012366109783881E-2</v>
       </c>
       <c r="F34" s="34">
         <f>totals!L33/totals!$H33</f>
-        <v>2.0527865614799069E-2</v>
+        <v>2.0527059040994253E-2</v>
       </c>
       <c r="G34" s="34">
         <f>totals!M33/totals!$H33</f>
-        <v>-9.5580744424453773E-2</v>
+        <v>-9.4757872378880989E-2</v>
       </c>
       <c r="H34" s="34">
         <f>totals!N33/totals!$H33</f>
-        <v>1.6806511574405544E-2</v>
+        <v>1.6026026353350032E-2</v>
       </c>
       <c r="I34" s="34">
         <f>totals!O33/totals!$H33</f>
-        <v>2.9755786387587212E-2</v>
+        <v>2.9754617233506978E-2</v>
       </c>
       <c r="J34" s="34">
         <f>totals!P33/totals!$H33</f>
-        <v>1.9662960642617928E-2</v>
+        <v>1.9662188052360512E-2</v>
       </c>
       <c r="K34" s="98">
         <f>SUM($C34:J34)</f>
-        <v>-0.13800831131951652</v>
+        <v>-0.13796359709004921</v>
       </c>
       <c r="L34" s="98">
         <f t="shared" si="12"/>
-        <v>-0.18742705834972168</v>
+        <v>-0.18738040237591669</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
@@ -48791,31 +48852,31 @@
       </c>
       <c r="C35" s="34">
         <f>totals!I34/totals!$H34</f>
-        <v>-1.9775172561478583E-2</v>
+        <v>-1.9767738070087769E-2</v>
       </c>
       <c r="D35" s="34">
         <f>totals!J34/totals!$H34</f>
-        <v>-6.9163029518221593E-3</v>
+        <v>-6.9137027623880727E-3</v>
       </c>
       <c r="E35" s="34">
         <f>totals!K34/totals!$H34</f>
-        <v>0.634353373935438</v>
+        <v>0.63411488829478957</v>
       </c>
       <c r="F35" s="34">
         <f>totals!L34/totals!$H34</f>
-        <v>1.8436458959792804E-2</v>
+        <v>1.8429527758814023E-2</v>
       </c>
       <c r="G35" s="34">
         <f>totals!M34/totals!$H34</f>
-        <v>-0.10702649152469007</v>
+        <v>-0.10527515407683047</v>
       </c>
       <c r="H35" s="34">
         <f>totals!N34/totals!$H34</f>
-        <v>2.6537740199378056E-2</v>
+        <v>2.5192613331710679E-2</v>
       </c>
       <c r="I35" s="34">
         <f>totals!O34/totals!$H34</f>
-        <v>8.7555653216777565E-2</v>
+        <v>8.7522736601358231E-2</v>
       </c>
       <c r="J35" s="34">
         <f>totals!P34/totals!$H34</f>
@@ -48823,11 +48884,11 @@
       </c>
       <c r="K35" s="98">
         <f>SUM($C35:J35)</f>
-        <v>0.63316525927339562</v>
+        <v>0.63330317107736622</v>
       </c>
       <c r="L35" s="98">
         <f t="shared" si="12"/>
-        <v>0.54560960605661801</v>
+        <v>0.54578043447600799</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -48837,43 +48898,43 @@
       </c>
       <c r="C36" s="36">
         <f>totals!I35/totals!$H35</f>
-        <v>-8.5272743865644457E-2</v>
+        <v>-8.5268790309151299E-2</v>
       </c>
       <c r="D36" s="36">
         <f>totals!J35/totals!$H35</f>
-        <v>-3.7158496888605487E-2</v>
+        <v>-3.715677408469429E-2</v>
       </c>
       <c r="E36" s="36">
         <f>totals!K35/totals!$H35</f>
-        <v>0.36249187624058715</v>
+        <v>0.36247506979052979</v>
       </c>
       <c r="F36" s="36">
         <f>totals!L35/totals!$H35</f>
-        <v>3.428980288059575E-2</v>
+        <v>3.4288213079837829E-2</v>
       </c>
       <c r="G36" s="36">
         <f>totals!M35/totals!$H35</f>
-        <v>-9.8352969162290318E-2</v>
+        <v>-9.7501388880474521E-2</v>
       </c>
       <c r="H36" s="36">
         <f>totals!N35/totals!$H35</f>
-        <v>1.8146459159484984E-2</v>
+        <v>1.7344961204893174E-2</v>
       </c>
       <c r="I36" s="36">
         <f>totals!O35/totals!$H35</f>
-        <v>6.5420645307602693E-2</v>
+        <v>6.541761216705487E-2</v>
       </c>
       <c r="J36" s="36">
         <f>totals!P35/totals!$H35</f>
-        <v>4.1263921675287526E-3</v>
+        <v>4.126200852885788E-3</v>
       </c>
       <c r="K36" s="71">
         <f>SUM($C36:J36)</f>
-        <v>0.26369096583925911</v>
+        <v>0.26372510382088138</v>
       </c>
       <c r="L36" s="71">
         <f t="shared" si="12"/>
-        <v>0.19414392836412767</v>
+        <v>0.19418129080094071</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -48946,43 +49007,43 @@
       </c>
       <c r="C50" s="100">
         <f>totals!I38/totals!$H38</f>
-        <v>-8.5293089667204142E-2</v>
+        <v>-8.5279742470429409E-2</v>
       </c>
       <c r="D50" s="100">
         <f>totals!J38/totals!$H38</f>
-        <v>-4.0209051290436532E-2</v>
+        <v>-4.0202759126302334E-2</v>
       </c>
       <c r="E50" s="100">
         <f>totals!K38/totals!$H38</f>
-        <v>0.12678613787214404</v>
+        <v>0.12676629758335756</v>
       </c>
       <c r="F50" s="100">
         <f>totals!L38/totals!$H38</f>
-        <v>6.179624872368749E-2</v>
+        <v>6.178657845972034E-2</v>
       </c>
       <c r="G50" s="100">
         <f>totals!M38/totals!$H38</f>
-        <v>-9.1165066402748324E-2</v>
+        <v>-9.0079031574384114E-2</v>
       </c>
       <c r="H50" s="100">
         <f>totals!N38/totals!$H38</f>
-        <v>1.8444565107904747E-2</v>
+        <v>1.7526396300937708E-2</v>
       </c>
       <c r="I50" s="100">
         <f>totals!O38/totals!$H38</f>
-        <v>4.6345896877870316E-2</v>
+        <v>4.6338644381709787E-2</v>
       </c>
       <c r="J50" s="100">
         <f>totals!P38/totals!$H38</f>
-        <v>4.4548887332257675E-2</v>
+        <v>4.4541916043403684E-2</v>
       </c>
       <c r="K50" s="97">
         <f>SUM($C50:J50)</f>
-        <v>8.1254528553475286E-2</v>
+        <v>8.1398299598013216E-2</v>
       </c>
       <c r="L50" s="97">
         <f>K50-SUM(I50:J50)</f>
-        <v>-9.6402556566527048E-3</v>
+        <v>-9.4822608271002556E-3</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -48992,43 +49053,43 @@
       </c>
       <c r="C51" s="34">
         <f>totals!I39/totals!$H39</f>
-        <v>-0.10351384420140378</v>
+        <v>-0.10351685085800129</v>
       </c>
       <c r="D51" s="34">
         <f>totals!J39/totals!$H39</f>
-        <v>-4.924678595036671E-2</v>
+        <v>-4.9248216369408966E-2</v>
       </c>
       <c r="E51" s="34">
         <f>totals!K39/totals!$H39</f>
-        <v>0.12360815227186743</v>
+        <v>0.12361174258647124</v>
       </c>
       <c r="F51" s="34">
         <f>totals!L39/totals!$H39</f>
-        <v>6.4229268487350707E-2</v>
+        <v>6.4231134086636874E-2</v>
       </c>
       <c r="G51" s="34">
         <f>totals!M39/totals!$H39</f>
-        <v>-0.10081408647951649</v>
+        <v>-0.10013066575240763</v>
       </c>
       <c r="H51" s="34">
         <f>totals!N39/totals!$H39</f>
-        <v>1.6711923439127391E-2</v>
+        <v>1.5997013948887098E-2</v>
       </c>
       <c r="I51" s="34">
         <f>totals!O39/totals!$H39</f>
-        <v>3.8469134889179489E-2</v>
+        <v>3.8470252261247999E-2</v>
       </c>
       <c r="J51" s="34">
         <f>totals!P39/totals!$H39</f>
-        <v>4.7014912727835735E-2</v>
+        <v>4.7016278320028984E-2</v>
       </c>
       <c r="K51" s="98">
         <f>SUM($C51:J51)</f>
-        <v>3.6458675184073766E-2</v>
+        <v>3.6430688223454306E-2</v>
       </c>
       <c r="L51" s="98">
         <f t="shared" ref="L51:L57" si="14">K51-SUM(I51:J51)</f>
-        <v>-4.9025372432941458E-2</v>
+        <v>-4.905584235782267E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -49038,43 +49099,43 @@
       </c>
       <c r="C52" s="34">
         <f>totals!I40/totals!$H40</f>
-        <v>-9.0714396116906654E-2</v>
+        <v>-9.0694967508663321E-2</v>
       </c>
       <c r="D52" s="34">
         <f>totals!J40/totals!$H40</f>
-        <v>-3.9309155779605545E-2</v>
+        <v>-3.9300736805101939E-2</v>
       </c>
       <c r="E52" s="34">
         <f>totals!K40/totals!$H40</f>
-        <v>0.14739166646280541</v>
+        <v>0.14736009909237008</v>
       </c>
       <c r="F52" s="34">
         <f>totals!L40/totals!$H40</f>
-        <v>7.2831695639408653E-2</v>
+        <v>7.2816097029454255E-2</v>
       </c>
       <c r="G52" s="34">
         <f>totals!M40/totals!$H40</f>
-        <v>-9.0975797427212124E-2</v>
+        <v>-8.9736611216758175E-2</v>
       </c>
       <c r="H52" s="34">
         <f>totals!N40/totals!$H40</f>
-        <v>1.8344492923236144E-2</v>
+        <v>1.7335035777812754E-2</v>
       </c>
       <c r="I52" s="34">
         <f>totals!O40/totals!$H40</f>
-        <v>4.747652575653695E-2</v>
+        <v>4.7466357548852582E-2</v>
       </c>
       <c r="J52" s="34">
         <f>totals!P40/totals!$H40</f>
-        <v>4.499214324817994E-2</v>
+        <v>4.498250712907851E-2</v>
       </c>
       <c r="K52" s="98">
         <f>SUM($C52:J52)</f>
-        <v>0.11003717470644275</v>
+        <v>0.11022778104704475</v>
       </c>
       <c r="L52" s="98">
         <f t="shared" si="14"/>
-        <v>1.7568505701725856E-2</v>
+        <v>1.7778916369113662E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -49084,43 +49145,43 @@
       </c>
       <c r="C53" s="34">
         <f>totals!I41/totals!$H41</f>
-        <v>-0.17095487801504505</v>
+        <v>-0.17096910790065886</v>
       </c>
       <c r="D53" s="34">
         <f>totals!J41/totals!$H41</f>
-        <v>-9.9758905608595294E-2</v>
+        <v>-9.9767209307397284E-2</v>
       </c>
       <c r="E53" s="34">
         <f>totals!K41/totals!$H41</f>
-        <v>9.9769862122457642E-2</v>
+        <v>9.9778166733254306E-2</v>
       </c>
       <c r="F53" s="34">
         <f>totals!L41/totals!$H41</f>
-        <v>3.3740590893107665E-2</v>
+        <v>3.3743399381256853E-2</v>
       </c>
       <c r="G53" s="34">
         <f>totals!M41/totals!$H41</f>
-        <v>-0.10503506421211571</v>
+        <v>-0.10446243312631601</v>
       </c>
       <c r="H53" s="34">
         <f>totals!N41/totals!$H41</f>
-        <v>1.4151686262302987E-2</v>
+        <v>1.3488252586565708E-2</v>
       </c>
       <c r="I53" s="34">
         <f>totals!O41/totals!$H41</f>
-        <v>2.5637669872960105E-2</v>
+        <v>2.5639803892848468E-2</v>
       </c>
       <c r="J53" s="34">
         <f>totals!P41/totals!$H41</f>
-        <v>3.8376979160083327E-2</v>
+        <v>3.8380173570386159E-2</v>
       </c>
       <c r="K53" s="98">
         <f>SUM($C53:J53)</f>
-        <v>-0.16407205952484438</v>
+        <v>-0.16416895417006061</v>
       </c>
       <c r="L53" s="98">
         <f t="shared" si="14"/>
-        <v>-0.22808670855788782</v>
+        <v>-0.22818893163329523</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -49143,43 +49204,43 @@
       </c>
       <c r="C55" s="34">
         <f>totals!I44/totals!$H44</f>
-        <v>-0.16792539331526202</v>
+        <v>-0.16794410368057447</v>
       </c>
       <c r="D55" s="34">
         <f>totals!J44/totals!$H44</f>
-        <v>-9.9086030400855216E-2</v>
+        <v>-9.9097070635983206E-2</v>
       </c>
       <c r="E55" s="34">
         <f>totals!K44/totals!$H44</f>
-        <v>0.10336938684214558</v>
+        <v>0.10338090433185787</v>
       </c>
       <c r="F55" s="34">
         <f>totals!L44/totals!$H44</f>
-        <v>3.3825457239469225E-2</v>
+        <v>3.3829226095681598E-2</v>
       </c>
       <c r="G55" s="34">
         <f>totals!M44/totals!$H44</f>
-        <v>-0.10640960480218689</v>
+        <v>-0.10589891381518306</v>
       </c>
       <c r="H55" s="34">
         <f>totals!N44/totals!$H44</f>
-        <v>1.4099305541612924E-2</v>
+        <v>1.3466908573576547E-2</v>
       </c>
       <c r="I55" s="34">
         <f>totals!O44/totals!$H44</f>
-        <v>2.5283056949659481E-2</v>
+        <v>2.5285874005629424E-2</v>
       </c>
       <c r="J55" s="34">
         <f>totals!P44/totals!$H44</f>
-        <v>4.0082362041855543E-2</v>
+        <v>4.0086828046797286E-2</v>
       </c>
       <c r="K55" s="98">
         <f>SUM($C55:J55)</f>
-        <v>-0.15676145990356138</v>
+        <v>-0.15689034707819799</v>
       </c>
       <c r="L55" s="98">
         <f t="shared" si="14"/>
-        <v>-0.2221268788950764</v>
+        <v>-0.2222630491306247</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
@@ -49189,43 +49250,43 @@
       </c>
       <c r="C56" s="34">
         <f>totals!I45/totals!$H45</f>
-        <v>-0.12727470670421731</v>
+        <v>-0.12719218783030162</v>
       </c>
       <c r="D56" s="34">
         <f>totals!J45/totals!$H45</f>
-        <v>-6.1494041034922051E-2</v>
+        <v>-6.1454171219857232E-2</v>
       </c>
       <c r="E56" s="34">
         <f>totals!K45/totals!$H45</f>
-        <v>0.14215684767264872</v>
+        <v>0.14206467992547323</v>
       </c>
       <c r="F56" s="34">
         <f>totals!L45/totals!$H45</f>
-        <v>5.1216118824358933E-2</v>
+        <v>5.1182912725824842E-2</v>
       </c>
       <c r="G56" s="34">
         <f>totals!M45/totals!$H45</f>
-        <v>-0.10655198160319779</v>
+        <v>-0.10407673231033515</v>
       </c>
       <c r="H56" s="34">
         <f>totals!N45/totals!$H45</f>
-        <v>2.2457889612417077E-2</v>
+        <v>2.0685515431241846E-2</v>
       </c>
       <c r="I56" s="34">
         <f>totals!O45/totals!$H45</f>
-        <v>4.2108925779369623E-2</v>
+        <v>4.2081624352188277E-2</v>
       </c>
       <c r="J56" s="34">
         <f>totals!P45/totals!$H45</f>
-        <v>5.3337455107814527E-2</v>
+        <v>5.3302873635603758E-2</v>
       </c>
       <c r="K56" s="98">
         <f>SUM($C56:J56)</f>
-        <v>1.5956507654271722E-2</v>
+        <v>1.6594514709837936E-2</v>
       </c>
       <c r="L56" s="98">
         <f t="shared" si="14"/>
-        <v>-7.9489873232912428E-2</v>
+        <v>-7.8789983277954084E-2</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -49235,43 +49296,43 @@
       </c>
       <c r="C57" s="36">
         <f>totals!I46/totals!$H46</f>
-        <v>-8.7038543269057189E-2</v>
+        <v>-8.7043476856357771E-2</v>
       </c>
       <c r="D57" s="36">
         <f>totals!J46/totals!$H46</f>
-        <v>-3.9761085303501788E-2</v>
+        <v>-3.9763339072672814E-2</v>
       </c>
       <c r="E57" s="36">
         <f>totals!K46/totals!$H46</f>
-        <v>0.12414597049129254</v>
+        <v>0.12415300743102556</v>
       </c>
       <c r="F57" s="36">
         <f>totals!L46/totals!$H46</f>
-        <v>6.88255181530045E-2</v>
+        <v>6.8829419375262629E-2</v>
       </c>
       <c r="G57" s="36">
         <f>totals!M46/totals!$H46</f>
-        <v>-9.0985080573475471E-2</v>
+        <v>-9.0445630844742761E-2</v>
       </c>
       <c r="H57" s="36">
         <f>totals!N46/totals!$H46</f>
-        <v>1.6284696486754426E-2</v>
+        <v>1.5684329743929568E-2</v>
       </c>
       <c r="I57" s="36">
         <f>totals!O46/totals!$H46</f>
-        <v>4.3706353568668629E-2</v>
+        <v>4.3708830966644546E-2</v>
       </c>
       <c r="J57" s="36">
         <f>totals!P46/totals!$H46</f>
-        <v>4.2276215621634847E-2</v>
+        <v>4.2278611955404617E-2</v>
       </c>
       <c r="K57" s="71">
         <f>SUM($C57:J57)</f>
-        <v>7.7454045175320507E-2</v>
+        <v>7.7401752698493559E-2</v>
       </c>
       <c r="L57" s="71">
         <f t="shared" si="14"/>
-        <v>-8.5285240149829689E-3</v>
+        <v>-8.5856902235555976E-3</v>
       </c>
     </row>
   </sheetData>
@@ -49326,20 +49387,20 @@
       <c r="B2">
         <v>34626.576666144567</v>
       </c>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="252"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
@@ -49368,10 +49429,10 @@
       <c r="L3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="252" t="s">
+      <c r="M3" s="253" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="252"/>
+      <c r="N3" s="253"/>
       <c r="O3" s="113" t="s">
         <v>16</v>
       </c>
@@ -49521,7 +49582,7 @@
         <v>consumable_income</v>
       </c>
       <c r="B7" s="127">
-        <v>31745.622665839361</v>
+        <v>31747.026124493124</v>
       </c>
       <c r="E7" s="101" t="str">
         <f t="shared" si="0"/>
@@ -49576,7 +49637,7 @@
         <v>final_income</v>
       </c>
       <c r="B8">
-        <v>34558.122665839364</v>
+        <v>34559.526124493124</v>
       </c>
       <c r="E8" s="115" t="str">
         <f t="shared" si="0"/>
@@ -49851,7 +49912,7 @@
         <v>indirect_taxes</v>
       </c>
       <c r="B13">
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="E13" s="115" t="str">
         <f t="shared" si="0"/>
@@ -49906,7 +49967,7 @@
         <v>indirect_subsidies</v>
       </c>
       <c r="B14">
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="E14" s="115" t="str">
         <f t="shared" si="0"/>
@@ -50085,11 +50146,11 @@
       </c>
       <c r="H17" s="112">
         <f t="shared" si="1"/>
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="I17" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G17,"_",$F17,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.19239593380102016</v>
+        <v>0.19343780369188063</v>
       </c>
       <c r="J17" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G17,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -50097,27 +50158,27 @@
       </c>
       <c r="K17" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G17,"_",$F17,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.3174999</v>
+        <v>0.3175847</v>
       </c>
       <c r="L17" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G17,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M17" s="110">
         <f t="shared" si="2"/>
-        <v>-7.6404802804807215</v>
+        <v>-7.5362932913946743</v>
       </c>
       <c r="N17" s="111">
         <f t="shared" si="3"/>
-        <v>-2.2544185435300554</v>
+        <v>-2.2428391354650046</v>
       </c>
       <c r="O17" s="114">
         <f t="shared" si="4"/>
-        <v>-0.82381999999999733</v>
+        <v>-0.81197000000000075</v>
       </c>
       <c r="P17" s="109">
         <f t="shared" si="5"/>
-        <v>-0.24307831659164644</v>
+        <v>-0.2416463933141996</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -50140,11 +50201,11 @@
       </c>
       <c r="H18" s="116">
         <f t="shared" si="1"/>
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="I18" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G18,"_",$F18,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.19323130268112165</v>
+        <v>0.19398979648444409</v>
       </c>
       <c r="J18" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G18,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -50152,27 +50213,27 @@
       </c>
       <c r="K18" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G18,"_",$F18,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.31737729999999997</v>
+        <v>0.31746180000000002</v>
       </c>
       <c r="L18" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G18,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M18" s="119">
         <f t="shared" si="2"/>
-        <v>-7.556943392470572</v>
+        <v>-7.4810940121383283</v>
       </c>
       <c r="N18" s="120">
         <f t="shared" si="3"/>
-        <v>-2.2692454068047714</v>
+        <v>-2.2662279560421315</v>
       </c>
       <c r="O18" s="117">
         <f t="shared" si="4"/>
-        <v>-0.83608000000000016</v>
+        <v>-0.82425999999999888</v>
       </c>
       <c r="P18" s="118">
         <f t="shared" si="5"/>
-        <v>-0.25106324094099952</v>
+        <v>-0.24969089440881972</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -50195,7 +50256,7 @@
       </c>
       <c r="H19" s="116">
         <f t="shared" si="1"/>
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
       <c r="I19" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G19,"_",$F19,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
@@ -50207,11 +50268,11 @@
       </c>
       <c r="K19" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G19,"_",$F19,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.32585609999999998</v>
+        <v>0.32582250000000001</v>
       </c>
       <c r="L19" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G19,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M19" s="119">
         <f t="shared" si="2"/>
@@ -50219,15 +50280,15 @@
       </c>
       <c r="N19" s="120">
         <f>IF($H19&lt;&gt;0,M19/ABS($H19/1000),"")</f>
-        <v>-2.0444189204118546</v>
+        <v>-2.0416608142080408</v>
       </c>
       <c r="O19" s="117">
         <f t="shared" si="4"/>
-        <v>1.1800000000000699E-2</v>
+        <v>1.1810000000000986E-2</v>
       </c>
       <c r="P19" s="118">
         <f t="shared" si="5"/>
-        <v>0.2001475014877169</v>
+        <v>0.20004687208760069</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -50250,11 +50311,11 @@
       </c>
       <c r="H20" s="112">
         <f t="shared" si="1"/>
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="I20" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G20,"_",$F20,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.28407140147646548</v>
+        <v>0.28358669868169795</v>
       </c>
       <c r="J20" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G20,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -50262,27 +50323,27 @@
       </c>
       <c r="K20" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G20,"_",$F20,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.3292639</v>
+        <v>0.3290922</v>
       </c>
       <c r="L20" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G20,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M20" s="110">
         <f t="shared" si="2"/>
-        <v>1.5270664870638107</v>
+        <v>1.4785962075870573</v>
       </c>
       <c r="N20" s="111">
         <f t="shared" si="3"/>
-        <v>2.6572398527892425</v>
+        <v>2.702462689389828</v>
       </c>
       <c r="O20" s="114">
         <f t="shared" si="4"/>
-        <v>0.35258000000000234</v>
+        <v>0.33877999999999964</v>
       </c>
       <c r="P20" s="109">
         <f t="shared" si="5"/>
-        <v>0.6135224859120938</v>
+        <v>0.61919562975585374</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
@@ -50309,7 +50370,7 @@
       </c>
       <c r="I21" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G21,"_",$F21,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.27913814570729106</v>
+        <v>0.27881759540425261</v>
       </c>
       <c r="J21" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G21,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -50317,27 +50378,27 @@
       </c>
       <c r="K21" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G21,"_",$F21,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.3283218</v>
+        <v>0.32828649999999998</v>
       </c>
       <c r="L21" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G21,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M21" s="119">
         <f t="shared" si="2"/>
-        <v>1.033740910146369</v>
+        <v>1.0016858798425232</v>
       </c>
       <c r="N21" s="120">
         <f t="shared" si="3"/>
-        <v>3.0219335594984629</v>
+        <v>2.9282271279592331</v>
       </c>
       <c r="O21" s="117">
         <f t="shared" si="4"/>
-        <v>0.25837000000000221</v>
+        <v>0.25820999999999761</v>
       </c>
       <c r="P21" s="118">
         <f t="shared" si="5"/>
-        <v>0.75529271029534184</v>
+        <v>0.75482498248773755</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -50360,11 +50421,11 @@
       </c>
       <c r="H22" s="116">
         <f t="shared" si="1"/>
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
       <c r="I22" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G22,"_",$F22,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.27298894241450045</v>
+        <v>0.27190535020474044</v>
       </c>
       <c r="J22" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G22,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
@@ -50372,27 +50433,27 @@
       </c>
       <c r="K22" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G22,"_",$F22,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.32630320000000002</v>
+        <v>0.32613769999999997</v>
       </c>
       <c r="L22" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G22,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M22" s="119">
         <f>(I22-J22)*100</f>
-        <v>0.41882058086730733</v>
+        <v>0.31046135989130641</v>
       </c>
       <c r="N22" s="120">
         <f t="shared" ref="N22:N23" si="7">IF($H22&lt;&gt;0,M22/ABS($H22/1000),"")</f>
-        <v>3.2977131404051883</v>
+        <v>3.1429457508079102</v>
       </c>
       <c r="O22" s="117">
         <f t="shared" ref="O22:O23" si="8">(K22-L22)*100</f>
-        <v>5.6510000000004057E-2</v>
+        <v>4.3329999999996982E-2</v>
       </c>
       <c r="P22" s="118">
         <f t="shared" ref="P22:P23" si="9">IF($H22&lt;&gt;0,O22/ABS($H22/1000),"")</f>
-        <v>0.44494893058598767</v>
+        <v>0.43864988361249108</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
@@ -50415,7 +50476,7 @@
       </c>
       <c r="H23" s="116">
         <f t="shared" si="1"/>
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
       <c r="I23" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G23,"_",$F23,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
@@ -50427,11 +50488,11 @@
       </c>
       <c r="K23" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G23,"_",$F23,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.32607049999999999</v>
+        <v>0.32603919999999997</v>
       </c>
       <c r="L23" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G23,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.32573809999999997</v>
+        <v>0.32570440000000001</v>
       </c>
       <c r="M23" s="119">
         <f t="shared" ref="M23" si="10">(I23-J23)*100</f>
@@ -50439,15 +50500,15 @@
       </c>
       <c r="N23" s="120">
         <f t="shared" si="7"/>
-        <v>3.1034231488270612</v>
+        <v>3.083836901381543</v>
       </c>
       <c r="O23" s="117">
         <f t="shared" si="8"/>
-        <v>3.3240000000001046E-2</v>
+        <v>3.3479999999996846E-2</v>
       </c>
       <c r="P23" s="118">
         <f t="shared" si="9"/>
-        <v>0.31477622613589906</v>
+        <v>0.31504802699590373</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -50473,35 +50534,35 @@
       </c>
       <c r="I24" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G24,"_",$F24,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.21507870072679727</v>
+        <v>0.21488367735614397</v>
       </c>
       <c r="J24" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G24,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K24" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G24,"_",$F24,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.31881290000000001</v>
+        <v>0.31877660000000002</v>
       </c>
       <c r="L24" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G24,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M24" s="110">
         <f t="shared" si="2"/>
-        <v>4.2592099970709256</v>
+        <v>4.3098944090160796</v>
       </c>
       <c r="N24" s="111">
         <f t="shared" si="3"/>
-        <v>3.2451123787207052</v>
+        <v>3.2837290735360605</v>
       </c>
       <c r="O24" s="114">
         <f t="shared" si="4"/>
-        <v>1.4624599999999988</v>
+        <v>1.4621099999999998</v>
       </c>
       <c r="P24" s="109">
         <f t="shared" si="5"/>
-        <v>1.1142552380952371</v>
+        <v>1.1139885714285713</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -50528,19 +50589,19 @@
       </c>
       <c r="I25" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G25,"_",$F25,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.19981941486698596</v>
+        <v>0.19911754737688112</v>
       </c>
       <c r="J25" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G25,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K25" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G25,"_",$F25,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.3145791</v>
+        <v>0.31454379999999998</v>
       </c>
       <c r="L25" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G25,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M25" s="119">
         <f t="shared" si="2"/>
@@ -50552,11 +50613,11 @@
       </c>
       <c r="O25" s="117">
         <f t="shared" si="4"/>
-        <v>1.0390799999999978</v>
+        <v>1.0388299999999961</v>
       </c>
       <c r="P25" s="118">
         <f t="shared" si="5"/>
-        <v>1.2594909090909066</v>
+        <v>1.2591878787878741</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
@@ -50583,35 +50644,35 @@
       </c>
       <c r="I26" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G26,"_",$F26,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.18802111518144315</v>
+        <v>0.1878727191833176</v>
       </c>
       <c r="J26" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G26,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K26" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G26,"_",$F26,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.30802030000000002</v>
+        <v>0.3079866</v>
       </c>
       <c r="L26" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G26,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M26" s="119">
         <f t="shared" si="2"/>
-        <v>1.5534514425355139</v>
+        <v>1.6087985917334429</v>
       </c>
       <c r="N26" s="120">
         <f t="shared" si="3"/>
-        <v>3.1865670616113109</v>
+        <v>3.3000996753506522</v>
       </c>
       <c r="O26" s="117">
         <f t="shared" si="4"/>
-        <v>0.38320000000000021</v>
+        <v>0.38310999999999762</v>
       </c>
       <c r="P26" s="118">
         <f t="shared" si="5"/>
-        <v>0.7860512820512825</v>
+        <v>0.78586666666666183</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -50638,35 +50699,35 @@
       </c>
       <c r="I27" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G27,"_",$F27,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.22201731616389517</v>
+        <v>0.22149872490784764</v>
       </c>
       <c r="J27" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G27,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K27" s="114">
         <f>VLOOKUP(_xlfn.CONCAT($G27,"_",$F27,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.31999050000000001</v>
+        <v>0.31995820000000003</v>
       </c>
       <c r="L27" s="112">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G27,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M27" s="110">
         <f t="shared" si="2"/>
-        <v>4.9530715407807149</v>
+        <v>4.9713991641864466</v>
       </c>
       <c r="N27" s="111">
         <f t="shared" si="3"/>
-        <v>3.3020476938538108</v>
+        <v>3.3142661094576322</v>
       </c>
       <c r="O27" s="114">
         <f t="shared" si="4"/>
-        <v>1.5802199999999988</v>
+        <v>1.5802700000000003</v>
       </c>
       <c r="P27" s="109">
         <f t="shared" si="5"/>
-        <v>1.0534799999999995</v>
+        <v>1.0535133333333337</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -50693,35 +50754,35 @@
       </c>
       <c r="I28" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G28,"_",$F28,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.18637209222282053</v>
+        <v>0.18567022473271572</v>
       </c>
       <c r="J28" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G28,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K28" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G28,"_",$F28,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.30918879999999999</v>
+        <v>0.30915690000000001</v>
       </c>
       <c r="L28" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G28,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M28" s="119">
         <f t="shared" si="2"/>
-        <v>1.3885491466732514</v>
+        <v>1.3885491466732542</v>
       </c>
       <c r="N28" s="120">
         <f t="shared" si="3"/>
-        <v>3.7027977244620041</v>
+        <v>3.7027977244620121</v>
       </c>
       <c r="O28" s="117">
         <f t="shared" si="4"/>
-        <v>0.50004999999999633</v>
+        <v>0.50013999999999892</v>
       </c>
       <c r="P28" s="118">
         <f t="shared" si="5"/>
-        <v>1.333466666666657</v>
+        <v>1.3337066666666639</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -50748,35 +50809,35 @@
       </c>
       <c r="I29" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G29,"_",$F29,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.20158506193071848</v>
+        <v>0.20106647067467101</v>
       </c>
       <c r="J29" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G29,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K29" s="117">
         <f>VLOOKUP(_xlfn.CONCAT($G29,"_",$F29,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.31426739999999997</v>
+        <v>0.31423570000000001</v>
       </c>
       <c r="L29" s="116">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G29,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M29" s="119">
         <f t="shared" si="2"/>
-        <v>2.9098461174630468</v>
+        <v>2.9281737408687833</v>
       </c>
       <c r="N29" s="120">
         <f t="shared" si="3"/>
-        <v>3.879794823284064</v>
+        <v>3.9042316544917131</v>
       </c>
       <c r="O29" s="117">
         <f t="shared" si="4"/>
-        <v>1.0079099999999952</v>
+        <v>1.0080199999999984</v>
       </c>
       <c r="P29" s="118">
         <f t="shared" si="5"/>
-        <v>1.3438799999999942</v>
+        <v>1.3440266666666651</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -50784,7 +50845,7 @@
         <v>VAT_dir</v>
       </c>
       <c r="B30">
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="E30" s="121" t="str">
         <f t="shared" si="0"/>
@@ -50803,19 +50864,19 @@
       </c>
       <c r="I30" s="123">
         <f>VLOOKUP(_xlfn.CONCAT($G30,"_",$F30,"_",I$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.17903336352253213</v>
+        <v>0.17833149603242729</v>
       </c>
       <c r="J30" s="122">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G30,"_income_",I$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.17248660075608802</v>
+        <v>0.17178473326598317</v>
       </c>
       <c r="K30" s="123">
         <f>VLOOKUP(_xlfn.CONCAT($G30,"_",$F30,"_",K$1),MC!$A$2:$D$1000,4,FALSE)</f>
-        <v>0.30533179999999999</v>
+        <v>0.30529729999999999</v>
       </c>
       <c r="L30" s="122">
         <f>INDEX(gini_poverty!$1:$1048576,MATCH(_xlfn.CONCAT($G30,"_income_",K$1,"_"),gini_poverty!$A:$A,0), MATCH("value", gini_poverty!$1:$1, 0))</f>
-        <v>0.30418830000000002</v>
+        <v>0.30415550000000002</v>
       </c>
       <c r="M30" s="124">
         <f t="shared" si="2"/>
@@ -50827,11 +50888,11 @@
       </c>
       <c r="O30" s="123">
         <f t="shared" si="4"/>
-        <v>0.1143499999999964</v>
+        <v>0.11417999999999706</v>
       </c>
       <c r="P30" s="126">
         <f t="shared" si="5"/>
-        <v>0.30493333333332379</v>
+        <v>0.3044799999999922</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -50839,7 +50900,7 @@
         <v>VAT_ind</v>
       </c>
       <c r="B31">
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -50855,7 +50916,7 @@
         <v>gas_sub_dir</v>
       </c>
       <c r="B33">
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -50863,7 +50924,7 @@
         <v>gas_sub_ind</v>
       </c>
       <c r="B34">
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -51221,24 +51282,24 @@
   <sheetData>
     <row r="4" spans="4:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:15" ht="26.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="253" t="s">
+      <c r="D5" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="256"/>
     </row>
     <row r="6" spans="4:15" ht="23.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="134" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="135"/>
-      <c r="F6" s="256" t="s">
+      <c r="F6" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="258"/>
     </row>
     <row r="7" spans="4:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D7" s="136"/>
@@ -51306,21 +51367,21 @@
     </row>
     <row r="13" spans="4:15" ht="13.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="4:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="258" t="s">
+      <c r="D14" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
-      <c r="H14" s="258" t="s">
+      <c r="E14" s="260"/>
+      <c r="F14" s="261"/>
+      <c r="H14" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="259"/>
-      <c r="J14" s="260"/>
-      <c r="M14" s="261" t="s">
+      <c r="I14" s="260"/>
+      <c r="J14" s="261"/>
+      <c r="M14" s="262" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="262"/>
-      <c r="O14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="264"/>
     </row>
     <row r="15" spans="4:15" s="23" customFormat="1" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="130"/>
@@ -51390,7 +51451,7 @@
       </c>
       <c r="E17" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D17),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2460.7579959936197</v>
+        <v>2420.2955862808481</v>
       </c>
       <c r="F17" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D17),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51401,7 +51462,7 @@
       </c>
       <c r="I17" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D17),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>17420.248035963097</v>
+        <v>17429.333283568114</v>
       </c>
       <c r="J17" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D17),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51412,7 +51473,7 @@
       </c>
       <c r="N17" s="160">
         <f t="shared" ref="N17:O26" si="0">E17/I17</f>
-        <v>0.14125849361694087</v>
+        <v>0.13886334875256731</v>
       </c>
       <c r="O17" s="161">
         <f t="shared" si="0"/>
@@ -51425,7 +51486,7 @@
       </c>
       <c r="E18" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D18),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2006.3490484042572</v>
+        <v>1982.8591873260045</v>
       </c>
       <c r="F18" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D18),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51436,7 +51497,7 @@
       </c>
       <c r="I18" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D18),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>16376.422028237686</v>
+        <v>16379.979936289757</v>
       </c>
       <c r="J18" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D18),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51447,7 +51508,7 @@
       </c>
       <c r="N18" s="160">
         <f t="shared" si="0"/>
-        <v>0.12251449339451141</v>
+        <v>0.12105382271763292</v>
       </c>
       <c r="O18" s="161">
         <f t="shared" si="0"/>
@@ -51460,7 +51521,7 @@
       </c>
       <c r="E19" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D19),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2069.7725619093208</v>
+        <v>2053.1929273531928</v>
       </c>
       <c r="F19" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D19),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51471,7 +51532,7 @@
       </c>
       <c r="I19" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D19),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>17167.367119355811</v>
+        <v>17167.886868379839</v>
       </c>
       <c r="J19" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D19),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51482,7 +51543,7 @@
       </c>
       <c r="N19" s="160">
         <f t="shared" si="0"/>
-        <v>0.12056435605525671</v>
+        <v>0.11959497072029318</v>
       </c>
       <c r="O19" s="161">
         <f t="shared" si="0"/>
@@ -51495,7 +51556,7 @@
       </c>
       <c r="E20" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D20),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2220.9022327389916</v>
+        <v>2199.6048622341932</v>
       </c>
       <c r="F20" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D20),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51506,7 +51567,7 @@
       </c>
       <c r="I20" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D20),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>19990.738636535501</v>
+        <v>19992.728276857364</v>
       </c>
       <c r="J20" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D20),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51517,7 +51578,7 @@
       </c>
       <c r="N20" s="160">
         <f t="shared" si="0"/>
-        <v>0.11109655691661253</v>
+        <v>0.11002024494977765</v>
       </c>
       <c r="O20" s="161">
         <f t="shared" si="0"/>
@@ -51530,7 +51591,7 @@
       </c>
       <c r="E21" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D21),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2706.3327547345721</v>
+        <v>2684.3809905200437</v>
       </c>
       <c r="F21" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D21),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51541,7 +51602,7 @@
       </c>
       <c r="I21" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D21),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>23517.942808276071</v>
+        <v>23518.561589151694</v>
       </c>
       <c r="J21" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D21),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51552,7 +51613,7 @@
       </c>
       <c r="N21" s="160">
         <f t="shared" si="0"/>
-        <v>0.11507523327177245</v>
+        <v>0.11413882521447472</v>
       </c>
       <c r="O21" s="161">
         <f t="shared" si="0"/>
@@ -51565,7 +51626,7 @@
       </c>
       <c r="E22" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D22),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>2897.4746578429958</v>
+        <v>2870.9901455614158</v>
       </c>
       <c r="F22" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D22),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51576,7 +51637,7 @@
       </c>
       <c r="I22" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D22),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>27521.87669465064</v>
+        <v>27523.652107361067</v>
       </c>
       <c r="J22" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D22),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51587,7 +51648,7 @@
       </c>
       <c r="N22" s="160">
         <f t="shared" si="0"/>
-        <v>0.10527896371275332</v>
+        <v>0.10430992712604384</v>
       </c>
       <c r="O22" s="161">
         <f t="shared" si="0"/>
@@ -51600,7 +51661,7 @@
       </c>
       <c r="E23" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D23),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>3300.3200729517566</v>
+        <v>3266.8708106094591</v>
       </c>
       <c r="F23" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D23),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51611,7 +51672,7 @@
       </c>
       <c r="I23" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D23),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>30677.084716247009</v>
+        <v>30680.486249844907</v>
       </c>
       <c r="J23" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D23),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51622,7 +51683,7 @@
       </c>
       <c r="N23" s="160">
         <f t="shared" si="0"/>
-        <v>0.10758258496459611</v>
+        <v>0.10648041181635358</v>
       </c>
       <c r="O23" s="161">
         <f t="shared" si="0"/>
@@ -51635,7 +51696,7 @@
       </c>
       <c r="E24" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D24),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>3813.569389792086</v>
+        <v>3784.3283133967579</v>
       </c>
       <c r="F24" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D24),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51646,7 +51707,7 @@
       </c>
       <c r="I24" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D24),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>38102.222651722077</v>
+        <v>38102.121668100961</v>
       </c>
       <c r="J24" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D24),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51657,7 +51718,7 @@
       </c>
       <c r="N24" s="160">
         <f t="shared" si="0"/>
-        <v>0.10008784591519694</v>
+        <v>9.9320671598321836E-2</v>
       </c>
       <c r="O24" s="161">
         <f t="shared" si="0"/>
@@ -51670,7 +51731,7 @@
       </c>
       <c r="E25" s="155">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D25),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>4788.1586632671297</v>
+        <v>4748.8361048231118</v>
       </c>
       <c r="F25" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D25),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51681,7 +51742,7 @@
       </c>
       <c r="I25" s="159">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D25),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>46320.79893928807</v>
+        <v>46321.593094934775</v>
       </c>
       <c r="J25" s="158">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D25),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51692,7 +51753,7 @@
       </c>
       <c r="N25" s="160">
         <f t="shared" si="0"/>
-        <v>0.1033695180763806</v>
+        <v>0.10251884245627106</v>
       </c>
       <c r="O25" s="161">
         <f t="shared" si="0"/>
@@ -51705,7 +51766,7 @@
       </c>
       <c r="E26" s="163">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(E$12,"_","mean","_",$D26),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>7030.289607259795</v>
+        <v>6992.2275344601485</v>
       </c>
       <c r="F26" s="164">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(F$12,"_","mean","_",$D26),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51716,7 +51777,7 @@
       </c>
       <c r="I26" s="165">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(H$12,"_","mean","_",$D26),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
-        <v>80254.148363862216</v>
+        <v>80246.562493827441</v>
       </c>
       <c r="J26" s="164">
         <f>INDEX(all!$1:$1048576, MATCH(CONCATENATE(I$12,"_","mean","_",$D26),all!$A:$A,0), MATCH("value", all!$1:$1,0))</f>
@@ -51727,7 +51788,7 @@
       </c>
       <c r="N26" s="166">
         <f t="shared" si="0"/>
-        <v>8.7600326594774222E-2</v>
+        <v>8.7134293571740101E-2</v>
       </c>
       <c r="O26" s="167">
         <f t="shared" si="0"/>
@@ -51789,8 +51850,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51805,7 +51866,7 @@
     <col min="12" max="12" width="10.8984375" style="179" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="168"/>
     <col min="14" max="14" width="14.69921875" style="168" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0" style="168" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="168" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="168"/>
   </cols>
   <sheetData>
@@ -51818,13 +51879,13 @@
       <c r="B2" s="168">
         <v>34626.576666144567</v>
       </c>
-      <c r="H2" s="264" t="s">
+      <c r="H2" s="265" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="267"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="168" t="str">
@@ -51838,10 +51899,10 @@
       <c r="J3" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="267" t="s">
+      <c r="K3" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="268"/>
+      <c r="L3" s="269"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="str">
@@ -51939,7 +52000,7 @@
         <v>consumable_income</v>
       </c>
       <c r="B7" s="168">
-        <v>31745.622665839361</v>
+        <v>31747.026124493124</v>
       </c>
       <c r="C7" s="168"/>
       <c r="D7" s="168"/>
@@ -51977,7 +52038,7 @@
         <v>final_income</v>
       </c>
       <c r="B8" s="168">
-        <v>34558.122665839364</v>
+        <v>34559.526124493124</v>
       </c>
       <c r="H8" s="175" t="str">
         <f t="shared" si="0"/>
@@ -52155,7 +52216,7 @@
         <v>indirect_taxes</v>
       </c>
       <c r="B13" s="168">
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="H13" s="101" t="str">
         <f t="shared" si="0"/>
@@ -52189,7 +52250,7 @@
         <v>indirect_subsidies</v>
       </c>
       <c r="B14" s="168">
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="H14" s="115" t="str">
         <f t="shared" si="0"/>
@@ -52592,7 +52653,7 @@
       </c>
       <c r="J23" s="180">
         <f t="shared" si="1"/>
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="K23" s="180" t="str">
         <f t="shared" si="2"/>
@@ -52603,7 +52664,7 @@
         <v/>
       </c>
       <c r="N23" s="180">
-        <v>-3389.1134822360723</v>
+        <v>-3360.1577448095431</v>
       </c>
       <c r="O23" s="180">
         <f t="shared" si="4"/>
@@ -52638,7 +52699,7 @@
       </c>
       <c r="J24" s="182">
         <f t="shared" si="1"/>
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="K24" s="182">
         <f t="shared" si="2"/>
@@ -52649,7 +52710,7 @@
         <v>1000</v>
       </c>
       <c r="N24" s="182">
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="O24" s="182">
         <f t="shared" si="4"/>
@@ -52684,18 +52745,18 @@
       </c>
       <c r="J25" s="182">
         <f t="shared" si="1"/>
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
       <c r="K25" s="182">
         <f t="shared" si="2"/>
-        <v>343.28715675851009</v>
+        <v>340.01816964192398</v>
       </c>
       <c r="L25" s="183">
         <f t="shared" si="3"/>
-        <v>846.20617955677676</v>
+        <v>838.27242266806252</v>
       </c>
       <c r="N25" s="182">
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
       <c r="O25" s="182">
         <f t="shared" si="4"/>
@@ -52730,7 +52791,7 @@
       </c>
       <c r="J26" s="180">
         <f t="shared" si="1"/>
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="K26" s="182" t="str">
         <f t="shared" si="2"/>
@@ -52742,7 +52803,7 @@
       </c>
       <c r="M26" s="168"/>
       <c r="N26" s="180">
-        <v>574.68146334659434</v>
+        <v>547.12918457383046</v>
       </c>
       <c r="O26" s="180">
         <f t="shared" si="4"/>
@@ -52823,7 +52884,7 @@
       </c>
       <c r="J28" s="182">
         <f t="shared" si="1"/>
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
       <c r="K28" s="182">
         <f t="shared" si="2"/>
@@ -52834,7 +52895,7 @@
         <v>971.93253644896799</v>
       </c>
       <c r="N28" s="182">
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
       <c r="O28" s="182">
         <f t="shared" ref="O28:O29" si="6">J28-N28</f>
@@ -52869,7 +52930,7 @@
       </c>
       <c r="J29" s="182">
         <f t="shared" si="1"/>
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
       <c r="K29" s="182">
         <f t="shared" si="2"/>
@@ -52880,7 +52941,7 @@
         <v>1000</v>
       </c>
       <c r="N29" s="182">
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
       <c r="O29" s="182">
         <f t="shared" si="6"/>
@@ -52892,7 +52953,7 @@
         <v>VAT_dir</v>
       </c>
       <c r="B30" s="168">
-        <v>-3330.156963107479</v>
+        <v>-3301.1215805508518</v>
       </c>
       <c r="C30" s="176" t="str">
         <v>VAT_dir</v>
@@ -52938,19 +52999,19 @@
         <v>VAT_ind</v>
       </c>
       <c r="B31" s="168">
-        <v>-58.956519128593108</v>
+        <v>-59.036164258691223</v>
       </c>
       <c r="C31" s="176" t="str">
         <v>VAT_ind</v>
       </c>
       <c r="D31" s="176">
-        <v>343.28715675851009</v>
+        <v>340.01816964192398</v>
       </c>
       <c r="E31" s="176" t="str">
         <v>VAT_ind</v>
       </c>
       <c r="F31" s="176">
-        <v>846.20617955677676</v>
+        <v>838.27242266806252</v>
       </c>
       <c r="H31" s="115" t="str">
         <f t="shared" si="0"/>
@@ -53030,7 +53091,7 @@
         <v>gas_sub_dir</v>
       </c>
       <c r="B33" s="168">
-        <v>127.00333929465043</v>
+        <v>98.780375006950322</v>
       </c>
       <c r="C33" s="176" t="str">
         <v>gas_sub_dir</v>
@@ -53076,7 +53137,7 @@
         <v>gas_sub_ind</v>
       </c>
       <c r="B34" s="168">
-        <v>105.59882621392843</v>
+        <v>106.26951172886461</v>
       </c>
       <c r="C34" s="176" t="str">
         <v>gas_sub_ind</v>
@@ -53919,18 +53980,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53953,18 +54014,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688B2FF8-EC2C-43B6-830F-CB3A5682666A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D121BB-2F17-4CB9-A6EB-F21D520CE0DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03.Tool/Example_FiscalSim.xlsx
+++ b/03.Tool/Example_FiscalSim.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10829" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="14299" uniqueCount="2022">
   <si>
     <t>Bracket</t>
   </si>
@@ -17734,7 +17734,7 @@
         <v>-203.518850710631</v>
       </c>
       <c r="AE6" s="64">
-        <v>-13.62658662456351</v>
+        <v>-13.62658662456352</v>
       </c>
       <c r="AF6" s="64">
         <v>32.23618891149637</v>
@@ -19116,7 +19116,7 @@
         <v>6.487402886297008</v>
       </c>
       <c r="AH17" s="64">
-        <v>6.041287857945126</v>
+        <v>6.041287857945125</v>
       </c>
       <c r="AI17" s="64">
         <v>3.604304436742737</v>
@@ -20825,7 +20825,7 @@
         <v>-213.408292786445</v>
       </c>
       <c r="N31" s="64">
-        <v>26.39312458358597</v>
+        <v>26.39312458358598</v>
       </c>
       <c r="O31" s="64">
         <v>105.6331513178878</v>
@@ -21853,7 +21853,7 @@
         <v>-969.4662503529736</v>
       </c>
       <c r="AE39" s="64">
-        <v>-70.6527951610056</v>
+        <v>-70.65279516100559</v>
       </c>
       <c r="AF39" s="64">
         <v>97.07688119459668</v>
@@ -21976,7 +21976,7 @@
         <v>210.3747342958241</v>
       </c>
       <c r="AB40" s="64">
-        <v>98.97972670544188</v>
+        <v>98.97972670544186</v>
       </c>
       <c r="AC40" s="64">
         <v>31.29092663388508</v>
@@ -34648,7 +34648,7 @@
         <v>891</v>
       </c>
       <c r="D312" s="13">
-        <v>361.9998384268768</v>
+        <v>361.9998384268767</v>
       </c>
       <c r="E312" s="13">
         <v>99824.0347707803</v>
